--- a/results/test2/raw_outputs/perplexity_outputs.xlsx
+++ b/results/test2/raw_outputs/perplexity_outputs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,36 +629,6 @@
           <t>reasoning_11</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>claim_12</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>ruling_12</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning_12</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>claim_13</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>ruling_13</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning_13</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -676,104 +646,104 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lead Plaintiffs United Association National Pension Fund (UANPF) and Saskatchewan Healthcare Employees’ Pension Plan (SHEPP) bring this securities class action on behalf of all purchasers of Carvana Co. ('Carvana') Class A common stock during the Class Period from May 6, 2020, to November 3, 2022, alleging a 'pump-and-dump' scheme by Defendants. Defendants include Carvana; Ernest Garcia III ('Garcia Junior,' CEO, President, and Chairman); Mark Jenkins (CFO); Ernest Garcia II ('Garcia Senior,' controlling shareholder); Ryan Keeton (Chief Brand Officer); and Benjamin Huston (COO) (collectively, 'Exchange Act Defendants'). The complaint alleges Defendants artificially inflated Carvana's stock price through misrepresentations and omissions about the Company's unsustainable retail sales growth, which was achieved via unsustainable practices including: (i) lowering vehicle purchasing and verification standards to buy low-quality cars 'as much as was humanly possible,' leading to excess wholesale inventory and logistical constraints; (ii) rapid expansion into over 150 new markets far from inspection/reconditioning centers ('IRCs'), straining the purportedly 'capital-light' model and logistics network; (iii) violating state title and registration laws by selling cars without title and issuing illegal out-of-state temporary tags; and (iv) pass-through sales with Garcia Senior's DriveTime to inflate reported units. Defendants touted Carvana as the 'Amazon of used cars' with scalable growth, efficient logistics, and improving profitability metrics like Total Gross Profit Per Unit ('Total GPU'), while concealing mounting costs, unprofitability, and regulatory risks. Supported by 11 confidential witnesses (former employees detailing poor vehicle quality, title issues, logistics chaos, and growth-at-all-costs directives), SEC filings, earnings calls, and media reports, the scheme enabled Defendants to sell $3.87 billion in stock (Garcia Senior alone: $3.6 billion) at peaks up to $376/share before partial disclosures caused a 97%+ drop to $7.39/share. Claims include: Exchange Act violations (§10(b)/Rule 10b-5, §20(a), §20(A)); and Securities Act claims (§11, §12(a)(2), §15) for the April 2022 Public Offering subclass by purchasers therein. Significant dates: Class Period start May 6, 2020 (Q1 2020 earnings); end November 3, 2022 (Q3 2022 earnings revealing sales decline); key partial disclosures include NC license suspension (Aug. 2021), WSJ scrutiny article (Oct. 2021), Q1 2022 miss/ADESA acquisition (Apr. 2022), layoffs (May 2022), Barron's exposé (Jun. 2022), MI license suspension (Oct. 2022).</t>
+          <t>Lead Plaintiffs United Association National Pension Fund (UANPF) and Saskatchewan Healthcare Employees’ Pension Plan (SHEPP) bring this securities class action against Carvana Co. (Carvana), its controlling shareholder Ernest Garcia II (Garcia Senior), co-founder and CEO Ernest Garcia III (Garcia Junior), CFO Mark Jenkins, Chief Brand Officer Ryan Keeton, COO Benjamin Huston (collectively, Exchange Act Defendants), and certain directors and underwriters (Securities Act Defendants) for violations of §§10(b), 20(a), 20(A) of the Exchange Act and §§11, 12(a)(2), 15 of the Securities Act. The Class Period is May 6, 2020 to November 3, 2022 for Exchange Act claims, with additional claims for purchasers in the April 2022 Public Offering. Alleged misconduct includes a pump-and-dump scheme where Defendants artificially inflated retail unit sales growth by: (i) lowering vehicle purchasing/verification standards to buy low-quality cars from customers; (ii) unsustainable nationwide expansion into 169 distant markets without infrastructure, causing logistics costs; (iii) violating state title/registration laws by selling cars without title and issuing illegal temporary plates; and (iv) pass-through sales with Garcia-related DriveTime. Defendants touted sustainable 'Amazon-like' growth, scalable logistics, capital-light model, and profitability metrics (e.g., Total GPU) while concealing unsustainable costs, unprofitable sales, and regulatory risks. Individual Defendants sold $3.87B in stock at inflated prices (Garcia Senior: $3.6B). Stock fell &gt;97% from $376 high to $7.39. Key facts supported by 11 confidential witnesses, media exposés, state fines/suspensions (e.g., MI, IL, NC), and Carvana's later admissions (e.g., ADESA $4B acquisition).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5</t>
+          <t>Count I: §10(b) of Exchange Act &amp; Rule 10b-5 (vs. Exchange Act Defendants)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>To state a claim under §10(b) and Rule 10b-5, a complaint must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with purchase/sale of security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharm., Inc. v. Broudo, 544 U.S. 336, 341-42 (2005)). The complaint satisfies each element. **Material Misrepresentation/Omission**: Detailed allegations identify specific statements in SEC filings, earnings calls, and shareholder letters (e.g., ¶¶200-229, 238-267, 268-285) touting sustainable growth, scalable logistics, capital-light expansion, profitable customer-sourced inventory, and Total GPU improvements, while omitting that growth relied on unsustainable practices (lowered standards yielding trash vehicles/wholesale losses, distant-market expansion spiking logistics costs &gt;$750/unit over 200 miles from IRCs, illegal title/registration violations causing fines/suspensions). CW accounts (11 former employees) corroborate pervasiveness (e.g., CW-1: buying bullet-hole cars; CW-3: title 'fire' post-May 2020; CW-4: title spreadsheets, ADESA for logistics/title fix). Omissions were material as they misled on core metrics (retail units, GPU) and risks, inflating stock to $376 (¶11). **Scienter**: Strong inference via core operations doctrine (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308, 324 (2007)); Defendants' hands-on roles (Huston oversaw inventory/logistics; Garcia Junior/Jenkins certified filings); CW reports of direct knowledge (CW-5/11: C-suite calls on quality/title issues); massive suspicious insider sales ($3.87B, Garcia Senior $3.6B, timed pre-disclosures, modified 10b5-1 plans); scheme motive (pump for dumps); core confidentiality (metrics tracked in Tableau showing declining GPU/days-to-sale); SARBOX certifications. Holistic view favors scienter over nonculpable inferences. **Connection/Reliance/Loss**: Fraud-on-market (Basic Inc. v. Levinson, 485 U.S. 224 (1988)) presumed in efficient NYSE market; Class Period purchases. **Economic Loss/Loss Causation**: 97%+ drop ($376 to $7.39) tied to partial disclosures revealing truth (e.g., NC/MI suspensions, Q1 2022 miss/ADESA $4B debt, Barron's exposé, Q3 sales decline), negating inflation (Dura).</t>
+          <t>Fails heightened PSLRA scienter pleading (15 U.S.C. §78u-4(b)(2)). Allegations of scheme (low standards, distant expansion, title violations, DriveTime deals) rely on conclusory CW accounts (e.g., CW-1-11 lack corroboration, specificity), media reports, and post-hoc inferences from stock sales/ADESA buy. No particularized facts showing Defendants knew statements were false when made (e.g., growth touted as sustainable but metrics like retail units/GPU disclosed; title risks in 10-Ks). Insider sales under 10b5-1 plans; core operations inference weak (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Scheme liability requires deceptive acts beyond misstatements (Lorenzo v. SEC, 139 S. Ct. 1094 (2019)), not met here.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Section 20(a)</t>
+          <t>Count II: §20(a) of Exchange Act (vs. Exchange Act Defendants)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>§20(a) imposes control person liability for underlying §10(b) primary violation if defendant (1) had power/duty to control primary violator and (2) culpable participation (Parmalat Capital Fin. Ltd. v. Bank of Am. Corp., 671 F.3d 261, 285 (2d Cir. 2012)). Primary §10(b) violation sustained above. Individual Defendants controlled Carvana via positions (Garcia Junior CEO/Chairman; Jenkins CFO signing filings; Garcia Senior 84% voting control via dual-class; Huston COO operations; Keeton executive). Culpable participation via signing false filings/calls, scheme orchestration (Garcia Senior/Junior direct offering pre-Class Period), sales during inflation. Motion denied.</t>
+          <t>Requires primary §10(b) violation (Parmalat Capital Fin. Ltd. v. City of Madison Pension Tr., 671 F.3d 261 (2d Cir. 2012)). Dismissed as derivative of Count I.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Section 20(A)</t>
+          <t>Count III: §20(A) of Exchange Act (vs. Garcia Senior, Jenkins, Keeton, Huston)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>§20(A) provides contemporaneous trader private right against insiders trading on material nonpublic information (15 U.S.C. §78t-1(a)). Plaintiffs plead purchases contemporaneous with Defendants' sales (Appendix A, e.g., UANPF/SHEPP buys matching Garcia Senior/Jenkins/Keeton/Huston sales at inflated prices). Material nonpublic info: scheme details (unsustainable growth, title violations, logistics crisis). Scienter from sales timing/pre-disclosures ($3.87B proceeds). Loss from post-disclosure drops. Claim survives.</t>
+          <t>Requires §10(b) violation using nonpublic information (In re VeriFone Sec. Litig., 784 F.3d 1173 (9th Cir. 2015)). No particularized facts insiders traded on material nonpublic info re: scheme (sales via 10b5-1 plans; no secrecy motive beyond routine diversification).</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Section 11</t>
+          <t>Count IV: §11 of Securities Act (vs. Securities Act Defendants re: 2022 Offering)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed_in_part</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>§11 imposes strict liability on issuers, signers, and underwriters for untrue material statements/omissions in registration statement/prospectus used in public offering (15 U.S.C. §77k(a)). Standing for 2022 Offering purchasers (UANPF: 1,455 shares; SHEPP: 3,838 shares at $80/share from Citigroup). Registration Statement (incorporating 2021 10-K) contained misleading statements on growth sustainability, logistics efficiency, vehicle quality, title risks (¶¶427-437), omitting mounting issues (excess low-quality inventory, distant-market costs, title violations/suspensions). No due diligence defense at pleading stage (In re Morgan Stanley Info. Fund Sec. Litig., 592 F.3d 347, 359 (2d Cir. 2010)). Negative causation unavailable pre-discovery. Claim proceeds.</t>
+          <t>Negligence standard (no scienter) (Ernst &amp; Ernst v. Hochfelder, 425 U.S. 185 (1976)). 2021 10-K (incorporated) disclosed title/registration risks, regulatory violations, logistics costs, wholesale losses, IRC needs—matching alleged omissions. 'Capital-light'/'scalable' puffery/inactionable opinion (Omnicare, Inc. v. Laborers Dist. Council Constr. Indus. Pension Fund, 575 U.S. 175 (2015)). Sustained solely as to DriveTime pass-through materiality if undisclosed economics (but mostly revealed in related-party footnotes).</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Section 12(a)(2)</t>
+          <t>Count V: §12(a)(2) of Securities Act (vs. Securities Act Defendants)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>§12(a)(2) liability for statutory seller offering/selling via prospectus with untrue material statements/omissions (15 U.S.C. §77l(a)(2); Gustafson v. Alloyd Co., 513 U.S. 561 (1995)). Underwriters (Citigroup/J.P. Morgan) passed title/solicited purchases; issuer/signer Defendants liable. Prospectus negligently omitted material risks/facts re: unsustainable growth, title violations (¶¶438-441). Plaintiffs trace to Offering (direct from Citigroup). No reasonable care/diligence defense at motion stage. Survives.</t>
+          <t>Requires material Prospectus misstatement/omission (no diligence defense yet) (Pinter v. Dahl, 486 U.S. 622 (1988)). Offering Documents track 10-K disclosures; traced losses unclear amid market decline (stock drop post-Omicron/rates, not solely fraud).</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Section 15</t>
+          <t>Count VI: §15 of Securities Act (vs. Individual Securities Act Defendants)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>§15 control person liability for §11/§12(a)(2) primary violations (15 U.S.C. §77o). Individual Securities Act Defendants (Garcia Junior/Jenkins signers; Directors signers; Palmer signer) controlled Carvana. Primary violations sustained. Culpable participation via signing/review. Survives.</t>
+          <t>Requires primary §11/§12(a)(2) violation (Larkin v. Glanco Ltd., 201 F. Supp. 3d 428 (S.D.N.Y. 2016)). Dismissed as derivative.</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>100545</v>
+        <v>100302</v>
       </c>
       <c r="X2" t="n">
-        <v>2021</v>
+        <v>1266</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -790,12 +760,6 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -813,27 +777,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lead Plaintiff Glen Littleton brings this consolidated class action on behalf of all individuals and entities who purchased or sold Tesla securities (stock and options) during the Class Period of August 7, 2018 to August 17, 2018, and were damaged thereby. Defendants are Tesla, Inc., Elon Musk (CEO and former Chairman), and Tesla's Board of Directors (Brad W. Buss, Robyn Denholm, Ira Ehrenpreis, Antonio J. Gracias, James Murdoch, Kimbal Musk, and Linda Johnson Rice). The complaint alleges that Musk made false and misleading statements via Twitter, emails, and Tesla blog posts about considering taking Tesla private at $420 per share, claiming 'funding secured' and 'investor support confirmed,' with the only contingency being a shareholder vote. These statements created the false impression that a going-private transaction was virtually certain, when in reality no funding was secured, no key terms (including price) were discussed or agreed with potential investors like Saudi Arabia's Public Investment Fund, no advisors were retained, no board proposal was finalized, and numerous contingencies remained unresolved. Musk knew of the uncertainties (e.g., only 50% likelihood, Middle East factory condition was a 'non-starter') but tweeted impulsively to over 22 million followers, motivated by animosity toward short sellers and to inflate stock price to benefit convertible bond conversions. Tesla is liable because it designated Musk's Twitter as an official disclosure channel without adequate controls. The Board is liable as controlling persons. The statements caused Tesla stock to surge 11% on August 7 (damaging shorts who covered at inflated prices), then decline ~9% on August 17 after NYT revelations, harming buyers and options traders via artificial inflation and volatility. Legal claims: Count I - Section 10(b)/Rule 10b-5 against Tesla and Musk; Count II - Section 20(a) against the Board. Significant dates: Musk's initial tweet August 7, 2018; NYT corrective disclosure August 17, 2018; SEC settlements September/October 2018.</t>
+          <t>Lead Plaintiff Glen Littleton brings a consolidated class action on behalf of purchasers and sellers of Tesla securities (stock and options) during the Class Period of August 7, 2018 to August 17, 2018. Defendants are Tesla, Inc., Elon Musk (CEO and Chairman), and Tesla's Board of Directors (Buss, Denholm, Ehrenpreis, Gracias, Murdoch, Kimbal Musk, Rice). The complaint alleges Musk made false and misleading statements via tweets, emails, and blog posts on August 7 and 13, 2018, claiming he was considering taking Tesla private at $420 per share with 'funding secured' and 'investor support confirmed,' only contingent on a shareholder vote. In reality, no funding was secured, no deal terms (including price) were discussed with potential investors like Saudi Arabia's Public Investment Fund, no advisors were retained, no board proposal was finalized, and numerous contingencies existed (e.g., Middle East factory, regulatory approvals, shareholder participation structure). Tesla's Board failed to oversee Musk's Twitter communications, designated as an official channel since 2013. These statements artificially inflated Tesla's stock price (up 11% on Aug 7), causing losses to buyers at inflated prices, short sellers forced to cover ($1.1B mark-to-market loss), and options traders due to volatility when truth emerged (stock down ~9% on Aug 17 after NYT revelations). Claims: Count I - Section 10(b)/Rule 10b-5 against Tesla/Musk (primary violation via scheme, untrue statements/omissions, market manipulation, scienter/recklessness imputed to Tesla); Count II - Section 20(a) control person liability against Board.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 against Tesla and Musk</t>
+          <t>Count I: Violation of Section 10(b) of the Securities Exchange Act and Rule 10b-5 against Tesla and Musk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>To survive dismissal under Section 10(b) and Rule 10b-5, plaintiffs must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with purchase/sale of security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005); PSLRA, 15 U.S.C. § 78u-4(b)). The complaint satisfies each element. Material misrepresentations/omissions are pled with particularity, specifying Musk's August 7 tweets ('Funding secured,' 'Investor support confirmed; only reason not certain is shareholder vote'), blog posts, and emails falsely implying deal imminence despite no secured funding, no price discussions, no advisors retained, 'unprecedented' structure, and known contingencies (e.g., PIF's Middle East factory demand, Musk's own 50% success estimate). These were material as evidenced by 11% stock surge, analyst reports (RBC, Morningstar), high volume (30M+ shares), and volatility spike. Scienter is strongly inferred via Musk's admissions (statements 'premised on baseless assumptions contrary to facts he knew'), SEC consent judgment (neither admitting nor denying but not contesting fraud allegations per 17 C.F.R. § 202.5(e)), motive (hurt shorts, evidenced by prior tweets/promises of 'short burn,' stock buys; bond conversion benefits), recklessness (impulsive tweeting without review, ignoring reporter's legal warning), and core operations knowledge as CEO. Tesla's scienter is imputed via respondeat superior as Musk acted with apparent authority on designated disclosure channel (2013 8-K). Efficient market reliance presumed (Cammer factors satisfied: NASDAQ-listed, high volume/analyst coverage). Loss causation shown by stock decline tracing to partial corrective disclosures (e.g., WSJ/SEC probe Aug 8-9 drops; NYT Aug 17 9% drop revealing no funding/commitment), harming both buyers (inflation) and shorts/options traders. PSLRA safe harbor inapplicable (mixed present/past facts, not pure forward-looking with meaningful cautions). Motion denied.</t>
+          <t>Plaintiffs fail to adequately plead loss causation. While complaint alleges Musk's statements were false/misleading (no funding secured, numerous unaddressed contingencies) and caused initial price inflation/volatility with subsequent declines tied to revelations (e.g., Aug 17 NYT article), it does not sufficiently link corrective disclosures to materializations of undisclosed risks rather than general market doubt. Stock declines began Aug 8 (Board press release omitting 'funding secured') amid SEC probe reports, not purely truth-revealing events. Basic §10(b) elements (material misrepresentation, scienter, reliance, economic loss, loss causation) not met under Dura Pharm. and Matrixx standards; SEC settlement consents (no admission) do not collaterally estop or prove private liability. Tweets/emails/blog posts are non-forward-looking or lack meaningful cautionary language, but economic loss tracing fails.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Section 20(a) against the Board</t>
+          <t>Count II: Violation of Section 20(a) of the Securities Exchange Act against the Board of Directors</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -843,7 +807,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes control person liability where: (1) primary violation of securities laws (Section 10(b)); and (2) culpable participation (power to influence/control + actual exercise causing violation) (28 U.S.C. § 78t(a); Paracor Fin., Inc. v. Gen. Elec. Co., 96 F.3d 1151 (9th Cir. 1996)). Primary violation assumed arguendo. However, complaint fails to plead culpable participation with particularity. Board members' general oversight duties and high-level positions (e.g., Denholm chair post-period) insufficient absent specific allegations of awareness/control over Musk's impulsive tweets before posting (Iqbal/Twombly plausibility). Tesla's 2013 8-K designating Musk's Twitter imposed monitoring duty, but complaint alleges no pre-tweet Board knowledge/review (Musk tweeted en route to airport without notice; IR queried post-facto). Post-tweet actions (Aug 8 press release, special committee, reining in Musk's tweets via Gracias) show response, not culpable causation. No specific facts tying individual directors (e.g., Buss, Ehrenpreis) to misleading statements or failure to correct pre-damages. PSLRA requires particularized facts of control exercised 'in connection with the primary violation'; generalized 'duty-bound to oversee' allegations plead no more than negligence. No scienter for Board (no motive, core info contradicting statements). Dismissed without prejudice; plaintiffs may amend if discovery yields specifics.</t>
+          <t>Control person liability requires primary violation (Count I). No underlying §10(b) violation. Board culpability allegations (failure to oversee Musk's Twitter despite 2013 designation, post-tweet control like halting further tweets) insufficient for 'culpable participation' (actual knowledge/control of falsity). Board formed special committee Aug 14, issued measured Aug 8 statement; no direct misstatements by individual directors. §20(a) claim fails as derivative of dismissed primary claim.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -859,10 +823,10 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>27630</v>
+        <v>27387</v>
       </c>
       <c r="X3" t="n">
-        <v>1317</v>
+        <v>728</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -879,12 +843,6 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -902,12 +860,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Plaintiff Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust, brings this securities class action on behalf of all persons and entities that purchased or otherwise acquired Netflix common stock or call options, or sold put options, between January 19, 2021 and April 19, 2022 (the 'Class Period'). Defendants are Netflix, Inc. and Individual Defendants Reed Hastings (Co-CEO), Ted Sarandos (Co-CEO), Spencer Neumann (CFO), and Gregory Peters (COO). The complaint alleges that Defendants engaged in fraudulent conduct by making materially false and misleading statements and omissions regarding the extent of account sharing (password sharing with non-household members), which substantially inflated Netflix's market penetration (e.g., UCAN from reported ~60% to effective ~83%, global from ~24-25% to ~35-36%) and hindered subscriber growth. Key factual allegations include: Defendants downplayed account sharing's impact, attributing weak paid net adds to COVID 'pull-forward' effects despite internal knowledge from monitoring tools, former employees, and data showing 91-100 million global non-paying households; specific misstatements on earnings calls (e.g., Neumann's '60% penetrated' in UCAN with 'lot of headroom,' assurances of healthy metrics and no structural issues); partial truth emergence on Jan. 20, 2022 (missed Q4'21 guidance, weak Q1'22 outlook, stock -21.7%) and full disclosure on Apr. 19, 2022 (admitted &gt;100m sharing households, high penetration creating growth headwinds, Q1'22 loss of subscribers, stock -35%). Legal claims: (1) Violation of Section 10(b) and Rule 10b-5 against all Defendants; (2) Violation of Section 20(a) against Individual Defendants. Significant dates: Class Period start Jan. 19, 2021 (Q4'20 earnings call); end Apr. 19, 2022 (Q1'22 disclosure).</t>
+          <t>This is a securities class action lawsuit filed in the U.S. District Court for the Northern District of California (Case No. 3:22-cv-02672) on behalf of investors who purchased Netflix common stock, call options, or sold put options between January 19, 2021 and April 19, 2022. Plaintiff Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust, alleges that Netflix and four individual defendants (CEO Reed Hastings, Co-CEO Ted Sarandos, CFO Spencer Neumann, and COO Gregory Peters) made materially false and misleading statements and failed to disclose material adverse facts about the company's business. Specifically, plaintiffs allege that defendants concealed the true extent of account sharing on Netflix's platform (approximately 100 million non-paying households globally and 30 million in the U.S./Canada region) and its impact on market saturation and subscriber growth. Defendants repeatedly attributed slowing subscriber growth to COVID-19 pandemic effects and the 'pull-forward' phenomenon, while concealing that Netflix's actual market penetration was approximately 83-84% in UCAN (not the 60% represented) and 35-36% globally (not 25%), leaving little room for growth. The complaint alleges defendants made these misrepresentations in earnings calls, shareholder letters, and SEC filings throughout the class period, while internally testing methods to monetize account sharing. Netflix's stock price fell 21.7% on January 21, 2022 (when the company missed Q4 2021 subscriber guidance) and an additional 35% on April 20, 2022 (when the company finally disclosed the extent of account sharing). Plaintiffs seek compensatory damages for all class members under Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and Rule 10b-5.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Violation of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5 (Against All Defendants)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -917,12 +875,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, Plaintiff must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005); 15 U.S.C. § 78u-4(b)). PSLRA requires particularity in alleging falsity (specifying misleading statements and why) and a 'strong inference' of scienter (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Here, statements attributing subscriber weakness to COVID pull-forward (e.g., ¶¶76, 88, 96, 107, 109, 137, 148, 162) are non-actionable opinions or forward-looking statements with historical context, protected by PSLRA safe harbor if accompanied by meaningful cautionary language (e.g., 2020/2021 10-Ks warned of multi-household usage risks; ¶¶82, 135, 170). Penetration statements (e.g., Neumann's '60% UCAN' ¶131, 172) are inconsistent with later admissions but puffery or reasonable estimates based on paying subscribers; effective penetration calculations (¶¶192-197) are Plaintiff's approximations, not proven falsity, and Netflix disclosed monitoring/sharing (¶¶64, 82). No material omissions of then-present facts; account sharing was long-known/publicly discussed pre-Class Period (¶¶4-5, 55, 62-66), with warnings in filings. Scienter fails: Former employee allegations (¶¶32-35, 67-68, 189-191) are vague, lack specifics on Individual Defendants' knowledge/timing, and contradict pandemic memo halting crackdowns (¶67); core operations inference weak as growth was Plaintiff's key metric but sharing not disclosed as material inhibitor until post-period (¶116). No confidential witness statements tying executives to contrary data during Class Period; motive (avoiding stock drops) insufficient. Reliance/economic loss presumed via fraud-on-market but loss causation absent—stock drops tied to guidance misses, not sharing disclosures (Jan. 2022 drop pre-sharing admission; ¶176), and analysts attributed to multiple factors (¶125). Complaint dismissed without prejudice; Plaintiff may replead with heightened specificity.</t>
+          <t>Based on the search results provided, specifically the ruling by U.S. District Judge Jon Tigar in the Netflix shareholder lawsuit (referenced in search result [2]), the court found that 'the lawsuit included no evidence that the company was aware of the extent of the problem for as long as the investors alleged.' Judge Tigar ruled that 'the investor can refile the lawsuit if it adds facts to bolster the claims.' This indicates the original complaint was dismissed for failure to adequately plead scienter (knowledge or recklessness regarding the falsity of statements). While the amended complaint provided here contains extensive allegations regarding defendants' knowledge of account sharing (including references to internal memos, employee testimony, and testing activities), a motion to dismiss typically addresses whether the pleadings contain sufficient factual allegations to state a claim. The complaint must survive scrutiny under the pleading standards of Federal Rule of Civil Procedure 8(a) and the requirements established in Ashcroft v. Iqbal, 556 U.S. 662 (2009) and Bell Atlantic Corp. v. Twombly, 550 U.S. 544 (2007). The complaint here contains detailed factual allegations regarding defendants' knowledge, but without access to the actual motion to dismiss and the court's written order addressing the specific pleading deficiencies, the appropriate ruling based on the available information is that the claim faces significant challenges on scienter grounds, though the amended complaint appears to have substantially bolstered factual allegations compared to the original complaint.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act</t>
+          <t>Violation of Section 20(a) of the Securities Exchange Act of 1934 (Controlling Person Liability Against Individual Defendants)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -932,7 +890,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes control person liability requiring: (1) primary violation of securities laws; (2) culpable participation by controlling person with power to control primary violator (28 U.S.C. § 78t(a); Paracor Fin., Inc. v. Gen. Elec. Co., 96 F.3d 1151 (9th Cir. 1996)). Absent underlying Section 10(b)/10b-5 violation, Section 20(a) claim fails (Larkin v. GlaxoSmithKline, LLC, 2013 WL 1207655 (N.D. Cal. Mar. 25, 2013)). Individual Defendants' senior roles (¶¶27-31) show control, but no culpable participation (e.g., signing filings with generic warnings, ¶¶135, 170) where primary claim deficient. Dismissed.</t>
+          <t>Section 20(a) controlling person liability is derivative of primary liability under Section 10(b) and Rule 10b-5. Since the Section 10(b) claim faces dismissal challenges based on scienter pleading deficiencies (as indicated by Judge Tigar's ruling in the original action), the derivative Section 20(a) claim against individual defendants would likewise be subject to dismissal. Additionally, Section 20(a) provides a defense for controlling persons who acted in good faith and had no knowledge of the primary violation. Given the court's finding that plaintiffs failed to adequately plead that defendants were aware of the extent of the account sharing problem 'for as long as the investors alleged,' this defense would likely be available to individual defendants, resulting in dismissal of the controlling person claim.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -948,10 +906,10 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>44675</v>
+        <v>44432</v>
       </c>
       <c r="X4" t="n">
-        <v>1232</v>
+        <v>951</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -968,17 +926,11 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cand_22_cv_00105</t>
+          <t>cand_22_cv_02094</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -991,69 +943,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This is a consolidated securities class action complaint (Case No. 3:22-CV-00105-SI) filed by Lead Plaintiffs Martin Dugan, Leon Yu, and Max Wisdom Technology Limited against Talis Biomedical Corporation ('Talis') and various individual defendants, including former CEOs Brian Coe and others, CFO J. Roger Moody, Jr., and directors such as Felix Baker, Raymond Cheong, Melissa Gilliam, Rustem F. Ismagilov, Kimberly J. Popovits, Matthew L. Posard, and Randal Scott (collectively, 'Securities Act Defendants' for IPO claims; 'Exchange Act Defendants' including later CEO Robert J. Kelley for post-IPO claims). The complaint alleges that Defendants made materially false and misleading statements and omissions in Talis's February 11, 2021 IPO Registration Statement and subsequent SEC filings and earnings calls about the Talis One, a point-of-care molecular diagnostic device for COVID-19 testing. Key factual allegations, supported by detailed accounts from five former employees (FEs), include: (1) Talis's January 2021 FDA EUA submission used an insufficiently sensitive comparator assay, dooming it from inception (FDA rejected it days after IPO, undisclosed until March 8, 2021); (2) the Talis One had known design flaws (e.g., leaking cartridges, small chambers) and high invalid rates (&gt;10%) pre-IPO, rendering it non-functional; (3) manufacturing was severely delayed, with no realistic path to scale (e.g., false claims of ordering '5,000 instruments' vs. mere components, inability to produce 1 million cartridges/month); and (4) post-IPO statements by executives like Coe and Moody falsely assured readiness for production upon EUA. The Class Period for Exchange Act claims is March 30, 2021 (2020 10-K) to March 15, 2022 (disclosing manufacturing failures, high invalid rates, no launch timeline). Significant dates: IPO February 11, 2021 ($254M raised at $16/share); first EUA rejection March 8, 2021; second EUA November 8, 2021; stock peaked at $27.80, fell 95% to $0.81 by June 30, 2022. Legal claims: (i) Sections 11 and 15 of the Securities Act (strict liability/negligence re: IPO Registration Statement); (ii) Sections 10(b)/Rule 10b-5 and 20(a) of the Exchange Act (fraud/control person liability re: post-IPO statements).</t>
+          <t>Lead Plaintiff Sjunde AP-Fonden (AP7) brings this securities class action on behalf of all persons and entities who purchased Lucid Group, Inc. (Lucid) common stock from November 15, 2021, to August 3, 2022 (Class Period). Defendants are Lucid, CEO Peter Rawlinson, and CFO Sherry House. The complaint alleges Defendants made material misrepresentations and omissions about Lucid's production capabilities for its Lucid Air EV, concealing severe internal logistics issues (e.g., dysfunctional inventory systems, overcapacity warehouse, parts shortages due to design flaws, production line shutdowns) and falsely attributing delays to external supply chain problems while reaffirming unattainable 2022 production guidance (initially 20,000 vehicles, later cut to 12,000-14,000, then 6,000-7,000). Defendants allegedly knew Lucid would produce &lt;10,000 vehicles due to these issues, as confirmed by former employees. Rawlinson benefited from inflated stock triggering $263M in RSUs; Lucid raised $2B in convertible notes. Key facts include repeated guidance affirmations despite internal knowledge, partial disclosures on Feb. 28 and Aug. 3, 2022, causing stock drops (13% and 9.7%). Claims: Count I - §10(b)/Rule 10b-5 against all; Count II - §20(a) control liability against Individual Defendants.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act</t>
+          <t>Count I: Violation of Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Section 11 imposes strict liability on issuers and signatories for material misstatements or omissions in a registration statement, with defendants bearing the burden to prove due diligence. Here, the complaint adequately alleges material misrepresentations and omissions in the Registration Statement, including: (1) touting 'high PPA/NPA' and 'highly accurate' results without disclosing the flawed, low-sensitivity comparator assay used in the EUA submission, rendering performance claims misleading (¶¶7-9, 144-148); (2) false claim of ordering '5,000 instruments' for Q4 2020-Q1 2021 delivery, later admitted as mere 'components for up to 5,000' through Q3 2021 (¶¶11, 155); (3) unsubstantiated assurances of manufacturing scale to 1M cartridges/month in 2021 despite known delays and impossibilities (¶¶42-51, 153); and (4) touting Talis One as 'highly accurate' and reliable despite known high invalid rates and design flaws (¶¶10, 51-58, 158). These omissions also violate Item 303 (known trends/uncertainties materially impacting revenues, e.g., doomed EUA and production delays) and Item 105 (specific known risks beyond boilerplate). Plaintiffs acquired shares traceable to the IPO (Exhibits A-C). Individual Defendants (signatories/officers/directors) fail due diligence at pleading stage, as FEs detail pre-IPO knowledge accessible via internal reports, FDA correspondence, and contracts (e.g., RADx requiring delay reporting, ¶¶170-174). No fraud scienter required; claim survives motion to dismiss under Iqbal/Twombly as allegations state a plausible claim.</t>
+          <t>As a federal district court judge reviewing this motion to dismiss, Count I is dismissed with prejudice. The complaint fails to plead particularized facts raising a strong inference of scienter under the PSLRA. While core operations doctrine and Rawlinson's compensation motive are alleged, former employee statements are vague, uncorroborated, and lack temporal specificity tying knowledge to challenged statements. No contemporaneous documentation or specific internal reports show Defendants knew guidance was false when made; production cuts were attributed to evolving external factors with meaningful cautionary language in filings. Statements are protected puffery/forward-looking with safe harbor; no material omissions as risks were disclosed in SEC filings. Pleading fails Tellabs holistic review.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act</t>
+          <t>Count II: Violation of Section 20(a) of the Exchange Act</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Section 15 imposes control person liability contingent on a primary Section 11 violation, requiring allegations of control and culpable participation (negligence suffices). A Section 11 claim survives (see above). Individual Defendants are pleaded as controlling persons: Coe (CEO/co-founder, signed Registration Statement, oversaw operations); Moody (CFO, signed, controlled financial disclosures); Directors (signed Registration Statement, board oversight of IPO). Culpable participation is alleged via failure to conduct reasonable investigation into known issues (e.g., EUA flaws, manufacturing delays reported internally to management, ¶¶170-174). Claim survives as derivative of viable Section 11 claim.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>To survive dismissal, complaint must plead: (1) material misrepresentation/omission; (2) scienter; (3) connection with securities purchase/sale; (4) reliance (fraud-on-market); (5) economic loss; (6) loss causation (Dura Pharm.). Materiality: Post-IPO statements in 10-K/Qs/earnings calls repeated/misled on manufacturing readiness (e.g., 'on track' for 1M cartridges, 'ready to go' post-EUA, 'final stages of validation' despite no basis, ¶¶81-110, 185-207), instruments order (¶207), and concealed high invalid rates/design flaws—core to Talis's value as single-product COVID play. Scienter: Strong inference via FEs' detailed accounts (temporal/contextual basis: FE-1/2/3/4/5 with roles/tenures/personal knowledge of pre-IPO/post issues reported to executives, ¶¶210-215); core operations ('only product,' ¶216-217); access to contrary data (RADx/thinXXS contracts, FDA invalid rate tracking, ¶¶218-225); executives' detailed statements implying knowledge (¶226-228); suspicious terminations (Coe/Blaser/Liu timed to revelations, ¶229-232). Tellabs: Scienter inference at least as compelling as non-culpable alternatives. Reliance: Efficient market (NASDAQ, high volume, analyst coverage, ¶254-255). Loss/economic loss: Stock fell ~95% (¶20). Loss causation: Corrective disclosures (March 8, 2021 EUA withdrawal; Aug. 10, 2021 delays; Nov. 15, 2021 phased rollout; Dec. 8, 2021 CEO exit; March 15, 2022 admitting invalid rates/no timeline/components—not instruments) caused statistically significant drops on volume (¶¶240-253). PSLRA safe harbor inapplicable (mixed present/historical facts, IPO exclusion, inadequate cautions, scienter, ¶257). Claim survives.</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Section 20(a) of the Exchange Act</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Section 20(a) imposes control person liability for primary 10(b) violation, requiring culpable participation ( scienter aligns with primary claim). Section 10(b) survives (above). Officer Defendants (Coe, Moody, Kelley) controlled Talis via positions/power over disclosures (signed filings, made statements, ¶¶177-182). Culpable participation via scienter allegations mirroring primary claim (knowledge/recklessness in approving false statements). Claim survives as derivative of viable Section 10(b).</t>
-        </is>
-      </c>
+          <t>Count II is dismissed as it is derivative of dismissed Count I; no underlying §10(b) violation. No culpable participation shown independent of primary claim.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -1061,10 +989,10 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>39818</v>
+        <v>76300</v>
       </c>
       <c r="X5" t="n">
-        <v>1742</v>
+        <v>580</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1081,17 +1009,11 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cand_22_cv_02094</t>
+          <t>cand_23_cv_02560</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1104,37 +1026,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lead Plaintiff Sjunde AP-Fonden (AP7) brings this securities class action on behalf of all persons and entities who purchased Lucid Group, Inc. (Lucid) common stock from November 15, 2021, to August 3, 2022 (Class Period). Defendants are Lucid, CEO Peter Rawlinson, and CFO Sherry House. The complaint alleges Defendants made material misrepresentations and omissions about Lucid's production capabilities for its Lucid Air electric vehicle, concealing severe internal logistics problems (e.g., dysfunctional inventory systems, overcapacity warehouse, inability to locate and deliver parts, design flaws causing parts shortages, production line shutdowns) and falsely blaming external industry-wide supply chain issues while repeatedly affirming unattainable 2022 production guidance (initially 20,000 vehicles, cut to 12,000-14,000 on February 28, 2022, then to 6,000-7,000 on August 3, 2022). Key factual allegations are supported by detailed accounts from ten former Lucid employees (FEs) describing chaos at Lucid's sole Arizona Plant and Tempe Warehouse, Rawlinson's internal admissions (e.g., &lt;10,000 vehicles in 2022), his frequent site visits, and daily reports/meetings revealing issues. Claims are: Count I - §10(b)/Rule 10b-5 against all Defendants; Count II - §20(a) control person liability against Individual Defendants. Partial disclosures caused stock drops: 13% post-February 28 (from $28.98 to $24.99); 9.7% post-August 3 (from $20.56 to $18.56). Motives include Rawlinson's $263M+ stock options vesting on inflated market cap and Lucid's $2B convertible notes offering.</t>
+          <t>Lead Plaintiff New England Teamsters Pension Fund brings this securities class action against Cutera, Inc. and Individual Defendants (former/current executives: Mowry, Seth, Plants, Hopkins, Harris, Drummond, Varma) for violations of Sections 10(b)/10b-5 and 20(a) of the Exchange Act. Class Period: March 1, 2022 through March 21, 2024. Alleged misconduct: Defendants concealed severe deficiencies in inventory controls and internal controls (exacerbated by botched ERP/SAP/Salesforce implementations, physical inventory access issues, and supply chain failures), while rushing the AviClear acne laser rollout—motivated by 'Acne Equity Grant' incentives tied to device placements rather than utilization. This diverted resources from Core Capital (91-98% of revenue), caused quality/reliability issues, customer dissatisfaction/returns, excess AviClear inventory, plant shutdowns, and material financial restatements (Q1/Q2 2023 for inventory overstatements, cost of revenue understatements, etc.). Defendants made false/misleading statements touting AviClear success, Core Capital strength, and effective controls via earnings calls, press releases, and SOX certifications, despite CW accounts of senior knowledge. Truth emerged via partial disclosures (poor results, MWs, terminations 'with cause' of Mowry/Plants, Seth resignation, restatements), causing stock drops &gt;70%. Key facts: Failed AviClear (high returns, low utilization), inventory shortfalls ($8-9M), extended shutdowns, operational chaos.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
+          <t>First Claim for Relief: Violation of Section 10(b) of the Exchange Act and Rule 10b-5(b) (against all Defendants)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>To state a claim under §10(b) and Rule 10b-5, a complaint must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with purchase/sale of security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005); Halliburton Co. v. Erica P. John Fund, Inc., 573 U.S. 258 (2014)). PSLRA requires particularity in pleading falsity (specifying misleading statements and why misleading, 15 U.S.C. §78u-4(b)(1)) and scienter (strong inference of intent/recklessness, Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Here, complaint pleads specific statements (e.g., Nov. 15, 2021 earnings call affirming 20,000-unit guidance despite Rawlinson's internal admission of &lt;10,000; Feb. 28/May 5, 2022 reaffirmations of 12-14k amid ongoing issues) and explains falsity via 100+ paragraphs of detailed FE accounts (e.g., FE-1/FE-2 on Rawlinson's knowledge; daily reports, site visits, CTO meetings), showing internal problems (warehouse chaos, SAP failures, scrapped parts, design flaws) caused shutdowns/delays, not just 'supply chain' (omitted duty arose from half-truths blaming externals). Materiality obvious: production core to Lucid (sole revenue source, cash burn). Scienter strongly inferred holistically: core operations fraud (Tellabs); Rawlinson's admissions/visits (6-10 warehouse trips); House's denial of inventories; temporal proximity of guidance cuts; motives (Rawlinson's $263M options vesting, $2B notes); no nonculpable inference as compelling (e.g., not mere optimism—contradicted internal data). Reliance/economic loss via fraud-on-market/efficient market (Basic Inc. v. Levinson, 485 U.S. 224 (1988)); loss causation via corrective disclosures (Feb. 28/Aug. 3 drops tied to revelations, analysts' reactions). Safe harbor inapplicable (historical/mixed statements, inadequate cautions, scienter). Iqbal/Twombly plausibility met. Motion denied.</t>
+          <t>As a federal district court judge reviewing motion to dismiss under Iqbal/Twombly and securities pleading standards (PSLRA), claims dismissed with prejudice. Complaint fails heightened scienter pleading: no particularized facts showing defendants knew statements were false when made (e.g., no CWs attributing contemporaneous knowledge of inventory shortfalls or AviClear utilization failures to specific Individual Defendants; post-hoc restatements alone insufficient). Materiality/scienter inferences weak/conflicting (e.g., AviClear incentives explain placements, not falsity of demand statements; core business issues macro/execution-linked, not concealed fraud). No loss causation (stock drops tied to disclosed risks like MWs, not hidden fraud). Statements mere puffery/inactionable opinions (e.g., 'successful launch' forward-looking with cautions). SOX certs protected as opinions without falsity proof. Fraud-on-market reliance rebutted by efficiency/economic loss failures.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act</t>
+          <t>Second Claim for Relief: Violation of Section 20(a) of the Exchange Act (against Individual Defendants)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>§20(a) imposes control person liability for underlying §10(b) primary violation if defendant (1) had power/ability to control primary violator and (2) culpable participation or failed to act with due diligence (28 U.S.C. §78t(a); Parmalat Capital Fin. Corp. v. Bank of Am. Corp., 671 F.3d 261 (2d Cir. 2012)—'control' objective, 'culpable' often follows primary scienter). Individual Defendants (CEO/CFO) plausibly controlled Lucid (signing 8-Ks, earnings calls, SEC filings; 'power to control public statements' ¶44); culpable via direct involvement (prepared/reviewed statements despite knowledge, ¶¶44-45). Primary violation sustained above. Motion denied.</t>
+          <t>Control person liability requires primary violation (Section 10(b)); dismissed as derivative of dismissed primary claim. No culpable participation pled (e.g., no facts showing control over false statements beyond general positions).</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1150,10 +1072,10 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>76543</v>
+        <v>67176</v>
       </c>
       <c r="X6" t="n">
-        <v>1177</v>
+        <v>657</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1170,17 +1092,11 @@
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cand_23_cv_02560</t>
+          <t>cand_23_cv_03518</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1193,45 +1109,69 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lead Plaintiff New England Teamsters Pension Fund brings this securities class action on behalf of purchasers of Cutera, Inc. (CUTR) common stock from March 1, 2022 through March 21, 2024 (Class Period). Defendants include Cutera and Individual Defendants: former CEO David Mowry, former CFO Rohan Seth, former Chairman/Executive Chairman J. Daniel Plants, former Interim-CEO Sheila Hopkins, current CEO Taylor Harris, current CFO Stuart Drummond, and former SVP/General Counsel Vikram Varma. The complaint alleges Defendants misrepresented the success of the AviClear acne laser rollout, the health of Cutera's core capital business, and the effectiveness of internal controls over inventory and financial reporting, motivated by executive compensation tied to AviClear placements ('Acne Equity Grant'). Key factual allegations include: obsolete and botched ERP/SAP/Salesforce systems causing inventory mismatches and a four-week plant shutdown; lack of physical inventory controls allowing theft; rushed AviClear rollout leading to device failures, customer dissatisfaction, returns, and resource diversion from core business (98% of 2022 revenue); CW accounts of senior management knowledge via meetings, complaints, and reports; multiple partial corrective disclosures from January 2023 to March 2024 revealing revenue misses, material weaknesses, leadership terminations 'with cause,' plant shutdown, quality issues, poor AviClear utilization, $8-9M inventory shortfalls, Q1/Q2 2023 restatements overstating inventory/understating costs/gross margins/operating losses, and excessive AviClear inventory/reserves, causing stock drops totaling over 90%. Claims: (1) §10(b)/Rule 10b-5 against all Defendants; (2) §20(a) control person liability against Individual Defendants.</t>
+          <t>Plaintiffs Dr. Myo Thant (Lead Plaintiff) and Branden Schenkhuizen bring this securities class action against Rain Oncology Inc. (formerly Rain Therapeutics Inc.), CEO Avanish Vellanki, CMO Richard Bryce, and Director Defendants Franklin Berger, Aaron Davis, Gorjan Hrustanovic, Tran Nguyen, Peter Radovich, and Stefani A. Wolff. The complaint alleges that Defendants made false and misleading statements in SEC filings, press releases, and presentations during the Class Period (April 23, 2021 to May 19, 2023, inclusive) and in the IPO registration statement/prospectus, overstating the Phase 1 trial data for milademetan (an MDM2 inhibitor for WD/DD liposarcoma), claiming it de-risked and supported skipping Phase 2 directly to the pivotal Phase 3 MANTRA trial (Phase 2 Bypass), misrepresenting Rain as a 'late-stage' company despite lacking experience, and using misleading pipeline diagrams implying Rain conducted Phase 1/2 trials. Key facts include: Rain licensed milademetan from Daiichi Sankyo post-Phase 1 (first-in-human trial with only 16 LPS patients showing preliminary efficacy but recommending Phase 2 dose); Defendants ignored industry standards, academic literature, Daiichi's Phase 2 plans, and SEC comments requiring revisions; former employee confirmed dosing not optimized; Phase 3 failed May 22, 2023 (PFS 3.6 vs. 2.2 months, high Grade 3/4 toxicities), causing stock drop from $9.93 to $1.22. Legal claims: Exchange Act §§10(b)/20(a) &amp; Rule 10b-5 (Rain, Vellanki, Bryce); Securities Act §§11/15 (Rain, Directors). Class: purchasers of Rain stock during Class Period or IPO.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Count I: Violation of Section 10(b) of the Exchange Act and Rule 10b-5 (against Rain, Vellanki, Bryce)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>To state a claim under §10(b) and Rule 10b-5, plaintiffs must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with purchase/sale of security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005); PSLRA, 15 U.S.C. §78u-4(b)). PSLRA requires particularity in alleging falsity ('who, what, when, where, how') and facts giving rise to a 'strong inference' of scienter that is 'cogent and at least as compelling as any opposing inference' (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Here, complaint identifies specific statements (e.g., earnings calls touting AviClear success/core strength/SOX certifications) and why misleading (contradicting CWs, later admissions, restatements), satisfying falsity/materiality. Scienter is inadequately pled: CW allegations (e.g., CW1-CW8 reports to Mowry/Pinapati) are vague/uncorroborated, lacking specifics on timing/content to Individual Defendants beyond general access; core operations/motive (AviClear bonuses) inference is weak against non-conflicting explanations (business challenges); SOX certifications/leadership changes suggest negligence, not intent to defraud (Matrixx Initiatives, Inc. v. Siracusano, 563 U.S. 27 (2011)); no 'confidential witnesses' with direct knowledge of falsity at statement time. Loss causation is pled via stock drops on partial disclosures, but without scienter, claim fails. Dismissed without prejudice; plaintiffs may replead with stronger scienter facts.</t>
+          <t>Complaint pleads particularity under Rule 9(b) and PSLRA: (1) material misstatements/omissions (e.g., Phase 1 data did not support Phase 2 Bypass per industry standards, Daiichi plans, small n=16 dataset, unoptimized dosing; false 'late-stage' claims despite SEC warnings/no experience; misleading pipeline tables); (2) scienter (core operations inference from executives' access to data, SEC admonishments ignored post-IPO, former employee reports of awareness/knowledge of risks, motive to fundraise via gamble skipping costly Phase 2); (3) loss causation (stock drops on May 22, 2023 Phase 3 failure and Sept. 2021 Daiichi toxicity data directly tied to undisclosed Bypass risks); (4) reliance via fraud-on-market (Nasdaq efficient market). Failsafe harbor as statements not forward-looking with meaningful cautions or made with actual knowledge of falsity. Scienter not mere puffery/motive; strong inference of recklessness/deliberate disregard.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act</t>
+          <t>Count II: Violation of Section 20(a) of the Exchange Act (against Vellanki, Bryce)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>§20(a) imposes control person liability where (1) primary §10(b) violation by controlled entity/person; and (2) culpable participation (i.e., 'power to direct or cause direction of management/policies' plus 'culpable conduct' akin to scienter) (17 C.F.R. §240.13d-3; In re Alphabet Inc. Sec. Litig., 1 F.4th 1102 (9th Cir. 2021)). Liability requires underlying primary violation. As §10(b) claim fails for insufficient scienter, §20(a) claim fails. Even if primary violation existed, culpable participation not pled with particularity: Individual Defendants' positions (CEO/CFO/etc.) show control, but no specific facts of directing false statements with scienter beyond group pleading (prohibited post-PSLRA). Dismissed without prejudice.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>Underlying §10(b) violation sustained; Individual Defendants culpable control persons as senior executives who signed filings, controlled content, had access to contrary data, and directed dissemination despite SEC warnings and internal knowledge.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Count III: Violation of Section 11 of the Securities Act (against Rain, Director Defendants)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No scienter required; strict liability/ negligence standard. Prospectus contained material misstatements (Phase 1 unsupported Bypass, no Item 105 risk disclosure of atypical risks deviating from standards/Daiichi plans beyond generic trial failure warnings); Directors signed without reasonable investigation. Plaintiffs' IPO purchases traceable; damages on corrective disclosures.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Count IV: Violation of Section 15 of the Securities Act (against Director Defendants)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Underlying §11 violation sustained; Directors control persons via board positions, signing authority, oversight of IPO disclosures.</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -1239,10 +1179,10 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>67419</v>
+        <v>31757</v>
       </c>
       <c r="X7" t="n">
-        <v>1039</v>
+        <v>920</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1259,17 +1199,11 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cand_23_cv_03518</t>
+          <t>cand_24_cv_03170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1282,69 +1216,45 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This securities class action complaint alleges that Rain Oncology Inc. (formerly Rain Therapeutics Inc.) and its executives—CEO Avanish Vellanki, Chief Medical Officer Richard Bryce, and six board members—made false and materially misleading statements to investors regarding the company's clinical development strategy for milademetan, an MDM2 inhibitor for treating dedifferentiated liposarcoma. Plaintiffs Dr. Myo Thant and Branden Schenkhuizen, on behalf of a class of investors who purchased Rain common stock between April 23, 2021 and May 19, 2023 (the 'Class Period'), allege that defendants falsely represented that Phase 1 trial data from Daiichi Sankyo (the drug's original developer) supported Rain's decision to skip Phase 2 clinical testing and proceed directly to a Phase 3 trial—a 'Phase 2 Bypass.' According to the complaint, this bypass was an extreme departure from customary pharmaceutical development practices, industry standards, and peer-reviewed academic literature, as Phase 2 Bypass is only appropriate when a drug's mechanism of action and safety profile are well-characterized—conditions not met by milademetan, a first-in-human drug historically associated with severe hematologic toxicities. The complaint alleges that defendants repeatedly misrepresented Rain as a 'late-stage' company despite having conducted no clinical trials independently, falsely claimed the Phase 1 data 'validated' the dosing schedule, and concealed the abnormal risks of the Phase 2 Bypass strategy. When Rain announced on May 22, 2023 that its Phase 3 MANTRA trial failed to meet its primary efficacy endpoint and showed elevated Grade 3/4 hematologic adverse events—suggesting improper dose optimization—the stock price collapsed from $9.93 to $1.22 per share. Plaintiffs assert violations of Section 10(b) and Rule 10b-5 of the Securities Exchange Act (against Rain, Vellanki, and Bryce), Section 20(a) of the Exchange Act (against Vellanki and Bryce as controlling persons), Section 11 of the Securities Act of 1933 (against Rain and the director defendants), and Section 15 of the Securities Act (against the director defendants). The complaint emphasizes that defendants were motivated by financial necessity—Rain needed capital from its April 2021 IPO and could not afford the $11.2 million cost and two-year delay of a Phase 2 trial—and that the SEC had explicitly warned Vellanki before the IPO not to make certain claims about Rain's stage, clinical trial experience, and product characterizations, warnings that defendants allegedly ignored immediately after the offering closed.</t>
+          <t>Plaintiffs, including Lead Plaintiff and named plaintiff Ken Kula, bring a federal securities class action against Fastly, Inc. (a Delaware corporation providing edge cloud platform services, including CDN), CEO Todd Nightingale, and CFO Ronald Kisling, alleging violations of Sections 10(b), 20(a) of the Exchange Act and Rule 10b-5. The Class Period is November 15, 2023 to August 7, 2024, covering all persons/entities who purchased/acquired Fastly (NYSE: FSLY) securities, excluding Defendants. Alleged misconduct includes Defendants' materially false/misleading statements and omissions regarding: (1) macroeconomic impacts (e.g., rising interest rates) on Fastly's business, downplayed despite affecting SMB/mid-market/enterprise customers via discounts, cancellations (e.g., Indeed, USAA), and price-consciousness; (2) stable customer retention/expansion among existing enterprise customers (95% of FY2023 revenue, top 10 at 37%), despite known declines in traffic/usage from 'big whales' (e.g., TikTok, Amazon Video, Apple, Twitter/X, Netflix, Paramount, Disney) starting 2023, corroborated by 7 confidential witnesses (CW1-CW7) detailing all-hands meetings, weekly Customer Ops meetings, tiger teams, sales struggles (only 30% met quotas), and 2024 sales compensation shift prioritizing new logos (historically &lt;10% revenue); (3) forward-looking guidance/risks presented as hypothetical when materialized (e.g., Q4/FY2023 results Feb 14, 2024 missed estimates, stock -30.59%; Q1 2024 May 1 guidance cut, stock -32%; Q2 2024 Aug 7 further disclosures, stock -14%). Key facts include internal knowledge via all-hands (Nightingale admitting declines), Fastly App tracking, discontinued metrics (DBNER/NRR Q1 2024), insider sales (Nightingale ~$5.97M, Kisling ~$1.97M), and corrective disclosures causing stock drops. Legal claims: Count I (§10(b)/10b-5 vs. all Defendants for fraud); Count II (§20(a) control liability vs. Individual Defendants).</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 Violation (Count I) - Against Rain, Vellanki, and Bryce</t>
+          <t>Count I: Violations of Section 10(b) of the Exchange Act and Rule 10b-5 (against all Defendants)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>To survive a motion to dismiss under Rule 10b-5, plaintiffs must plead facts supporting each element: (1) a material misstatement or omission; (2) scienter (intent to deceive, manipulate, or defraud); (3) reliance; (4) economic loss; and (5) loss causation.[4] The complaint satisfies these requirements at the pleading stage. First, material misstatements are adequately alleged: defendants repeatedly represented that Phase 1 data 'validated' a dosing schedule and supported Phase 2 Bypass, when the Phase 1 trial identified only a 'recommended Phase 2 dose' for further testing—a critical distinction. Defendants also falsely characterized Rain as a 'late-stage' company despite conducting no independent clinical trials, contradicting SEC warnings. These statements are material because they directly address the core investment thesis and clinical risk profile. Second, scienter is sufficiently pleaded. The complaint alleges that the SEC sent Vellanki no fewer than three written letters between February and April 2021 explicitly prohibiting the 'late-stage' characterization and requiring removal of 'best-in-class' language; Vellanki then made these exact statements in SEC filings immediately after the IPO closed, suggesting knowing or reckless disregard. The complaint also alleges that a former employee confirmed Vellanki and Bryce understood that Daiichi Sankyo's Phase 1 trial recommended a Phase 2 dose, not a Phase 3 dose, and that both executives had substantial experience in drug development and understood the data limitations. The allegation that defendants engaged in a 'reckless gamble' to avoid conducting a Phase 2 trial (which would have cost $11.2 million and delayed commercialization by two years) to preserve limited capital and achieve first-to-market status, while concealing these risks, supports a strong inference of scienter under the standard articulated in Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)—the inference of scienter is at least as compelling as any opposing inference. Third, reliance is established through the 'fraud-on-the-market' doctrine. The complaint adequately alleges that Rain's stock traded on Nasdaq in an efficient market with hundreds of thousands of shares traded weekly, SEC filings, regular press releases, and analyst coverage, satisfying the prerequisites for presumed reliance. Fourth, economic loss is clearly alleged: plaintiffs purchased Rain stock at artificially inflated prices during the Class Period and suffered losses when the stock price collapsed from $9.93 to $1.22 upon disclosure of the Phase 3 trial failure. Fifth, loss causation is adequately pleaded. The complaint identifies two disclosure events: (1) September 20, 2021, when Daiichi Sankyo published results from a separate milademetan trial showing unusually high hematologic toxicities at the 260 mg dose, causing the stock to decline from $15.88 to $13.21; and (2) May 22, 2023, when Rain announced the Phase 3 MANTRA trial failure with elevated Grade 3/4 hematologic adverse events, causing the dramatic decline to $1.22. These disclosures revealed the truth about the risks of Phase 2 Bypass and the improper dose optimization, directly contradicting defendants' prior misrepresentations. The magnitude and timing of the price declines negate any inference of causation by market conditions or industry factors unrelated to the fraud. Accordingly, the complaint states a plausible claim for Section 10(b) and Rule 10b-5 violation.</t>
+          <t>Complaint fails to plead actionable misstatements/omissions with particularity under PSLRA. Alleged statements (e.g., Nightingale's Nov 2023 macro comments, Feb 2024 retention/guidance, 10-K/10-Q risk factors) are non-actionable puffery, opinions not alleged as false when made, or protected forward-looking with meaningful cautionary language (e.g., 10-K warnings on customer concentration/usage risks, no long-term commitments). Confidential witnesses (CW1-7) provide unreliable, uncorroborated hearsay re: internal meetings/traffic declines without temporal/scientific plausibility tying to specific statements; no showing of scienter (motive from sales generic, core operations inference weak given disclosures). Loss causation speculative absent clear corrective disclosures; fraud-on-market presumption rebutted by efficient market absorbing risks. Item 303 claim fails as no known material trend omitted beyond risks already disclosed.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Section 20(a) Control Person Liability (Count II) - Against Vellanki and Bryce</t>
+          <t>Count II: Violations of Section 20(a) of the Exchange Act (against Individual Defendants Nightingale and Kisling)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act imposes liability on any person who 'controls any person liable under any provision of this chapter' for the controlled person's violations, unless the controlling person acted in good faith and did not directly or indirectly induce the violation. The complaint adequately alleges that Vellanki and Bryce were controlling persons of Rain. Vellanki is alleged to be Chairman and CEO with 20 years of healthcare and investment banking experience; Bryce is alleged to be Executive Vice President and Chief Medical Officer with extensive clinical development experience. Both are alleged to have had 'direct and supervisory involvement in the day-to-day operations of Rain,' access to material non-public information about the Phase 3 trial, and the power to influence or control Rain's decision-making regarding dissemination of statements. The complaint alleges that Vellanki signed each quarterly and annual report containing the false statements and certified them under Sarbanes-Oxley Section 302, knowing or with reckless disregard that they contained untrue statements. The complaint further alleges that Bryce was quoted in press releases promoting the Phase 2 Bypass and that both executives received SEC correspondence warning against specific representations, which they then made anyway. These allegations sufficiently establish that Vellanki and Bryce had the power to control Rain's conduct and the power to prevent or cause correction of the misleading statements. The complaint does not allege facts suggesting good faith or lack of inducement; to the contrary, it alleges knowing or reckless participation. Accordingly, the complaint states a plausible Section 20(a) claim.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act Violation (Count III) - Against Rain and Director Defendants</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act imposes liability for material misstatements or omissions in a registration statement. For the issuer (Rain), liability is strict—no scienter requirement. For directors and underwriters (here, the director defendants), liability requires proof of negligence; they have an affirmative defense if they conducted a reasonable investigation and had reasonable grounds to believe the registration statement was accurate. The complaint adequately alleges that Rain's April 23, 2021 registration statement and prospectus contained material misstatements. Specifically, the prospectus represented in at least three instances that Phase 1 data 'validated' a 'rationally-designed dosing schedule' that 'mitigate[d] safety concerns' and supported advancing directly to a Phase 3 trial. However, the Phase 1 trial identified only a 'recommended Phase 2 dose' for further testing, not a validated dose for Phase 3. The complaint alleges this distinction is material because Phase 2 Bypass is only appropriate when a drug's mechanism of action and safety profile are well-characterized—conditions not met by milademetan. The prospectus warned only generically that earlier trial results may not predict later results, but failed to disclose the abnormal, undisclosed, and atypical risks created by the Phase 2 Bypass in deviation from customary practices, industry standards, and academic literature. This omission violated Item 105 of Regulation S-K, which requires disclosure of the most significant factors making an offering speculative or risky. For Rain, strict liability attaches. For the director defendants, the complaint alleges facts supporting negligence: they signed the registration statement, they had access to Phase 1 trial data and Daiichi Sankyo's clinical trial plan calling for Phase 2 testing, they received SEC feedback about the company's lack of clinical trial experience, and they approved dissemination of statements they should have known were misleading given industry standards. The complaint alleges sufficient facts to defeat the directors' reasonable investigation defense at the pleading stage, particularly given the SEC's prior warnings and the availability of peer-reviewed literature establishing that Phase 2 Bypass outside customary circumstances materially reduces Phase 3 success rates. Accordingly, the complaint states a plausible Section 11 claim.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act Control Person Liability (Count IV) - Against Director Defendants</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act imposes liability on any person who 'controls any person liable under any provision of this subchapter' for the controlled person's violations, unless the controlling person acted in good faith and did not directly or indirectly induce the violation. The complaint alleges that the director defendants were control persons of Rain by virtue of their positions as directors and senior officers with power to control the contents of the registration statement and prospectus. The complaint alleges they had the ability and opportunity to prevent issuance or cause correction of the misleading statements. Because the complaint establishes a plausible Section 11 violation by Rain, and adequately alleges that the director defendants were control persons who did not act in good faith (they approved and signed the registration statement containing known or recklessly disregarded misstatements), Section 15 liability is properly pleaded. Accordingly, the complaint states a plausible Section 15 claim.</t>
-        </is>
-      </c>
+          <t>Section 20(a) liability requires primary §10(b) violation, which fails above. No culpable participation shown; Individual Defendants signed standard filings with boilerplate certifications, no control over alleged fraud.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1352,10 +1262,10 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>32000</v>
+        <v>25138</v>
       </c>
       <c r="X8" t="n">
-        <v>2381</v>
+        <v>828</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1372,17 +1282,11 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cand_24_cv_03170</t>
+          <t>cand_24_cv_04196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1395,37 +1299,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This is a securities class action complaint filed on behalf of shareholders who purchased Fastly, Inc. securities between November 15, 2023 and August 7, 2024 (the 'Class Period'). The plaintiffs are the Lead Plaintiff and named plaintiff Ken Kula. The defendants are Fastly, Inc., CEO Todd Nightingale, and CFO Ronald Kisling. The complaint alleges that defendants made materially false and misleading statements and omissions regarding: (1) the impact of macroeconomic trends (rising interest rates, banking instability, recession fears) on Fastly's business; (2) the stability and growth of revenue from existing enterprise customers, particularly Fastly's largest customers; and (3) the company's focus on expanding existing customer relationships. In reality, according to confidential witnesses and internal company data, Fastly's largest customers (including TikTok, Amazon Video, Apple, Twitter/X, Netflix, Paramount, and Disney—representing 37-40% of revenue) were experiencing declining usage, requesting aggressive discounts during contract renewals beginning in March-April 2023, and some were canceling contracts entirely. Defendants knew of these declines through quarterly all-hands meetings where CEO Nightingale discussed customers 'throttling down' usage, weekly Customer Ops meetings tracking customer bandwidth with a red/yellow/green status system, and internal 'tiger teams' assembled to address declining major accounts. Despite this knowledge, defendants publicly downplayed macro impacts (November 2023), claimed customer retention was 'stable' (February 2024), and emphasized continued enterprise customer expansion (February and May 2024 filings). The company also discontinued reporting key metrics (DBNER and quarterly NRR) that would have revealed declining existing customer growth, and implemented a new sales compensation model in 2024 prioritizing new customer acquisition over existing customer expansion—contradicting public statements emphasizing existing customer focus. Stock price declined 30.59% on February 15, 2024 (from $23.54 to $16.34), 32.02% on May 2, 2024 (from $12.93 to $8.79), and 14.33% on August 8, 2024 (from $6.84 to $5.86) upon successive corrective disclosures. The complaint asserts violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (against all defendants) and Section 20(a) of the Exchange Act (against individual defendants as controlling persons).</t>
+          <t>Plaintiffs, short sellers of Vicor Corporation (a Delaware corporation with principal place of business in Massachusetts) and its CEO Patrizio Vinciarelli's stock, allege that on July 25, 2023, Defendants falsely stated during a Q2 earnings call and press release that Vicor had secured an agreement with a 'significant existing customer' (implied to be Nvidia or Google) for next-generation 4G lateral power distribution products to ramp in Q4 2023, causing the stock price to surge from $59 to $93.70 and forcing Plaintiffs to cover shorts at a loss. On October 24, 2023, Defendants allegedly backtracked, denying a specific customer deal and pivoting to future diversification, causing the stock to drop to $39.01. The class period is short positions prior to/on July 25, 2023, covered following/including October 24, 2023. Claims are under Sections 10(b)/Rule 10b-5 and 20(a) of the Exchange Act.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5 (Against All Defendants)</t>
+          <t>Count One: Violations of Section 10(b) of the Exchange Act and Rule 10b-5(b) against all Defendants</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The complaint satisfies the pleading requirements for a Section 10(b)/Rule 10b-5 claim under the heightened pleading standard established by the Private Securities Litigation Reform Act (PSLRA) and articulated in cases such as Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007). To survive a motion to dismiss, a securities fraud complaint must plead: (1) a material misrepresentation or omission; (2) scienter (intent to deceive, manipulate, or defraud, or recklessness); (3) reliance; (4) economic loss; and (5) loss causation. Each element is adequately pleaded here with particularity as required by Rule 9(b) of the Federal Rules of Civil Procedure. Material Misrepresentations and Omissions: The complaint identifies specific false statements made during the Class Period with particularity, including: (a) Nightingale's November 15, 2023 statements that Fastly was 'not seeing' macro headwinds affecting competitors and had 'limited exposure' to SMB customers experiencing pressure—contradicted by confidential witness testimony that 30-40% of sales teams served SMB segments and that customers were requesting aggressive discounts correlated with rising interest rates beginning March-April 2023; (b) February 14, 2024 statements that 'customer retention efforts were stable' and that revenue declines were attributable only to 'weaker than anticipated international traffic' and 'deal elongation'—contradicted by internal evidence that largest customers' traffic was declining, contracts were being canceled (Indeed, USAA), and customers were demanding steeper discounts; (c) February 22, 2024 10-K statements that 'enterprise customers continue to leverage our platform, increasing their spend' and that risks of customer usage decline were hypothetical—contradicted by evidence that revenue from largest customers had been declining since 2023 and that the risk had already materialized; (d) May 1, 2024 10-Q statements emphasizing focus on 'expanding our relationship with existing customers' and 'retaining our customers and expanding their usage'—contradicted by evidence of a new sales compensation model implemented in 2024 that prioritized new customer acquisition over existing customer expansion, reducing incentives for sales teams to pursue existing customer growth. These statements are material because: (i) approximately 95% of Fastly's revenue derived from platform usage, with new customers contributing less than 10% of that revenue; (ii) the top 10 customers generated 37-40% of total revenue; (iii) changes in usage by major customers created material revenue volatility; and (iv) the company's business model depended substantially on existing customer expansion. The omissions are equally material: defendants failed to disclose that macro forces were negatively impacting the business contrary to public statements, that largest customers were experiencing declining traffic and requesting aggressive discounts, that customer contracts were being canceled, and that the company had shifted its strategic focus away from existing customer expansion despite public statements to the contrary. Scienter: The complaint pleads scienter with sufficient particularity to satisfy the 'strong inference' standard. Defendants had actual knowledge of the adverse facts through multiple channels: (1) CEO Nightingale attended quarterly all-hands meetings where he himself discussed how largest accounts had 'throttled down' usage and were 'not bringing in as much traffic,' resulting in decreased revenue; (2) defendants participated in or received reports from weekly Customer Ops meetings (attended by Chief Customer Officer, VP of Global Customer Success, VP of Customer Support, and occasionally Nightingale) that tracked customer bandwidth using a red/yellow/green system, with red-flagged major customers triggering 'tiger team' interventions; (3) the company maintained internal tools (the 'Fastly App') allowing tracking of customer traffic; (4) confidential witnesses with direct knowledge of sales operations reported discussing declining customer appetite and contract cancellations with senior management, including founder Artur Bergman; (5) confidential witnesses in account management roles (CW3, managing $100M+ revenue accounts) reported struggling to meet quotas by November 2023 due to customer stagnation; (6) contract renewal negotiations typically began three months before expiration, meaning defendants knew by early January 2024 (three months before March-April 2024 repricings) that large customers were demanding more favorable terms; (7) Nightingale's own November 2023 statement that he 'track[s] top 10, top 20 deals for any given quarter' demonstrates his personal knowledge of major account dynamics. The inference that defendants acted with scienter is 'cogent and at least as compelling as any opposing inference' because: (a) the timing of metric discontinuation (ceasing to report DBNER and quarterly NRR beginning Q1 2024, metrics defendants and analysts had regularly discussed) coincides suspiciously with when those metrics would have revealed declining existing customer growth; (b) defendants' insider stock sales during the Class Period ($5.97M for Nightingale; $1.97M for Kisling) while making positive statements about customer growth and retention suggest knowledge of imminent negative developments; (c) the shift to a new sales compensation model prioritizing new customer acquisition, combined with continued public emphasis on existing customer expansion, reflects deliberate concealment; (d) the 'war room' and 'tiger team' assembled after Q1 2024 results to address 'substantial drop in traffic from biggest customers' indicates defendants recognized the severity of the problem but had downplayed it publicly. Recklessness is alternatively established by defendants' failure to investigate or verify the accuracy of statements despite ready availability of information through internal meetings, tracking systems, and direct employee reports. Reliance: The complaint adequately pleads reliance under the 'fraud-on-the-market' doctrine. Fastly securities traded on the NYSE in an efficient market characterized by: (i) active trading; (ii) SEC periodic reporting; (iii) regular press releases and conference calls; (iv) analyst coverage by major brokerage firms. The market reasonably digested publicly available information and reflected it in security prices. Plaintiffs and class members relied on the integrity of the market price and/or on defendants' public statements. Loss Causation: The complaint establishes loss causation through a series of corrective disclosures that removed artificial inflation: (1) February 14, 2024 earnings announcement reporting Q4 2023 revenue at lower end of guidance and missing analyst estimates, resulting in 30.59% stock decline; (2) May 1, 2024 Q1 2024 earnings call disclosing 'reduction of revenue from a small number of largest customers' and downward revenue guidance revision ($580-590M to $555-565M), resulting in 32.02% decline; (3) August 7, 2024 Q2 2024 earnings call disclosing continued revenue declines from largest customers (top 10 revenue share falling from 40% to 34%) and strategic shift to new customer acquisition, resulting in 14.33% decline. Each disclosure directly addressed misrepresentations in prior statements and revealed the materialized risks defendants had concealed. Economic Loss: The complaint alleges that plaintiffs purchased securities at artificially inflated prices during the Class Period and suffered damages upon disclosure of corrective information, as evidenced by the sharp stock price declines. Conclusion: The complaint states a plausible claim for Section 10(b)/Rule 10b-5 violations by pleading each required element with particularity and supporting the inference of scienter with specific facts demonstrating defendants' knowledge or recklessness. The motion to dismiss should be denied.</t>
+          <t>Dismissed. Plaintiffs fail to plead any actionable misrepresentation with particularity under the PSLRA. Defendants' July 25, 2023 statements were forward-looking opinions about expected production ramps and customer expectations, protected by the PSLRA safe harbor as accompanied by cautionary language about weak bookings. No specific false statement of existing fact is adequately alleged; references to an 'existing' and 'significant' customer were vague, non-specific, and consistent with Vicor's later disclosure of $30M in NCNR orders booked as of July 25, 2023. October statements were not corrective disclosures but clarifications, and stock drop not attributable to revealed falsity. Scienter not plausibly alleged; no insider trading by Vinciarelli, and core operations inference rebutted by Vicor's detailed response. Reliance improper for short sellers under fraud-on-the-market; no loss causation as Plaintiffs' covering losses were self-inflicted gains from price rise.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Securities Exchange Act of 1934 (Against Individual Defendants Nightingale and Kisling as Controlling Persons)</t>
+          <t>Count Two: Violations of Section 20(a) of the Exchange Act against Vinciarelli</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act provides that controlling persons of a company that violates the securities laws are jointly and severally liable with the company, unless the controlling person acted in good faith and did not directly or indirectly induce the violation. To establish Section 20(a) liability, a plaintiff must show: (1) a primary violation by the controlled entity (Fastly); and (2) control by the defendant over the entity. The complaint adequately pleads both elements. Primary Violation: As analyzed above, the complaint establishes a plausible primary violation of Section 10(b)/Rule 10b-5 by Fastly through its materially false and misleading statements and omissions in SEC filings, earnings calls, press releases, and investor communications during the Class Period. Control: The complaint establishes that Nightingale (CEO) and Kisling (CFO) were controlling persons over Fastly's disclosures. Specifically: (1) As CEO and CFO, they held senior positions with authority over corporate communications; (2) They had 'power and authority to control the contents of Fastly's SEC filings, press releases, and other market communications'; (3) They 'were provided with copies of Fastly's SEC filings and press releases alleged herein to be misleading prior to or shortly after their issuance and had the ability and opportunity to prevent their issuance or to cause them to be corrected'; (4) They signed Sarbanes-Oxley certifications certifying the accuracy of the 2023 10-K and Q1 2024 10-Q; (5) They made direct public statements during earnings calls that contained the alleged misrepresentations; (6) They participated in all-hands meetings and Customer Ops meetings where adverse information was discussed; (7) They had access to material non-public information through their executive positions that was not available to the public. Good Faith Defense: The complaint alleges facts that defeat any good faith defense. Defendants cannot claim good faith when they: (a) made knowingly false statements or acted with reckless disregard for truth; (b) had actual knowledge through internal meetings and systems of the facts contradicting their public statements; (c) sold substantial amounts of company stock during the Class Period while making positive statements, suggesting awareness of impending negative developments; (d) orchestrated the discontinuation of key metrics that would have revealed the truth; (e) implemented a sales compensation model contradicting public statements about business strategy. Conclusion: The complaint states a plausible Section 20(a) claim against the Individual Defendants as controlling persons of Fastly's primary securities law violations. The motion to dismiss should be denied.</t>
+          <t>Dismissed. Section 20(a) control liability requires a primary violation of Section 10(b), which fails. No culpable participation adequately pled.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1441,10 +1345,10 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>25381</v>
+        <v>11593</v>
       </c>
       <c r="X9" t="n">
-        <v>2744</v>
+        <v>535</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1461,17 +1365,11 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cand_24_cv_04196</t>
+          <t>cand_3_22-cv-00956</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1484,37 +1382,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>This securities class action complaint alleges that Vicor Corporation and its CEO Patrizio Vinciarelli made material misrepresentations regarding a purported agreement with a significant existing customer for a new 4G lateral power distribution design product. On July 25, 2023, during an earnings call, Defendants announced that this existing customer would begin ramping production in Q4 2023, representing the first positive news after quarters of declining sales and shrinking backlog. Plaintiffs, who were short sellers of Vicor stock, were forced to cover their short positions at substantial losses following the stock price surge from $59 to over $94 per share on July 26, 2023. On October 24, 2023, during the Q3 earnings call, Defendants denied ever having made representations about a specific significant customer and pivoted to discussing general conversations with unidentified customers. The stock subsequently fell to $39.01. Plaintiffs allege that the July 25 announcement was false when made because no concrete deal existed with an existing significant customer for Q4 2023 delivery, and that Defendants' subsequent denials and eventual admission (via a September 2024 press release mentioning $30 million in non-cancellable orders) constitute a cover-up evidencing scienter. The Complaint asserts claims under Section 10(b) and Rule 10b-5 for securities fraud and Section 20(a) for control person liability. The proposed class consists of all persons who held short positions in Vicor common stock prior to July 25, 2023, and covered those positions between July 26, 2023, and October 24, 2023.</t>
+          <t>This is a federal securities class action filed by Steamfitters Local 449 Pension &amp; Retirement Security Funds against SunPower Corporation, CEO Peter Faricy, and former CFO Manavendra S. Sial. The complaint alleges violations of Securities Exchange Act §§10(b) and 20(a) and SEC Rule 10b-5 for materially false and misleading statements made during the class period of August 3, 2021 through January 20, 2022. The alleged misconduct involves misrepresentations regarding: (1) the status and trajectory of SunPower's commercial business, including margin performance and balance sheet strength; (2) the company's ability to meet FY21 financial guidance; and (3) product quality risks. Defendants allegedly knew that cracking defects had already developed in nearly all commercial solar systems' factory-installed third-party connectors but concealed this information while publicly touting strong commercial business performance and affirming financial guidance. The complaint alleges defendants' statements in press releases, earnings calls, and SEC filings (Forms 10-Q and 8-K) were materially false because they omitted that SunPower would incur tens of millions in replacement costs for defective components. On January 20, 2022, after market close, SunPower disclosed the cracking issue and expected $27 million in Q4 2021 charges plus $4 million in Q1 2022, causing the stock to decline 16.9% the following day. Plaintiff seeks class certification, compensatory damages, and attorney's fees for all purchasers of SunPower securities during the class period who suffered losses.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Securities Exchange Act and Rule 10b-5(b) - Securities Fraud</t>
+          <t>Violation of Securities Exchange Act §10(b) and Rule 10b-5 (Fraud) - Against All Defendants</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements of a Section 10(b) claim under the PSLRA's heightened pleading standards. (1) Misstatement or Omission: Plaintiffs have identified with specificity the July 25, 2023 statements that an 'existing' and 'significant' customer had agreed to ramp production of the new 4G lateral power distribution design in Q4 2023, with specific technical details (1,000 amp level, lateral and lateral-vertical implementations). The October 24, 2023 denial of ever having made such representations constitutes an omission of material information. (2) Materiality: The complaint establishes materiality through concrete evidence—the stock price rose from $59 to over $94 (59% increase) on July 26, 2023, with trading volume reaching 4.5 million shares (approximately 5-6 times normal), and fell to $39.01 (58% decline) on October 25, 2023, following the corrective disclosure. This dramatic price movement and volume spike directly demonstrates that the market considered the statements material. The complaint also establishes materiality through the 'total mix' standard by showing that Defendants' own press release highlighted the company's shrinking backlog and weak bookings, making positive news about a major customer contract fundamentally change the information available to investors. (3) Scienter: The complaint pleads scienter with sufficient particularity to survive dismissal. Vinciarelli, as CEO, had unlimited access to Vicor's customer contracts, sales data, and negotiations. The complaint alleges that Defendants either knew the statements were false or were reckless in not knowing. The specific details provided (1,000 amp level, lateral vs. lateral-vertical implementations, Q4 2023 ramp) suggest actual knowledge rather than mere negligence. The complaint further alleges that the rapid reversal of the customer relationship within three months, combined with Defendants' initial denials followed by a year-later admission via press release only after litigation was filed, supports an inference of scienter. Additionally, Vinciarelli's personal financial incentive (controlling 80% of voting securities, with each $10 stock increase representing $100 million in personal wealth) and the allegation that insiders sold over $1 million in shares at inflated prices following the announcement support scienter. The complaint also alleges that Defendants deliberately refrained from taking steps to verify the customer relationship or installed inadequate disclosure controls. (4) In Connection with Purchase or Sale of Securities: The statements were made during a public earnings call by the CEO, a communication type Defendants knew would be relied upon by investors. Plaintiffs allege they relied on these statements in deciding to cover their short positions, and the market-wide impact demonstrates the statements were 'in connection with' securities transactions. (5) Reliance: The complaint adequately pleads reliance through both direct reliance (Plaintiffs relied on the earnings call announcement) and fraud-on-the-market reliance (the market incorporated the false information into Vicor's stock price, and Plaintiffs relied on the integrity of that market price). The complaint establishes the efficient market presumption by alleging that Vicor is traded on NASDAQ, a highly liquid and efficient market, with active analyst coverage and high trading volumes. (6) Loss Causation: The complaint establishes loss causation by showing that the corrective disclosure on October 24, 2023—when Defendants denied having a significant customer and pivoted to discussing general customer conversations—directly caused the stock price to fall from $93.70 to $39.01. The temporal proximity between the corrective disclosure and the price decline, combined with the abnormal trading volume, establishes that the revelation of the falsity caused Plaintiffs' losses. The complaint also alleges specific damages: Plaintiffs were forced to cover short positions at approximately $35 per share above the price they would have covered at absent the fraud, plus the additional $15 per share loss they would have realized from the subsequent price decline. The complaint's allegations satisfy Rule 9(b)'s requirement to plead fraud with particularity by identifying the time (July 25, 2023), place (earnings call), manner (oral statements and press release), and content (statements about an existing significant customer ramping in Q4) of the alleged misrepresentations, and by explaining why those statements were false (no such customer existed or the deal was so tentative it fell apart in three months). The motion to dismiss should be DENIED as to this claim.</t>
+          <t>Based on the search results provided, the case status indicates 'DISMISSED—On or around 08/08/2024 (Notice of voluntarily dismissal)' per the Stanford Securities Class Action Clearinghouse. The search results show the case was voluntarily dismissed by the parties, likely in connection with settlement discussions. While the complaint alleges that defendants made false and misleading statements regarding commercial business performance, financial guidance achievement, and product quality risks—omitting known defects in third-party connectors affecting nearly all commercial systems—the case did not proceed to adjudication on the merits. Instead, the parties reached a settlement, with search results indicating a $11 million settlement fund representing approximately 23% of total recoverable damages. The voluntary dismissal reflects resolution through settlement rather than judicial ruling on the substantive fraud claims.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Securities Exchange Act - Control Person Liability</t>
+          <t>Violation of Securities Exchange Act §20(a) (Control Person Liability) - Against Individual Defendants (Faricy and Sial)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Section 20(a) provides that controlling persons of an issuer are jointly and severally liable for violations of the securities laws by the controlled entity, unless the controlling person acted in good faith and did not directly or indirectly induce the violation. The complaint adequately alleges that Vinciarelli qualifies as a control person and is liable for Vicor's Section 10(b) violations. (1) Control Person Status: The complaint alleges that Vinciarelli, as CEO and President, had the power to influence and control the decision-making of Vicor regarding the content and dissemination of the false statements. The complaint further alleges that Vinciarelli owned 93.8% of Class B shares (which carry 10 votes per share) and controlled 80% of all outstanding voting securities, giving him effective control of Vicor's governance. As CEO, he signed quarterly and annual statements and conducted evaluations of disclosure controls and procedures. These allegations are sufficient to establish control person status. (2) Primary Violation: As discussed above, the complaint adequately pleads that Vicor violated Section 10(b) through the misrepresentations about the significant customer. (3) Vinciarelli's Involvement: The complaint alleges that Vinciarelli personally made the false statements during the July 25, 2023 earnings call, directly speaking about the existing customer, the Q4 2023 ramp, and the technical specifications. He is quoted extensively in the complaint making these representations. The complaint further alleges that Vinciarelli had unlimited access to Vicor's contracts, customer lists, sales data, and negotiations, and therefore had the ability to prevent the issuance of the false statements or cause them to be corrected. (4) No Good Faith Defense: The complaint's allegations of scienter, combined with Vinciarelli's personal financial incentive ($100 million increase in net worth for each $10 stock price increase, and insider sales of over $1 million at inflated prices), undermine any potential good faith defense. The complaint alleges that Vinciarelli either knew the statements were false or was reckless in not knowing, precluding a finding of good faith. The motion to dismiss should be DENIED as to this claim.</t>
+          <t>The control person liability claim against Faricy and Sial was resolved through the same settlement and voluntary dismissal that resolved the §10(b) claims. The complaint alleged that as CEO/President/Chairman and CFO/Executive Vice President respectively, the Individual Defendants had power and authority to cause SunPower to engage in the wrongful conduct and controlled the company's public statements and SEC filings. However, like the primary fraud claims, this derivative liability claim was not adjudicated on the merits but rather resolved through the settlement agreement. The case dismissal on August 8, 2024 encompassed all claims against all defendants.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1530,10 +1428,10 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>11836</v>
+        <v>20361</v>
       </c>
       <c r="X10" t="n">
-        <v>1783</v>
+        <v>717</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1550,17 +1448,11 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cand_3_21-cv-09767</t>
+          <t>casd_3_23-cv-01216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1573,12 +1465,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lead Plaintiffs Vinod Sodha and Amee Sodha, on behalf of a class of all persons and entities that acquired Robinhood Markets, Inc. ('Robinhood' or 'Company') common stock pursuant and/or traceable to the Company's July 30, 2021 initial public offering ('IPO' or 'Offering'), assert claims under Sections 11, 12(a)(2), and 15 of the Securities Act of 1933 against Robinhood, certain senior executives and directors who signed the Registration Statement (Vladimir Tenev, Jason Warnick, Baiju Bhatt, Jan Hammer, Paula Loop, Jonathan Rubenstein, Scott Sandell, and Robert Zoellick, collectively 'Individual Defendants'), and numerous underwriters (collectively 'Underwriter Defendants,' including Goldman Sachs &amp; Co. LLC, J.P. Morgan Securities LLC, and others). The complaint alleges that the Registration Statement and Prospectus (collectively 'Offering Documents'), effective July 28, 2021, contained materially false and misleading statements and omissions regarding Robinhood's business strategy to 'democratize finance,' platform safety and reliability, customer focus, and ongoing growth as evidenced by key performance indicators ('KPIs') such as Monthly Active Users ('MAU'), Assets Under Custody ('AUC'), Average Revenue Per User ('ARPU'), and Net Cumulative Funded Accounts ('NCFA'). Key factual allegations include: (1) Robinhood abandoned its stated strategy by operating with inadequate fraud controls, backlogs in fraud reviews, undertrained staff, and app features (e.g., 'blinking dot,' easy options/margin access) designed to encourage rapid, risky trading for revenue via payment for order flow ('PFOF'), leading to customer losses, anger, attrition, and declining Net Promoter Score ('NPS'); (2) sharp pre-IPO declines in KPIs and revenue in May-July 2021 (e.g., MAU down ~20% from 24.1M to 19.5M, crypto volume down &gt;90% or $114B, AUC down ~4.25%, ARPU down &gt;$25, NCFA stagnant), tracked in real-time via internal analytics like Looker, discussed in executive meetings, but not disclosed; (3) violations of SEC Items 303 and 105 by failing to disclose known trends/uncertainties materially impacting revenues and most significant risks. These misstatements/omissions allegedly caused post-IPO stock declines from $38 to as low as $6.81 after revelations in Q3 2021 earnings and subsequent reports. The class period aligns with the IPO on July 30, 2021, for shares acquired pursuant/traceable thereto. Significant dates include Registration Statement effective July 28, 2021; IPO pricing July 30, 2021; Q3 2021 earnings October 27, 2021 (revealing declines).</t>
+          <t>Lead Plaintiff Dipak Patel brings this federal securities class action against ImmunityBio, Inc. and its executives Richard Adcock (CEO), David C. Sachs (CFO), and Patrick Soon-Shiong (Executive Chairman and Global Chief Scientific and Medical Officer), alleging violations of Sections 10(b) and 20(a) of the Exchange Act and Rule 10b-5. The complaint claims Defendants made false and misleading statements throughout the Class Period (March 10, 2021 to May 10, 2023) touting the Company's cGMP-compliant manufacturing capabilities, particularly for its lead product Anktiva (N-803), a biologic for BCG-unresponsive non-muscle invasive bladder cancer. Key facts include: ImmunityBio relied on third-party CMO AGC Biologics, which suffered repeated serious cGMP violations documented in FDA Form 483 inspections (March/July 2021, February 2023 OAI-classified pre-license inspection), batch failures, delays in batch records/deviations/stability testing, and lack of reference materials; Individual Defendants were aware via monthly meetings, quality agreements, mock inspections, and real-time FDA inspection updates but continued assurances of compliance; BLA submitted May 2022, rejected May 2023 due to CMO deficiencies (not clinical data), causing 55% stock drop. Legal claims: Count I (Section 10(b)/Rule 10b-5 primary violation for misstatements/omissions with scienter, fraud-on-the-market reliance, loss causation); Count II (Section 20(a) control person liability against Individual Defendants).</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (Against All Defendants)</t>
+          <t>Count I: Violations of Section 10(b) of the Exchange Act and SEC Rule 10b-5 (against all Defendants)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1588,12 +1480,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Section 11 imposes strict liability on issuers, signatories, and underwriters for material misstatements or omissions in a registration statement, subject to affirmative defenses like due diligence. Plaintiffs need only plead that they acquired shares pursuant/traceable to the defective Offering Documents and suffered damages; no scienter, reliance, or loss causation required. Here, the complaint adequately alleges material misrepresentations/omissions: (1) affirmative statements touting successful strategy execution (e.g., 'democratizing finance,' customer-centric focus, platform reliability, ongoing growth via rising KPIs through 2Q21) were false/misleading given contemporaneous declines in KPIs (e.g., MAU -11.62% May-Jun 2021, crypto volume -76%, AUC -4.25%) known via real-time analytics and executive discussions (¶¶12-13, 87-88, CW1-CW5 testimony); (2) inadequate risk factor disclosures (e.g., generic warnings of declines despite actual cratering trends violating Item 303's known trends/uncertainties requirement for material revenue impacts); (3) failure to disclose strategy abandonment (fraud backlogs, predatory features causing attrition/NPS decline). These are not mere puffery but tied to specific, falsified historical/present data (e.g., 2Q21 KPI estimates contradicted by May-July data) and omissions of known facts making statements misleading. Offering Documents contained charts/tables projecting continued growth (¶¶5-9, 150-151), rendering them untrue. Plaintiffs trace purchases to Offering; post-IPO declines establish economic loss. Defendants bear due diligence burden, unproven at pleading stage. Motion dismissed as to this claim.</t>
+          <t>Complaint pleads particularized false/misleading statements (e.g., claims of 'established GMP manufacturing capacity at scale,' 'cGMP-compliant facilities' for Anktiva CMO despite known pervasive violations); materiality (core to Anktiva approval prospects, company's sole revenue path); falsity (contradicted by FDA Forms 483, CW accounts of delays/failures, expert analysis); scienter (strong inference from core operations doctrine, executive meetings/mock/FDA inspection involvement, non-delegable CMO oversight duty, Soon-Shiong's BLA review); scheme liability (ongoing omissions post-known risks); reliance (fraud-on-the-market, efficient market); loss causation (55% drop on CRL disclosing exact deficiencies). No safe harbor (mixed present/future statements, known falsity). Pleads beyond Iqbal/Twombly.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) of the Securities Act (Against All Defendants)</t>
+          <t>Count II: Violations of Section 20(a) of the Exchange Act (against Individual Defendants)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1603,24 +1495,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) imposes liability on statutory sellers (here, issuer and underwriters who 'passed title' or solicited via Prospectus) for material misstatements/omissions in a prospectus unless defendants prove no omission/negligence. Elements mirror Section 11 but apply to Prospectus specifically and require 'sale' or solicitation; no scienter or reliance needed, but plaintiffs must negate statutory defenses. Complaint pleads underwriters actively solicited via roadshow, due diligence access, and Prospectus dissemination (¶¶32-57); Robinhood as issuer sold directly. Prospectus contained same material misstatements/omissions as Registration Statement (e.g., growth claims, KPI charts, inadequate risks/strategy disclosures per ¶¶140-161). Plaintiffs acquired 'pursuant to' Prospectus without knowledge of untruths (¶228, 234). Rescission/damages available. No forward-looking safe harbor applies to historical facts (¶227). Defendants' negligence presumed absent reasonable investigation; burden on them. Motion dismissed.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act (Against the Individual Defendants)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Section 15 provides control person liability for underlying Section 11 violations, requiring: (1) primary violation of Section 11; and (2) 'control' (power to direct management/policies) plus culpable participation (or substantial influence). Secondary liability survives if primary claim does. Individual Defendants (CEO Tenev, CFO Warnick, CCO Bhatt, directors Hammer/Loop/Rubenstein/Sandell/Zoellick) signed Offering Documents (¶¶23-30), participated in preparation/roadshow, and held senior roles/Board seats enabling influence over disclosures. Complaint alleges they reviewed/approved false statements, received real-time KPI data, attended meetings discussing declines/attrition (e.g., CW1-CW2 testimony ¶¶87, 108, 118-119), yet allowed misleading filings—satisfying control and 'culpable participation' via direct involvement. No scienter required. As Section 11 survives, Section 15 claim proceeds. Motion dismissed.</t>
-        </is>
-      </c>
+          <t>Primary violation (Count I) sustained; culpable participation/control shown by signing false SEC filings/press releases, direct involvement in manufacturing oversight/BLA process, dissemination of statements with knowledge of falsity (e.g., Adcock/Sender AGC meetings, Soon-Shiong daily FDA calls, Sachs signing 10-Qs/8-Ks post-inspections).</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1631,10 +1511,10 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>29998</v>
+        <v>33923</v>
       </c>
       <c r="X11" t="n">
-        <v>1515</v>
+        <v>686</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1651,17 +1531,11 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cand_3_22-cv-00956</t>
+          <t>ctd-3-23-cv-01035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1672,41 +1546,13 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>This is a federal securities class action brought by Steamfitters Local 449 Pension &amp; Retirement Security Funds on behalf of all persons who purchased SunPower Corporation common stock during the period from August 3, 2021 through January 20, 2022 (the 'Class Period'). The complaint names three defendants: SunPower Corporation, Peter Faricy (CEO, President, and Chairman), and Manavendra S. Sial (former CFO and Executive Vice President). The complaint alleges that defendants made materially false and misleading statements and omissions regarding: (1) the current status and trajectory of SunPower's commercial business, including margin performance and balance sheet strength; (2) the company being on track to meet FY21 financial guidance; and (3) risks associated with product defects and quality issues. The core allegation is that defendants knew or recklessly disregarded the fact that cracking defects had already developed in third-party connectors used in nearly all of SunPower's commercial solar systems and that the company would incur tens of millions in replacement costs, rendering prior positive statements about commercial business performance and financial guidance materially false. Throughout the Class Period, defendants repeatedly touted the commercial business as performing well, with 'significantly better' margins and strong bookings, while omitting disclosure of the known defect problem. The artificial inflation was maintained through August 3, 2021 (2Q21 earnings), October 5, 2021 (CIS strategic options announcement), and November 3-4, 2021 (3Q21 earnings), with stock prices reaching as high as $34.61 on November 1, 2021. On December 7, 2021, SunPower updated its installation manual with new warnings about connector cracking. The truth emerged on January 20, 2022, when SunPower disclosed in an after-hours press release that it had identified a cracking issue in third-party connectors affecting 'nearly all' commercial systems and would incur approximately $27 million in Q4 2021 and $4 million in Q1 2022 for replacements. The stock price declined 16.9% (from $19.02 to $15.80) on January 21, 2022, on significantly elevated trading volume. Plaintiff alleges that defendants' misrepresentations and omissions caused the artificial inflation and resulting economic losses to class members.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Section 10(b) of the Securities Exchange Act and Rule 10b-5 (Against All Defendants)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>The complaint adequately pleads a Section 10(b) and Rule 10b-5 claim under the pleading standards established by the Private Securities Litigation Reform Act (PSLRA) and subsequent case law. Under Rule 10b-5, a plaintiff must establish: (1) a material misrepresentation or omission; (2) scienter (intent to deceive, manipulate, or defraud, or recklessness); (3) reliance; (4) economic loss; and (5) loss causation. The complaint satisfies these elements with particularity as required by FRCP Rule 9(b) and the PSLRA heightened pleading standard. First, materiality is adequately pleaded. The complaint identifies specific false statements made by defendants during earnings calls and in SEC filings regarding the commercial business performing 'significantly better' year-over-year, being 'a point of strength' and 'very healthy,' and the company being 'on track' to meet FY21 guidance. These statements directly concern financial performance and guidance—core matters of investor concern. The omitted facts—that cracking defects had already developed in nearly all commercial systems and would require tens of millions in replacement costs—would significantly alter the total mix of information available to investors and would be important to a reasonable investor's decision. The magnitude of the undisclosed costs ($27 million in Q4 2021 and $4 million in Q1 2022) relative to guidance ranges and segment profitability establishes materiality. Second, scienter is adequately pleaded. The complaint alleges that defendants, as CEO, President, Chairman, and CFO, had direct access to adverse information about product defects through their positions of control and authority. The complaint alleges that the cracking issue 'developed over time' and was sufficiently pervasive to affect 'nearly all' commercial systems. The complaint further alleges that defendants were sufficiently advanced in exploring strategic options for the CIS segment by October 2021 to announce a sale process, and analysts subsequently reported that defendants 'must have learned about the pervasive problem of cracking in third-party components in conducting due diligence' for the sale. The timing and specificity of the December 7, 2021 manual updates adding new warnings about connector cracking—warnings not present in 2019 or 2020 editions—supports an inference that defendants knew of the problem before making the prior positive statements. The complaint alleges that defendants 'deliberately disregarded' the adverse facts, which satisfies the recklessness standard. Third, reliance is adequately pleaded through the fraud-on-the-market doctrine. The complaint alleges that SunPower stock traded on NASDAQ in an efficient market, with regular SEC filings, press releases, analyst communications, and analyst coverage. The misrepresentations were public statements made through official channels (press releases, earnings calls, SEC filings). Under the fraud-on-the-market doctrine, investors are presumed to have relied on the integrity of the market price, which incorporates defendants' public misrepresentations. Fourth, economic loss is adequately pleaded. The complaint alleges that class members purchased stock at artificially inflated prices during the Class Period (reaching as high as $34.61) and suffered losses when the truth was revealed on January 20, 2022, causing a 16.9% stock price decline. The complaint alleges that absent the misrepresentations, investors would not have purchased at the prices paid or at all. Fifth, loss causation is adequately pleaded. The complaint establishes a causal connection between the misrepresentations and the stock price inflation, and between the corrective disclosure and the price decline. The January 20, 2022 disclosure of the cracking issue and associated costs directly contradicted prior statements about commercial business strength and financial guidance. The stock price decline immediately following this disclosure, combined with analyst reports recognizing the connection between the disclosed defect and prior guidance misses, establishes that the prior artificial inflation was corrected by the disclosure of the omitted facts. The complaint also adequately pleads that the misrepresentations were material by showing that the stock price reacted significantly to the corrective disclosure, which is probative of materiality. Accordingly, the motion to dismiss Count I should be DENIED.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Section 20(a) of the Securities Exchange Act—Control Person Liability (Against Individual Defendants Faricy and Sial)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>The complaint adequately pleads control person liability under Section 20(a) of the Exchange Act against the Individual Defendants. Section 20(a) provides that any person who, directly or indirectly, controls any person liable under the securities laws is also liable jointly and severally with and to the same extent as such controlled person, unless the controlling person acted in good faith and did not directly or indirectly induce the act or acts constituting the violation. The complaint establishes control through clear allegations of the Individual Defendants' positions and authority. Faricy is alleged to be CEO, President, and Chairman of the Board of Directors—positions that inherently carry control over the company's operations and public disclosures. Sial is alleged to be CFO and Executive Vice President—positions that provide direct authority over financial reporting and public statements regarding financial performance. The complaint alleges that the Individual Defendants 'directly or indirectly, used the means and instrumentalities of interstate commerce' and that they 'had the power and authority to cause SunPower to engage in the wrongful conduct complained of herein.' The complaint further alleges that the Individual Defendants participated in drafting, preparing, and approving the false statements, were provided copies of documents prior to issuance, and had the ability to prevent issuance or cause correction. These allegations establish that the Individual Defendants exercised actual control over the company's disclosure practices and public statements. The complaint also adequately pleads that SunPower Corporation itself violated Section 10(b) and Rule 10b-5, which is a prerequisite for Section 20(a) liability. Because the underlying Section 10(b) violation is adequately pleaded, and control is adequately pleaded, the Section 20(a) claim survives. The Individual Defendants may assert a good faith defense at a later stage, but that defense is not appropriately resolved on a motion to dismiss when the complaint adequately alleges that defendants acted with scienter and participated in the misrepresentations. Accordingly, the motion to dismiss Count II should be DENIED as to the Individual Defendants.</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1720,10 +1566,10 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>20604</v>
+        <v>63138</v>
       </c>
       <c r="X12" t="n">
-        <v>1817</v>
+        <v>199</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1740,17 +1586,11 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>casd_3_23-cv-01216</t>
+          <t>dcd-1_23-cv-02055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1763,12 +1603,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This is a securities class action complaint filed by Lead Plaintiff Dipak Patel on behalf of all persons who purchased ImmunityBio, Inc. securities between March 10, 2021 and May 10, 2023 (the 'Class Period'). The complaint alleges that Defendants—ImmunityBio, Inc., Richard Adcock (CEO), David C. Sachs (CFO), and Patrick Soon-Shiong (Executive Chairman and Global Chief Scientific and Medical Officer)—made materially false and misleading statements regarding the company's manufacturing capabilities and compliance with FDA current good manufacturing practices (cGMP) standards. The complaint alleges that Defendants repeatedly represented that ImmunityBio had 'established GMP manufacturing capacity at scale with cutting-edge cell manufacturing expertise and ready-to-scale facilities' and that its contract manufacturing organization (CMO), AGC Biologics, had 'robust process development and validation and quality oversight.' In reality, according to the complaint, AGC's facility—which manufactured Anktiva, ImmunityBio's lead product candidate for bladder cancer treatment—suffered from pervasive and recurring cGMP violations throughout the Class Period, including: (1) failure to timely release batch records; (2) inadequate deviation management and failure to close deviations on schedule; (3) failure to conduct required stability testing within specified timeframes; (4) running out of critical reference material; (5) multiple failed batches; and (6) inadequate quality unit oversight. The complaint alleges that Defendants were aware of these manufacturing deficiencies through monthly meetings with AGC executives, internal quality department communications, FDA Form 483s issued in March and July 2021, a mock inspection in January 2023, and real-time updates during the FDA's pre-license inspection in February 2023. The FDA's pre-license inspection resulted in a scathing 15-page Form 483 with five major categories of violations and an 'Official Action Indicated' (OAI) classification—the most severe FDA classification indicating that one or more manufacturing systems were out of control. On May 11, 2023, ImmunityBio announced that the FDA issued a Complete Response Letter (CRL) rejecting the Anktiva Biologics License Application (BLA) due to manufacturing deficiencies identified during the pre-license inspection. ImmunityBio's stock price fell 55% on this news. The complaint asserts two causes of action: (1) violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 against all Defendants; and (2) violations of Section 20(a) of the Exchange Act (control person liability) against the Individual Defendants. The complaint alleges that Defendants acted with scienter (intent to defraud or reckless disregard for the truth) based on: (1) their knowledge of FDA cGMP requirements and the critical importance of cGMP compliance to BLA approval; (2) their receipt of FDA Form 483s in March and July 2021; (3) their monthly meetings with AGC discussing manufacturing delays; (4) their placement of contract workers at AGC to address backlogs; (5) their review of an internal 'pre-approval inspection tracker' cataloging cGMP issues; (6) their participation in and review of the mock inspection findings; (7) their real-time monitoring of the FDA pre-license inspection; (8) their initiation of plans to build an in-house cGMP-compliant manufacturing facility, suggesting dissatisfaction with AGC; and (9) the critical importance of Anktiva to the company's business. The complaint alleges loss causation based on the efficient market hypothesis and the fraud-on-the-market doctrine, arguing that the stock price decline on May 11, 2023 was a direct result of the revelation of the manufacturing deficiencies that had been concealed by Defendants' false statements.</t>
+          <t>This securities class action complaint alleges that Danaher Corporation and certain of its officers (CEO Rainer M. Blair, CFO Matthew R. McGrew, and Emmanuel Ligner, Group Executive of Biotechnology) violated Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 by making materially false and misleading statements regarding the company's bioprocessing business during the Class Period (January 27, 2022 through October 23, 2023). The complaint alleges that defendants knowingly or recklessly misrepresented the sustainability of bioprocessing revenue growth, particularly non-COVID-related revenues, despite possessing internal knowledge that: (1) COVID-19-related bioprocessing revenues would materially decline as the pandemic transitioned to endemic status; (2) large pharmaceutical customers had stockpiled inventory and were not placing new orders; (3) smaller biotech customers faced severe funding constraints and were prioritizing projects; and (4) these factors collectively rendered defendants' repeated guidance for high single-digit to low double-digit bioprocessing growth materially false and unsustainable. Defendants issued at least thirteen separate guidance revisions during the Class Period, progressively reducing bioprocessing projections from $2 billion in COVID-related 2022 revenue (January 2022) to $800 million (October 2022) to $150 million (January 2023), and reducing overall bioprocessing growth from high single-digit to low double-digit projections to low single-digit declines. The complaint further alleges defendants concealed these known risks through selective use of non-GAAP metrics ('base business core revenue') that excluded COVID-related sales while maintaining misleading representations about underlying business health. Plaintiffs allege defendants possessed superior knowledge through the Danaher Business System's 'Customers Talk, We Listen' core value, regular customer surveys, and intimate customer relationships, yet systematically downplayed or denied inventory stocking and funding pressures despite analyst inquiries and internal awareness. The complaint identifies scienter through: (1) defendants' detailed knowledge of customer conditions via established monitoring systems; (2) insider stock sales by Blair ($12.2 million) and McGrew ($5.6 million) timed to capitalize on artificially inflated prices before negative disclosures; (3) admissions by CW4 that Blair 'made up' projections that 'looked better' despite subsidiary presidents' contrary forecasts; (4) Ligner's departure from Danaher on October 31, 2023, following seven consecutive quarters of bioprocessing guidance reductions; and (5) the pattern of defendants repeatedly denying specific risks (stockpiling, funding constraints, China weakness) to analysts before subsequently confirming those exact risks materialized. The complaint alleges loss causation through stock price declines following each guidance revision (October 20, 2022: 6% decline; January 24, 2023: 5.2% cumulative decline; April 25, 2023: 9% decline; July 25, 2023: unspecified decline; October 24, 2023: 5.6% cumulative decline), with timing and magnitude demonstrating causation by removal of fraud-induced inflation rather than market-wide or macroeconomic factors. The Class comprises all persons who purchased Danaher securities during the Class Period at artificially inflated prices.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (Against All Defendants)</t>
+          <t>Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (Against All Defendants: Danaher Corporation, Rainer M. Blair, Matthew R. McGrew, and Emmanuel Ligner)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1778,12 +1618,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) and Rule 10b-5 claim against all Defendants. Under the Private Securities Litigation Reform Act (PSLRA), plaintiffs must plead with particularity: (1) a material misrepresentation or omission; (2) scienter; (3) reliance; (4) loss causation; and (5) economic loss. The complaint satisfies these requirements. First, materiality is adequately pleaded. The complaint identifies numerous specific false statements made by Defendants in SEC filings (Forms 8-K, 10-K, 10-Q), press releases, and prospectuses throughout the Class Period, all touting that ImmunityBio had 'established GMP manufacturing capacity at scale' and that its CMO had 'robust process development and validation and quality oversight.' These statements are material because they directly addressed the company's ability to obtain FDA approval for Anktiva, its lead product candidate upon which the company's entire business depended. The complaint alleges that these statements were false because the CMO facility suffered from pervasive cGMP violations that were known to Defendants. The complaint also adequately pleads material omissions—Defendants failed to disclose that: (1) the CMO facility suffered from recurring cGMP failures; (2) the FDA had issued Form 483s in March and July 2021 documenting significant deficiencies; (3) the mock inspection in January 2023 revealed continued cGMP lapses; and (4) these deficiencies posed a serious threat to BLA approval. These omissions are material because they directly contradicted the affirmative representations regarding manufacturing compliance and quality. Second, scienter is adequately pleaded with a strong inference. The complaint alleges facts supporting both actual knowledge and reckless disregard. Regarding actual knowledge: (1) Defendants were seasoned biotech executives who understood FDA cGMP requirements and their criticality to BLA approval, as evidenced by their own SEC filings acknowledging that 'the FDA will not approve an application [BLA] unless it determines that the manufacturing process and facilities comply with cGMP requirements'; (2) Defendants received FDA Form 483s in March and July 2021 documenting serious deficiencies at the AGC facility; (3) Defendants held monthly or bi-monthly meetings with AGC executives from at least August 2021 through February 2023 to discuss manufacturing delays, batch disposition failures, and deviation management issues; (4) Defendants placed contract workers at the AGC facility in 2022 to address backlogs, indicating awareness of serious manufacturing problems; (5) Defendants maintained an internal 'pre-approval inspection tracker' that cataloged potential cGMP issues at each manufacturing location; (6) Defendants participated in and reviewed findings from a mock inspection in January 2023 that revealed 'rampant cGMP lapses'; (7) Defendants received real-time updates during the FDA's pre-license inspection in February 2023, with Soon-Shiong demanding daily executive-to-executive calls and Adcock flying overnight to the inspection site; and (8) Defendants initiated plans to build an in-house cGMP-compliant manufacturing facility by March 1, 2022, suggesting they were dissatisfied with AGC's capabilities. Regarding reckless disregard: the complaint alleges that Defendants made repeated affirmative representations regarding GMP compliance and manufacturing quality while possessing detailed knowledge of contrary facts. The complaint also alleges that the Individual Defendants were highly motivated to conceal manufacturing problems because Anktiva was critical to the company's survival and the pending BLA represented the company's only path to revenue generation. The complaint further alleges that Defendants' conduct—including their intensive involvement in monitoring the mock inspection and FDA pre-license inspection, their real-time communications during the inspection, and their efforts to remediate identified gaps—demonstrates that Defendants understood the severity of the manufacturing issues. The inference of scienter is further supported by the allegation that Soon-Shiong 'personally reviewed' and 'approved' the BLA before filing, which would necessarily have required him to address the significant number of missed stability checks and failed batch runs documented in the application. Third, reliance is adequately pleaded under the fraud-on-the-market doctrine. The complaint alleges that ImmunityBio's common stock traded on NASDAQ, a highly efficient market; that the company filed periodic SEC reports; that the stock was highly liquid with average daily trading volume of 1.9 million shares; that the company regularly disseminated press releases and other public disclosures; and that the company was followed by securities analysts. These allegations support a presumption of reliance under Basic v. Levinson, 485 U.S. 224 (1998). The complaint also adequately pleads reliance under Affiliated Ute Citizens of Utah v. United States, 406 U.S. 128 (1972), based on material omissions. Fourth, loss causation is adequately pleaded. The complaint alleges that on May 11, 2023, ImmunityBio announced that the FDA issued a CRL rejecting the Anktiva BLA due to manufacturing deficiencies identified during the pre-license inspection, and that the stock price fell 55% on heavy volume. The complaint alleges that this price decline directly resulted from the revelation of the manufacturing deficiencies that had been concealed by Defendants' false statements. The timing and magnitude of the price decline support the inference that the decline was caused by the disclosure of the fraud rather than by changed market conditions or unrelated company-specific facts. Fifth, economic loss is adequately pleaded. The complaint alleges that Lead Plaintiff and other Class members purchased ImmunityBio securities at artificially inflated prices during the Class Period and suffered damages when the true facts regarding manufacturing deficiencies were revealed. The complaint satisfies the PSLRA's requirement that fraud be pleaded with particularity. The complaint identifies: (1) the 'who' (Defendants); (2) the 'what' (false statements regarding GMP manufacturing capacity and CMO quality); (3) the 'when' (specific dates of false statements in SEC filings and press releases throughout the Class Period); (4) the 'where' (SEC filings, press releases, and public disclosures); and (5) the 'how' (affirmative misrepresentations and material omissions regarding manufacturing compliance). The complaint also provides specific factual allegations supporting a strong inference of scienter, as required by the PSLRA. Therefore, the motion to dismiss the Section 10(b) and Rule 10b-5 claim should be DENIED.</t>
+          <t>Based on the search results, specifically the August 4, 2025 ruling by U.S. District Judge Amir H. Ali[4], the court found that key claims in the securities fraud lawsuit would move forward. Judge Ali ruled that the complaint sufficiently alleged that defendants made false and misleading statements about the bioprocessing division's revenues with 'extreme recklessness'[4]. The court determined that the 'amended complaint adequately alleges that the statements were misleading when made' and that scienter ('intent to deceive or defraud' as well as 'extreme recklessness') was adequately alleged[6]. The motion to dismiss was 'granted in part and denied in part'[7], with key Section 10(b) claims surviving. The complaint alleges defendants systematically misrepresented bioprocessing revenue sustainability despite knowing that COVID-related demand was declining, customers were stockpiling inventory, and smaller biotech customers faced funding constraints[4]. Defendants made these statements knowingly or with extreme recklessness, as evidenced by their access to customer information through the Danaher Business System, regular customer surveys, and internal forecasting processes that contradicted their public statements[6]. The materiality of the statements is established by the bioprocessing division's significance (approximately 25-30% of Danaher's total revenue and the 'crown jewel' of the company's science and technology platform) and investors' demonstrated focus on this business throughout the Class Period[6].</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Securities Exchange Act of 1934 (Control Person Liability) (Against Individual Defendants)</t>
+          <t>Section 20(a) of the Securities Exchange Act of 1934 - Controlling Person Liability (Against Defendants Blair and McGrew)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1793,7 +1633,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 20(a) claim against the Individual Defendants. Section 20(a) provides that any person who, directly or indirectly, controls any person liable under the securities laws is also liable jointly and severally with the controlled person, unless the controlling person acted in good faith and did not directly or indirectly induce the act or acts constituting the violation. To establish Section 20(a) liability, a plaintiff must show: (1) a primary violation by the controlled entity (ImmunityBio); (2) the defendant's control over the controlled entity; and (3) that the defendant failed to act in good faith or directly or indirectly induced the primary violation. The complaint adequately pleads all three elements. First, the complaint establishes a primary violation by ImmunityBio under Section 10(b) and Rule 10b-5, as discussed above. Second, the complaint adequately pleads that the Individual Defendants controlled ImmunityBio. The complaint alleges that: (1) Soon-Shiong was the founder and Executive Chairman of the Board and Global Chief Scientific and Medical Officer, holding approximately 82% of the company's outstanding common stock immediately following the merger; (2) Adcock was the CEO and a member of the Board; (3) Sachs was the CFO; (4) the Individual Defendants had 'direct and supervisory involvement in the day-to-day operations of ImmunityBio'; (5) the Individual Defendants had 'unlimited access' to copies of the company's reports, press releases, public filings, and other statements; (6) the Individual Defendants had 'the power to influence and control, and did influence and control, directly or indirectly, the decision-making of the Company, including the content and dissemination of the false and misleading statements'; and (7) the Individual Defendants 'exercised their power and authority to cause ImmunityBio to engage in the wrongful acts alleged herein or personally participate in the unlawful conduct alleged.' These allegations establish that the Individual Defendants had the requisite control over ImmunityBio. Third, the complaint adequately pleads that the Individual Defendants failed to act in good faith and/or directly or indirectly induced the primary violation. The complaint alleges that: (1) the Individual Defendants signed or approved the false SEC filings and press releases; (2) the Individual Defendants had actual knowledge of the manufacturing deficiencies at AGC through their monthly meetings, receipt of FDA Form 483s, participation in the mock inspection, and real-time monitoring of the FDA pre-license inspection; (3) the Individual Defendants made affirmative representations regarding GMP compliance and manufacturing quality while possessing knowledge of contrary facts; (4) the Individual Defendants failed to disclose known manufacturing deficiencies; and (5) the Individual Defendants had the power to prevent the issuance of false statements or cause them to be corrected but chose not to do so. These allegations establish that the Individual Defendants failed to act in good faith and directly or indirectly induced ImmunityBio's primary violations. Therefore, the motion to dismiss the Section 20(a) claim should be DENIED.</t>
+          <t>Section 20(a) liability against Blair and McGrew is supported by the complaint's allegations that both defendants, as Danaher's CEO and CFO respectively, had direct involvement in day-to-day operations and control over the contents of reports, press releases, and public filings containing the false statements[1][2][6]. As 'controlling persons' within the meaning of Section 20(a), Blair and McGrew had the power to influence and control the dissemination of materially false and misleading statements and had unlimited access to copies of the company's reports and filings prior to issuance[1][2]. The complaint establishes that they made or caused the company to issue the false statements directly through their presentations at investor conferences and earnings calls, and through their signatures on SEC filings[1][2]. Blair's role as head of the Life Sciences platform prior to becoming CEO, combined with McGrew's role as CFO responsible for 'financial strategy, planning, and management across all of Danaher's portfolio companies,' placed both defendants in positions with requisite knowledge and control[1][2]. The August 4, 2025 court ruling indicates that scienter was adequately alleged against these defendants[4][6], which is a prerequisite for Section 20(a) liability. Their insider stock sales (Blair: $12.2 million; McGrew: $5.6 million) timed to precede negative disclosures further demonstrates culpable participation and knowledge of the falsity of their statements[1].</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1809,10 +1649,10 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>34166</v>
+        <v>36845</v>
       </c>
       <c r="X13" t="n">
-        <v>2835</v>
+        <v>1405</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -1829,17 +1669,11 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ctd-3_24-cv-01727</t>
+          <t>dde_ 23_cv_1466</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1850,16 +1684,56 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Lead Plaintiffs, consisting of AltShares Event-Driven ETF, AltShares Merger Arbitrage ETF, Kryger Event Fund Ltd., Kryger Enhanced Fund Ltd., and ODS Capital LLC, bring this securities class action against Focus Financial Partners Inc. ('Focus'), its Special Committee Defendants (LeMieux, Neuhoff, Morganroth, Feliciani), Board Defendants (Adolf, Kodialam, Carey, Muhtadie), Officer Defendants (Shanahan, Chang, McGranahan), and others including CD&amp;R, Goldman Sachs, Jefferies, Stone Point Capital, and law firms. The complaint alleges a flawed sale process culminating in Focus's August 31, 2023 merger with CD&amp;R at $53 per share, driven by conflicts of interest among insiders favoring financial buyers like CD&amp;R over strategic buyers (e.g., a redacted bidder offering $55 per share that was 'stiff-armed'). Key facts include Stone Point's 20.6% ownership and control levers pushing for a sale to secure $90 million in TRA payments and equity rollover; management's preference for CD&amp;R to retain jobs/equity; Special Committee's undisclosed conflicts (personal ties, TRA payments of $729k-$944k, last-minute fee hikes); financial advisors' conflicts (Goldman Sachs' ties to Stone Point/CD&amp;R and parallel NKSFB sale limiting bidders; Jefferies' 8x fee increase); inadequate outreach to strategics; preferential treatment of CD&amp;R; and materially false/misleading Proxy/Supplemental Proxy statements touting process robustness, Special Committee independence, and deal fairness while omitting conflicts and process flaws. Legal claims are under Sections 10(b)/Rule 10b-5 (scheme to defraud via misstatements/omissions during Class Period Feb. 27-Aug. 31, 2023 for sellers), 14(a)/Rule 14a-9 (false Proxy for Record Date June 9, 2023 voters), and 20(a) (control liability). Class Period: Feb. 27, 2023 (Merger announcement) to Aug. 31, 2023 (Merger close).</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Count I: Violations of Section 10(b) of the Exchange Act and Rule 10b-5(a)-(c) (All Defendants)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>The complaint fails to plead particularized facts raising a strong inference of scienter as required by the PSLRA. While alleging motive (personal TRA payments, equity rollovers, advisor fees), these are not atypical for M&amp;A participants and do not support scienter absent specific evidence of knowing falsity. Core operations inference inapplicable to post-announcement omissions in proxy context. Confidential witness documents (meeting minutes, emails) show process awareness but no contemporaneous intent to deceive; they reflect business judgments, not fraud. Loss causation speculative as stock traded near $53 merger price without corrective disclosure. Claims sound primarily in disclosure of sale process (Section 14(a) territory), not 10b-5 scheme liability.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Count II: Violations of Section 14(a) of the Exchange Act and Rule 14a-9 (Focus, Special Committee Defendants, Board Defendants, Officer Defendants)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Proxy statements omitting Special Committee conflicts (personal ties, exact TRA amounts initially, fee hikes timing), advisor conflicts (Goldman dual role details, Jefferies fee increase), and process flaws (early [redacted] contacts, bidder deterrence, Stone Point favoritism) are material under TSC Industries materiality standard, as reasonable shareholders would view them as significantly altering the 'total mix' for voting on conflicted going-private deal. However, dismissed as to negligence-only theory disavowal; requires scienter or fiduciary breach allegations. Revlon entire fairness not triggered absent controller (Stone Point &lt;50%, no majority vote lockup); MFW protections (Special Committee + minority vote) likely invoked business judgment, but omissions preclude Corwin cleansing. Supplemental Proxy mitigates but too late (6 business days pre-vote) and incomplete (no fee hike details, personal ties).</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Count III: Violations of Section 20(a) of the Exchange Act (Special Committee Defendants, Board Defendants, Officer Defendants)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Control person liability requires primary violation; as primary claims under 10(b) and 14(a) fail or are dismissed in part, no underlying violation supports 20(a). 'Culpable participation' not adequately pled where no scienter for primaries.</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -1870,10 +1744,10 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>12038</v>
+        <v>34159</v>
       </c>
       <c r="X14" t="n">
-        <v>3594</v>
+        <v>1023</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1890,17 +1764,11 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-01599</t>
+          <t>dde_21_cv_55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1913,215 +1781,77 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The plaintiff is the U.S. Securities and Exchange Commission (SEC), bringing this enforcement action against defendants Binance Holdings Limited (Binance), BAM Trading Services Inc. (BAM Trading), BAM Management US Holdings Inc. (BAM Management), and Changpeng Zhao (Zhao). The complaint alleges that defendants operated unregistered securities exchanges, broker-dealers, and clearing agencies on the Binance.com and Binance.US Platforms, offered and sold unregistered crypto asset securities (including BNB, BUSD, BNB Vault, Simple Earn, and BAM Trading's Staking Program), commingled and diverted U.S. investor funds, evaded U.S. registration requirements through a scheme involving U.S. entities under Zhao's control, and that BAM Trading and BAM Management made material misrepresentations about trade surveillance and controls while allowing wash trading by Zhao-controlled entities like Sigma Chain to inflate volumes. Key factual allegations include Zhao's direction of operations, covert retention of U.S. customers on Binance.com via VPNs and KYC circumvention post-2019, Binance's custody of Binance.US assets until at least 2022, funding via Zhao entities like Merit Peak, lack of surveillance leading to undetected wash trading from 2019-2022, and raising $200 million from equity investors based on false claims. The legal claims are: (1-4) Sections 5(a)/(c) Securities Act unregistered offers/sales (BNB, BUSD, Simple Earn/BNB Vault by Binance; Staking by BAM Trading); (5-10) Exchange Act Sections 5, 15(a), 17A(b) unregistered exchange/broker/clearing agency (Binance for .com; Binance/BAM Trading for .us); (11-12) Section 20(a) control person liability against Zhao; (13) Sections 17(a)(2)/(3) Securities Act fraud by BAM Trading/BAM Management. No class period is specified, as this is an SEC enforcement action; significant dates include Binance.com launch (July 2017), BNB ICO (June-July 2017), Binance.US launch (Sept. 2019), and ongoing violations through 2023.</t>
+          <t>This is a securities class action against Walmart Inc. and its executives Douglas C. McMillon (CEO) and M. Brett Biggs (CFO) brought by lead plaintiffs Kim Kengle and Roseanne Lacy on behalf of purchasers of Walmart common stock from March 31, 2017 to December 22, 2020 (Class Period) who held shares on March 24, 2020 and/or December 22, 2020 and suffered damages. The complaint alleges Walmart systematically violated the Controlled Substances Act (CSA) by failing to monitor/report suspicious opioid orders, filling invalid prescriptions from pill mills despite red flags, and prioritizing profits over compliance, breaching a 2011 DEA settlement (MOA). Walmart concealed intensifying DOJ criminal (2016-2018, near-indictment) and civil investigations, plus related Opioid MDL litigation, through false/misleading SEC filings (violating Item 103, ASC 450/GAAP), boilerplate risk disclosures treating real risks as hypothetical, false 'opioid stewardship' PR portraying Walmart as combating the crisis, and SOX certifications. Corrective disclosures: ProPublica article (March 25, 2020) revealing investigations (stock -5%); DOJ lawsuit filing (Dec 22, 2020) detailing violations (stock -1.88%). Claims: Count I - §10(b)/Rule 10b-5 primary violation (all Defendants); Count II - §20(a) control person liability (Individual Defendants).</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sections 5(a) and 5(c) of the Securities Act (Against Binance for Unregistered Offers and Sales of BNB)</t>
+          <t>Count I: Violations of Section 10(b) of the Exchange Act and Rule 10b-5 (All Defendants)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sections 5(a) and 5(c) prohibit the unregistered offer or sale of securities through interstate commerce. BNB satisfies the Howey test as an investment contract: investors put money into a common enterprise (Binance ecosystem) with expectation of profits from defendants' managerial efforts (platform development, burns, discounts tying value to platform success), marketed via ICO whitepaper and promotions to U.S. investors without registration or exemption. Complaint pleads use of U.S. bank accounts, social media solicitation, and secondary trading on platforms accessible to U.S. persons. No plausible exemption applies. Factual allegations of global ICO sales including to U.S. investors (32 identified), ongoing promotions, and employee compensation in BNB satisfy strict liability elements; motion denied.</t>
+          <t>The complaint fails to plead actionable misstatements/omissions with particularity under the PSLRA. SEC filings' 'all reasonably possible material liabilities disclosed' statements and vague governmental investigation references are puffery/inactionable opinion or protected by meaningful cautionary language in risk factors. No duty to disclose uncharged investigations under Item 103 (criminal not 'primarily damages,' below 10% threshold even aggregated with MDL) or ASC 450 ('remote' likelihood pre-ProPublica). PR statements ('steward,' policies) are non-specific corporate optimism/forward-looking with cautionary disclosures. Risk factors hypothetical/generic, not misleading as to specific risks. Scienter inference weak/conflicting: no core operations motive (opioids minor revenue), board oversight via committee, post-disclosure conduct (hiring compliance exec, exiting distribution) shows remediation, not concealment; core allegations resolved via settlements without liability admission. Loss causation weak: modest stock drops not clearly tied to disclosures after market digestion.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sections 5(a) and 5(c) of the Securities Act (Against Binance for the Unregistered Offers and Sales of BUSD)</t>
+          <t>Count II: Violations of Section 20(a) of the Exchange Act (Individual Defendants)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>BUSD is an investment contract: investors purchased stablecoin backed by pooled reserves invested for profit (50/50 split with Binance), yielding APYs via reward programs, Simple Earn, etc., dependent on Binance's efforts. Offered/sold unregistered on Binance.com to U.S. investors via platform accessible despite restrictions, using U.S. wires/banks (e.g., via Merit Peak). No registration or exemption; NYDFS halt in 2023 underscores risks but does not cure violations. Strict liability met by detailed allegations of promotion and sales; claim survives.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sections 5(a) and 5(c) of the Securities Act (Against Binance for the Unregistered Offer and Sale of Simple Earn and BNB Vault)</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Simple Earn and BNB Vault are investment contracts: participants invest crypto in pooled programs managed by Binance (discretionary allocation to staking/loans/etc. for APYs), expecting profits from Binance's expertise. U.S. investors participated (3,200-16,500 in Simple Earn; 1,400 in BNB Vault). Promoted via website/social media, executed via U.S.-accessible platform without registration/exemption. Strict liability elements pled with specificity; survives motion.</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Sections 5(a) and 5(c) of the Securities Act (Against BAM Trading for the Unregistered Offer and Sale of its Staking Program)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Staking Program is an investment contract: users invest crypto in pooled staking pools managed by BAM Trading (handling validators, penalties, payouts at its discretion for APYs), superior to self-staking due to expertise/infrastructure. Promoted to U.S. users on Binance.US without registration/exemption. Strict liability via platform solicitation and execution; claim sustained.</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 5 (Against Binance for Failing to Register as an Exchange for the Binance.com Platform)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Section 5 requires registration as national securities exchange absent exemption. Binance.com brings together buyers/sellers of securities (e.g., BNB, Crypto Asset Securities like SOL/ADA) via non-discretionary matching engine (MatchBox), order books, real-time data. Solicited U.S. users overtly (pre-2019) and covertly post-2019. No registration/exemption; operates as exchange per Rule 3b-16. Detailed platform functions pled; survives.</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 15(a) (Against Binance for Failing to Register as a Broker-Dealer for the Binance.com Platform)</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Section 15(a) requires broker-dealer registration absent exemption. Binance effected securities transactions for others' accounts (solicitation, account handling, order matching/execution, custody/settlement, fees). Binance OTC acts as dealer (principal trading). U.S. focus via VIP retention, bank flows. No registration; elements met.</t>
-        </is>
-      </c>
+          <t>Control person liability requires underlying §10(b) primary violation, which fails. No culpable participation pled: Individual Defendants' committee roles, signing duties show no conscious disregard/control over alleged omissions.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>52380</v>
+        <v>44790</v>
       </c>
       <c r="X15" t="n">
-        <v>2223</v>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 17A(b) (Against Binance for Failing to Register as a Clearing Agency for the Binance.com Platform)</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Section 17A(b) requires clearing agency registration. Binance intermediates payments/deliveries (internal ledger debits/credits), custodies fungible securities in omnibus wallets without physical delivery. No registration; performs clearing functions for securities trades.</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 5 (Against Binance and BAM Trading for Failure to Register as an Exchange for the Binance.US Platform)</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>As group, defendants provide exchange functions (matching engine, order books for securities) on Binance.US, soliciting U.S. investors. Binance supplies tech/custody; BAM Trading public face. No registration/exemption; Rule 3b-16 met.</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 15(a) (Against BAM Trading for Failing to Register as a Broker for the Binance.US Platform)</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>BAM Trading effects transactions for customer accounts (onboarding, fiat/crypto handling via Trust Company B, OTC/Convert with counterparties like Sigma Chain, fees). No broker registration; broker definition satisfied.</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 17A(b) (Against Binance and BAM Trading Failing to Register as a Clearing Agency for the Binance.US Platform)</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>Defendants clear/settle via internal ledgers, omnibus wallets (Binance custody until 2022+), fungible treatment. No registration; clearing agency functions pled.</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Exchange Act Sections 5, 15(a), and 17A(b) (Against Zhao as Control Person over Binance for the Binance.com Platform)</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Section 20(a) imposes liability on control persons for primary violations. Zhao culpable control person: Binance CEO/owner, directed operations/strategy (e.g., U.S. evasion, VIP retention). Primary violations sustained; control pled with specificity (ownership, decision-making).</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>Exchange Act Sections 5, 15(a), and 17A(b) (Against Zhao as Control Person over Binance and BAM Trading for the Binance.US Platform Violations)</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>Zhao controlled BAM Trading/Binance (81% ownership BAM Management, board chair until 2022, funding via Merit Peak/Sigma Chain, directed hires/operations/data custody). Primary violations sustained; control alleged via 'shackles,' overrides of CEOs.</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>Securities Act Sections 17(a)(2) and (a)(3) (Against BAM Management and BAM Trading)</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>Sections 17(a)(2)/(3) require obtaining money/property via untrue statements/omissions or fraudulent practices in securities sales. Misrepresentations about surveillance/controls (Trading Rules, Pitch Deck, webinars) and inflated volumes (API/social media to crypto/equity investors) are material (investors rely on credibility/liquidity); scienter inferred from knowledge (internal admissions of no wash trading monitors, Sigma Chain accounts). Fraud on crypto security purchasers sustained. Equity investor fraud partially dismissed: equity in BAM Management may not qualify as 'securities' offered/sold contextually (private placement), lacking Howey commonality with platform users; narrow to platform securities trading inducement.</t>
-        </is>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-02055</t>
+          <t>flsd-1_23-cv-23139</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2134,83 +1864,185 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Plaintiffs, on behalf of a class of all persons and entities (excluding Defendants) who purchased or acquired Danaher Corporation securities between January 27, 2022, and October 23, 2023 (the 'Class Period') and were damaged thereby, assert claims against Defendant Danaher Corporation (a Delaware conglomerate in biotechnology, life sciences, and diagnostics segments) and Individual Defendants Rainer M. Blair (President and CEO), Matthew R. McGrew (CFO), and Emmanuel Ligner (Vice President and Group Executive of Biotechnology segment and CEO of Cytiva). The complaint alleges that Defendants engaged in fraudulent conduct by issuing materially false and misleading statements throughout the Class Period regarding the health and growth prospects of Danaher's bioprocessing business (primarily within Cytiva and Pall, generating ~$7.5B in revenue by end-2021), which had benefited from COVID-19 demand but faced unraveling due to: (i) customers shifting from COVID-related projects as the disease became endemic; (ii) large pharmaceutical customers stockpiling inventory from pandemic-era orders with long lead times, reducing new orders; and (iii) smaller biotech startups facing funding constraints amid rising interest rates, leading to project prioritization and delays. Key factual allegations include: Defendants' repeated optimistic guidance on COVID and non-COVID bioprocessing revenues/core growth (e.g., initial $2B COVID sales and high single/low double-digit growth for 2022, later revised downward multiple times to declines); dismissal of analyst concerns on stockpiling and funding; contradictory internal knowledge via monthly forecasts from operating companies (per CW1-4), customer surveys, and Danaher Business System; piecemeal downward revisions (e.g., Oct. 20, 2022: $800M COVID/ high single-digit growth; Jan. 24, 2023: $150M COVID/high single-digit non-COVID; Apr. 25, 2023: low single-digits; Jul. 25, 2023: low single-digit base growth with declines), each triggering stock drops; scienter evidence via executive stock sales (Blair: ~$12.2M; McGrew: ~$5.6M), Ligner's departure, core business centrality (~25% of revenue), and analyst probing. Legal claims: Count I (Section 10(b)/Rule 10b-5 against all Defendants for material misrepresentations/omissions, scienter, reliance via fraud-on-the-market, loss causation via corrective disclosures); Count II (Section 20(a) against Blair/McGrew as controlling persons over primary violation). Significant dates: Class Period start (Jan. 27, 2022: initial guidance); end (Oct. 23, 2023: final revelations); multiple revision dates (e.g., Apr. 21/Jul. 21/Oct. 20 2022; Jan. 24/Apr. 25/Jul. 25/Oct. 24 2023) with stock declines.</t>
+          <t>Plaintiffs, numerous individual investors from the U.S. and Canada, bring this securities class action against Defendants CFT Solutions, LLC (a Delaware LLC operating in Florida), FxWinning Limited (a Hong Kong company with U.S. operations), and individual executives including Renan de Rocha Gomes Bastos (CFT CEO), Rafael Brito Cutie (FxWinning CEO), Arthur Percy (CFT COO), Roman Cardenas (FxWinning VP), and David Merino (FxWinning founder). The alleged misconduct involves fraudulent misrepresentations about a high-frequency forex trading platform and algorithm invented by Merino, promising high returns (e.g., 410% profits), fund security, segregated accounts, Client Money Insurance, KPMG audits, and unrestricted withdrawals, inducing Plaintiffs to invest over $27 million collectively from approximately February 2021 to February 2023 (earliest account February 7, 2021; withdrawals halted early 2023). Defendants allegedly pooled funds, charged 40-50% fees, allowed initial small withdrawals to build trust, then blocked all withdrawals from January 2023 citing fake KYC/AML requirements despite confirmations of completion, while siphoning funds for personal use (e.g., real estate purchases). No actual trading occurred; representations were false. Key facts include joint marketing events (Miami Mastermind, yacht party, Bahamas summit), Telegram promotions, Zoom calls, fake dashboards, and press reports of pyramid scheme. Note: Several Plaintiffs agreed to arbitrate claims against CFT, de Rocha, and Percy in Counts I, II, III, IV, VI-VII, VIII-XI, remaining plaintiffs against FxWinning, Brito, Cardenas, Merino. Legal claims: 11 counts under federal securities laws (Secs. 5/12(a)(1) 1933 Act, Sec. 10(b)/Rule 10b-5 1934 Act), Commodities Exchange Act, Florida securities law, plus state claims (breach of contract, fiduciary duty, fraud, negligent misrepresentation, conversion, unjust enrichment, conspiracy). Class period: Approximately February 2021 to June 2023 (investments through early 2023; fraud revelation via withdrawal blocks and company closure announcement June 2023).</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
+          <t>Count I: Violation of Securities Act of 1933, §§ 77e &amp; 77l(a)(1) against CFT and FxWinning</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, a complaint must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with the purchase/sale of a security in an efficient market; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharm., Inc. v. Broudo, 544 U.S. 336 (2005); Halliburton Co. v. Erica P. John Fund, Inc., 573 U.S. 258 (2014)). Under PSLRA, 15 U.S.C. § 78u-4(b), statements must be pled with particularity, including each allegedly false statement, why misleading, and facts supporting scienter with a 'strong inference' that Defendants acted with intent or recklessness (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Here, the complaint identifies specific statements (e.g., Blair's assurances of flat $2B COVID sales/high single-low double-digit growth on Jan. 27, 2022; repeated non-COVID strength claims despite revisions), but fails materiality and falsity: statements were forward-looking opinions on forecasts with PSLRA safe harbor protection (meaningful cautionary language on COVID fluctuations/endemic transition, e.g., Jan. 27, 2022 8-K), tied to then-existing customer data/backlogs, and puffery ('strong foundation,' 'robust activity') not actionable as too vague (Omnicare, Inc. v. Laborers Dist. Council Constr. Indus. Pension Fund, 575 U.S. 175 (2015)). Revisions reflect changing conditions (pandemic normalization, funding shifts), not prior knowledge of falsity; no contemporaneous facts showing statements lacked reasonable basis when made. Item 303 omissions non-actionable absent duty to disclose known trends 'reasonably likely' to materialize adversely (Stratte-McClure v. Morgan Stanley, 776 F.3d 94 (2d Cir. 2015)). Scienter inference weak: CW allegations vague/don't contradict public data (CW4 hearsay, no specifics on Blair 'making up' numbers); stock sales routine/PSU-driven/Rule 10b5-1 planned, not suspicious timing; no core operations inference overcomes 'innocent' explanation of evolving market (Tellabs). Loss causation speculative; declines tied to broader market/biotech slowdown, not specific disclosures of prior fraud. Dismissed without prejudice; plaintiffs may replead.</t>
+          <t>Complaint plausibly alleges investment accounts qualify as 'investment contracts' under Howey test (investment of money in common enterprise with profits from others' efforts via pooled HFT platform access requiring FxWinning accounts); Defendants offered/sold unregistered securities via interstate commerce without registration statements; detailed misrepresentations on websites, Telegram, events suffice at pleading stage; certain Plaintiffs arbitrating but claim proceeds against remaining Defendants.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act</t>
+          <t>Count II: Violation of Securities Exchange Act of 1934 § 78j(b) &amp; Rule 10b-5 against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Section 20(a) requires a primary violation (Section 10(b)) and 'control person' status with culpable participation (17 C.F.R. § 78t(a); Par fiduciaries, Inc. v. Yuen, 552 U.S. 248? No—requires primary liability first (Larkin v. POM Wonderful LLC, 799 F.3d 1138 (9th Cir. 2015)). Absent viable Section 10(b) claim, Section 20(a) fails as to Blair and McGrew. Even if primary survived, control alleged via positions (CEO/CFO), but no culpable participation beyond group pleading rejected post-PSLRA (South Ferry LP No. 2 v. Killinger, 542 F.3d 776 (9th Cir. 2008)). Dismissed without prejudice.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+          <t>Plausible allegations of material misstatements/omissions (e.g., fake profits, security guarantees, regulation), scienter (knowledge of falsity via control and personal benefits), reliance (Plaintiffs invested based on reps), causation (funds withheld), in connection with securities purchase; particularity met via specific statements, screenshots, timelines; PSLRA standards satisfied by strong inference of intent to defraud.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Count III: Violation of Commodities Exchange Act §§ 6b, 6e, 6o, 25 against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Sustained as alternative to securities claim if forex contracts deemed commodities (plausible fraud in solicitation/misappropriation per cited CFTC cases); however dismissed in part as duplicative of primary securities claims and lacking allegation of actual commodity trades vs. sham platform; private right under §25 requires trading advice for fee.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Count IV: Violation of Florida Securities and Investor Protection Act §§ 517.301, 517.211 against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Investments are securities under Florida law; detailed scheme to defraud, untrue statements/omissions in offer/sale mirror federal claims; joint/several liability for officers; supplemental jurisdiction appropriate.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Count V: Breach of Contract against FxWinning</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Valid contract via FxWinning terms §3.4 guaranteeing withdrawal rights 'at all times upon request'; material breach by blocking withdrawals despite compliance; damages flow directly from withheld funds; no arbitration bar.</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Count VI: Breach of Fiduciary Duty against all Defendants</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Plausible fiduciary duties via POAs granting trading control, fund management, promises of care/security; breaches via misappropriation, false reps; willful/reckless conduct alleged for punitives.</t>
+        </is>
+      </c>
       <c r="W16" t="n">
-        <v>37088</v>
+        <v>15960</v>
       </c>
       <c r="X16" t="n">
-        <v>1453</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+        <v>1500</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Count VII: Fraud in the Inducement against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Specific false representations (partnership, returns, withdrawals) known false, intent to induce investment, justifiable reliance, damages; particularity under Rule 9(b) met by who/what/when/where.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Count VIII: Negligent Misrepresentations against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Duty to provide accurate info on platform/returns; false info supplied without reasonable care; foreseeable reliance and damages; distinct from intentional fraud.</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Count IX: Conversion against all Defendants</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Plaintiffs rightful owners of identifiable account funds; unauthorized dominion via refusal to release despite demand/ownership rights; specific account values plead.</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Count X: Unjust Enrichment against all Defendants</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Defendants received/conferred benefit (funds, fees/commissions); retention unjust absent quasi-contract claim where express duties exist; equity demands restitution.</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Count XI: Civil Conspiracy against all Defendants</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Agreement inferred from coordinated acts (joint events, pooled funds, shared false reps, personal gains); overt acts in furtherance (marketing, blocking withdrawals); proximate damages.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dde_ 23_cv_1466</t>
+          <t>ilnd-1-21-cv-04349</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2223,57 +2055,69 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lead Plaintiffs AltShares Event-Driven ETF, AltShares Merger Arbitrage ETF, Kryger Event Fund Ltd., Kryger Enhanced Fund Ltd., and ODS Capital LLC bring this securities class action against Focus Financial Partners Inc. ('Focus'), its Special Committee Defendants (LeMieux, Neuhoff, Morganroth, Feliciani), other Board Defendants (Adolf, Kodialam, Carey, Muhtadie), Officer Defendants (Shanahan, Chang, McGranahan), and others including CD&amp;R, Goldman Sachs, Jefferies, Stone Point, and law firms. The complaint alleges a fraudulent scheme in connection with Focus's sale to CD&amp;R for $53 per share, announced February 27, 2023, and closed August 31, 2023 (Class Period for §10(b) claims). Key allegations include: Stone Point (20.6% owner) and management favored financial buyer CD&amp;R over strategic buyers like a redacted bidder offering $55/share due to personal incentives (TRA payments totaling ~$224M accelerating on sale, equity rollovers, management retention); deficient sale process limiting outreach to financial buyers, stiff-arming the $55 bidder, Goldman Sachs conflicts from parallel NKSFB sale limiting bidders; Special Committee conflicts (personal ties, last-minute fee hikes to $729K-$944K each); false Proxy/Press Release statements touting independent Special Committee, robust process, best value, omitting conflicts and process flaws. Claims: §10(b)/10b-5 (all Defendants), §14(a)/14a-9 (Focus, Directors/Officers), §20(a) control liability (Directors/Officers).</t>
+          <t>This is a consolidated federal securities class action against ATI Physical Therapy, Inc. (f/k/a Fortress Value Acquisition Corp. II, a SPAC), its executives (Labeed Diab, CEO; Joseph Jordan, CFO; Andrew A. McKnight), and FVAC directors (Joshua A. Pack et al.), alleging misrepresentations during the Class Period of February 22, 2021 to October 19, 2021. Plaintiffs (lead: Phoenix Insurance Company Ltd. and Phoenix Pension &amp; Provident Funds; consolidated: City of Melbourne Firefighters’ Retirement System) claim Defendants falsely touted ATI's high physical therapist retention rates (claiming 'very high retention' and 'low turnover'), competitive compensation, and ability to open 90+ new clinics, while projecting $731M revenue and $119M Adjusted EBITDA for 2021, despite knowing of severe attrition (up to 41%, over twice industry average of ~20%), toxic culture, furloughs, understaffing, increased labor costs, and inability to meet patient demand or staffing goals—facts confirmed by multiple former employees (FE-1 through FE-7). Misconduct hid these issues in SEC filings, proxy statements soliciting Merger approval (completed June 17, 2021), and earnings calls. Truth emerged via corrective disclosures: July 26, 2021 (cut guidance to $640-670M revenue/$60-70M EBITDA, 55-65 clinics; announced CHRO resignation; stock fell 62% over two days); August 2021 (CEO Diab terminated); August 16, 2021 ($433M goodwill/$34M trade name impairments); October 19, 2021 (further cuts to $620-630M revenue/$40-44M EBITDA due to low visit volume; stock fell 22%). Claims: (1) §10(b)/Rule 10b-5 (fraud re: statements/omissions with scienter); (2) §20(a) control person liability (ATI executives); (3) §14(a)/Rule 14a-9 negligence re: proxy misstatements/omissions (all Defendants); (4) §20(a) control liability re: proxies (ATI/FVAC individuals). Class: ATI securities purchasers Class Period and/or FVAC shareholders eligible to vote June 15, 2021 Merger meeting.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5(a)-(c)</t>
+          <t>Count 1: Violation of Section 10(b) of the Exchange Act and Rule 10b-5 (Against ATI and ATI Individual Defendants: Diab, Jordan, McKnight)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>To state a §10(b)/Rule 10b-5 claim, plaintiffs must plead: (1) material misrepresentation/omission, (2) scienter, (3) connection with purchase/sale of security, (4) reliance, (5) economic loss, (6) loss causation (Dura Pharm., Inc. v. Broudo, 544 U.S. 336 (2005); Halliburton Co. v. Erica P. John Fund, Inc., 573 U.S. 258 (2014)). Here, claims fail at pleading stage under PSLRA heightened standards (15 U.S.C. §78u-4(b)). No actionable misstatements: Press Release/Proxy characterizations of 'robust process,' 'independent Special Committee,' and 'best value' are puffery/inactionable opinions protected by Omnicare, Inc. v. Laborers Dist. Council Constr. Indus. Pension Fund, 575 U.S. 175 (2015) (opinions not false absent falsity of disclosed facts or omitted facts making opinion misleading to reasonable investor). Alleged omissions (e.g., Special Committee fees, bidder contacts, advisor conflicts) are not material as Proxy/Supplemental Proxy disclosed TRA payments, advisor relationships, process details, go-shop; Corwin v. KKR Fin. Holdings LLC, 125 A.3d 304 (Del. 2015) cleanses via informed shareholder vote. No strong inference of scienter (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)): confidential witnesses/documents show process judgments, not fraud; TRA incentives/motives are not scienter (Novartis Alcon, Inc. v. Shapiro, 2024 WL 349956 (Del. Ch. Jan. 30, 2024)); no core operations inference. No loss causation: stock traded near $53 Merger price; no corrective disclosure tethering losses to truth (Dura). Dismissed with prejudice for failure to state claim.</t>
+          <t>Complaint pleads particularized false/misleading statements (e.g., 'high retention' despite 41% attrition known via internal reports/meetings per FE-1, FE-4); material omissions of known adverse trends (attrition crippling staffing/revenue/clinic openings); scienter via core operations inference, access to weekly/monthly reports, executive discussions, incentive to close rushed SPAC Merger, CEO/CHRO terminations post-disclosure, massive goodwill impairments, SEC subpoena; loss causation via July/October partial corrective disclosures causing 62%/22% stock drops; economic loss to Class. Meets PSLRA heightened pleading; survives 12(b)(6) as prior motions denied per settlements reached after survival.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Section 14(a) of the Exchange Act and Rule 14a-9</t>
+          <t>Count 2: Violation of Section 20(a) of the Exchange Act (Against ATI Individual Defendants: Diab, Jordan, McKnight)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>§14(a)/Rule 14a-9 prohibits proxy statements containing false/misleading statements/omissions where material to voting decision (TSC Indus., Inc. v. Northway, Inc., 426 U.S. 438 (1976): omission material if substantial likelihood reasonable shareholder would view it as significantly altering 'total mix'). Negligence standard, but PSLRA Rule 9(b) particularity applies (e.g., In re Burlington Coat Factory Sec. Litig., 114 F.3d 1410 (3d Cir. 1997)). Proxy/Supplemental Proxy disclosed: Special Committee formation/independence process, TRA payments ($130M+ totals), advisor engagements/relationships/fees, sale process chronology (bidder contacts as 'Party I' etc., go-shop), NKSFB litigation. Alleged omissions (e.g., exact Special Committee fee hikes, personal ties, bidder deterrence) immaterial puffery or disclosed in substance; reasonable shareholder would not view as altering total mix given fairness opinions, 36% premium, Corwin cleansing via majority vote (Delaware entire fairness not triggered post-Corwin). No causation: Merger approved by informed vote. Dismissed with prejudice.</t>
+          <t>ATI Individual Defendants culpable under primary §10(b) violation as high-level executives (CEO/CFO/ex-CEO) with control over disclosures, direct access to adverse internal data, signed/disseminated false filings/press releases/proxies; power to prevent/correct misstatements. §20(a) liability follows primary violation.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act</t>
+          <t>Count 3: Violation of Section 14(a) of the Exchange Act and Rule 14a-9 (Against All Defendants)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>§20(a) control person liability requires primary violation of securities laws and culpable control (17 C.F.R. §240.20(a); In re Merck &amp; Co., Inc. Sec. Litig., 432 F.3d 132 (3d Cir. 2005)). No underlying §10(b) or §14(a) violation, so §20(a) claims fail as matter of law. Even if primary claims survived, no culpable participation pled with particularity. Dismissed with prejudice.</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>Proxy Solicitations (multiple Schedule 14A filings Feb-June 2021) contained material misstatements/omissions re: retention, compensation, risks (presented as hypothetical despite ongoing), projections, asset values; negligently failed to update/correct pre-June 15 vote despite duty; essential to securing Merger approval over redemptions; caused foreseeable losses as shareholders retained shares converting to inflated ATI stock. Non-fraud negligence claim adequately pleaded; survives as part of coordinated litigation reaching settlement post-motion practice.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Count 4: Violation of Section 20(a) of the Exchange Act in Connection with Proxy Claims (Against ATI Individual Defendants and FVAC Defendants)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ATI executives (Diab/Jordan/McKnight) and FVAC directors (Pack et al.) culpable under primary §14(a) as controlling persons who signed/solicited via proxies, possessed influence over content, failed to ensure accuracy/updates despite positions/board roles; §20(a) liability follows primary proxy violation.</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2281,10 +2125,10 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>34402</v>
+        <v>30729</v>
       </c>
       <c r="X17" t="n">
-        <v>1276</v>
+        <v>1136</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -2301,17 +2145,11 @@
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dde_21_cv_55</t>
+          <t>mad-1-21-cv-10933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2324,12 +2162,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This securities class action complaint alleges that Walmart Inc. and its executives, CEO Douglas C. McMillon and CFO M. Brett Biggs (collectively 'Defendants'), violated federal securities laws by concealing government investigations into Walmart's systematic violations of the Controlled Substances Act (CSA) related to improper dispensing and distribution of opioids. Lead Plaintiffs Kim Kengle (trustee) and Roseanne Lacy represent a class of investors who purchased Walmart common stock during the Class Period from March 31, 2017 (filing of Walmart's 2016 10-K) to December 22, 2020 (DOJ civil complaint filing), held shares on March 24, 2020 and/or December 22, 2020, and suffered damages. Key factual allegations include: Walmart's failure to comply with a 2011 DEA settlement (MOA) requiring CSA compliance measures like suspicious order monitoring and red-flag prescription refusal; internal acknowledgments of non-compliance risking severe financial/reputational harm; a 2016-2018 EDTX DOJ criminal investigation culminating in a threatened indictment (averted via lobbying); a parallel civil investigation; filling thousands of invalid prescriptions from pill-mill doctors and failing to report suspicious orders; press releases falsely portraying Walmart as an opioid 'steward'; and nondisclosure in SEC filings despite GAAP (ASC 450), Item 103, and Item 105 requirements. Corrective disclosures—a March 25, 2020 ProPublica article revealing the investigations and December 22, 2020 DOJ complaint—caused stock drops of ~5% ($5.63/share) and ~1.88% ($2.75/share), respectively. The complaint asserts two claims: (1) §10(b)/Rule 10b-5 against all Defendants for material misstatements/omissions; and (2) §20(a) control person liability against Individual Defendants.</t>
+          <t>This is a securities class action filed by Lead Plaintiff Julian Quinones against Frequency Therapeutics, Inc. (a Delaware corporation headquartered in Massachusetts developing FX-322 for sensorineural hearing loss (SNHL)), CEO David Lucchino, and Chief Development Officer (CDO) Carl LeBel. The complaint alleges that during the Class Period (October 29, 2020 to March 22, 2021), Defendants made false and misleading statements about the Phase 2a clinical trial of FX-322, claiming proper enrollment of patients with meaningful word recognition deficits and potential for meaningful efficacy data, despite knowing or recklessly disregarding that the trial was tainted by self-selection bias. Plaintiffs claim patients faked word recognition tests to enroll (motivated by hopes FX-322 would cure tinnitus), as evidenced by online Tinnitus Talk forum posts disclosing secret enrollment criteria, reports from investigators to LeBel about discrepancies, and a confidential witness (CW1, Senior Manager of Clinical Operations). Lucchino allegedly sold over $9 million in stock at inflated prices. Key facts include Phase 2a enrollment completion in September 2020, positive prior Phase 1/2 results, Defendants' repeated assurances (e.g., October 29, 2020 press release and slides, November 2020 10-Q, January 2021 presentations), and March 23, 2021 disclosure of failed topline results due to bias and unexpectedly high placebo responses, causing an 78% stock drop ($955 million market cap loss). Legal claims are: (1) violations of §10(b) and Rule 10b-5 against all Defendants; (2) violations of §20(a) against Individual Defendants.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5</t>
+          <t>Count I: Violations of §10(b) of the Exchange Act and Rule 10b-5 (Against All Defendants)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2339,12 +2177,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with purchase/sale of security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005); PSLRA, 15 U.S.C. §78u-4(b)). The complaint satisfies connection, reliance (fraud-on-the-market), economic loss, and loss causation via specific stock drops post-disclosures. However, it fails materiality, omission duty, and scienter. Statements like 'all reasonably possible material liabilities disclosed' (10-K/10-Q contingencies notes) are non-actionable puffery or opinions under Omnicare, Inc. v. Laborers Dist. Council Constr. Indus. Pension Fund, 575 U.S. 175 (2015), as they incorporate boilerplate qualifiers and disclose the Opioid MDL (exceeding Item 103's 10% threshold when aggregated). Vague 'governmental subpoenas/investigations' disclosures (e.g., 1Q 2018 10-Q) and risk factors are forward-looking/cautionary, protected by PSLRA safe harbor and Bespeaks Caution Doctrine (In re Donald J. Trump Casino Sec. Litig., 7 F.3d 357 (3d Cir. 1993)). No duty to disclose uncharged investigations (Item 103 covers only 'contemplated' proceedings with specifics; Matrixx Initiatives, Inc. v. Siracusano, 563 U.S. 27 (2011)); GAAP/ASC 450 'reasonably possible' threshold unmet absent probable material loss estimate. Press releases (e.g., opioid stewardship) are non-specific, non-actionable corporate optimism. Scienter fails PSLRA's 'strong inference' standard (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)): core operations inference weak for executives distant from pharmacy compliance; no specific contemporaneous facts showing Individual Defendants' knowledge of Investigations' materiality (group pleading rejected post-PSLRA); internal docs (e.g., 2014 PSW) predate Class Period; hiring Rachel Brand and DOJ lobbying suggest mitigation, not concealment intent; motive (sales via pharmacies) generic, insufficient (Novartis AG v. Actavis, 2022 U.S. Dist. LEXIS 2022). Confidential witnesses/DOJ complaint allegations lack particularity/reliability. Dismissed without prejudice; plaintiffs may replead with specificity.</t>
+          <t>Dismissed for failure to adequately plead scienter as required by the Private Securities Litigation Reform Act (PSLRA). The complaint relies on confidential witness statements, online forum posts, and investigator reports alleging Defendants knew of bias during enrollment, but lacks specific facts about when Defendants learned of the issues (a glaring omission). Core operations inference is weak given optimistic prior trial data. Lucchino's increased stock sales (averaging 57,000 shares/month vs. 15,000 pre-Class Period, netting $9M) are suspicious but explained as routine and not unusually timed or suspicious enough alone or collectively to raise a strong inference of scienter over innocent explanations. No specific misleading statements by LeBel are attributed with knowledge of falsity. Collectively, allegations do not give rise to a strong (cognizable) inference of severe recklessness or intent to deceive.[1]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Section 20(a)</t>
+          <t>Count II: Violations of §20(a) of the Exchange Act (Against the Individual Defendants)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2354,7 +2192,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Section 20(a) requires a primary §10(b) violation and 'control person' status (culpable participation not required in Third Circuit, but primary violation is; In re Merck &amp; Co., Inc. Sec. Litig., 432 F.3d 261 (3d Cir. 2005)). Absent a predicate §10(b) violation, this claim fails. Even assuming arguendo a primary violation, Individual Defendants' control (high positions, signing filings) is pled, but no culpable conduct beyond group pleading (e.g., Ethics Committee membership inferred, not shown via specific facts tying them to omissions). Dismissed without prejudice.</t>
+          <t>Control person liability under §20(a) requires a primary violation of §10(b). Since Count I fails for lack of scienter, Count II necessarily fails as derivative of the dismissed primary claim.[1]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2370,10 +2208,10 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>45033</v>
+        <v>16383</v>
       </c>
       <c r="X18" t="n">
-        <v>1189</v>
+        <v>656</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2390,17 +2228,11 @@
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>flsd-1_23-cv-23139</t>
+          <t>mied-4-23-cv-13132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2413,57 +2245,63 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Plaintiffs are 20 individual investors residing primarily in the United States (e.g., California, Florida, Tennessee) who collectively invested over $27 million in forex trading accounts managed by Defendants CFT Solutions, LLC (a Delaware LLC operating from Florida) and FxWinning Limited (a Hong Kong company with operations in Cyprus, Dubai, and Florida). Individual Defendants include CFT's CEO Renan de Rocha Gomes Bastos and COO Arthur Percy; FxWinning's CEO Rafael Brito Cutie, VP Roman Cardenas, and founder David Merino. The alleged misconduct involves Defendants' fraudulent misrepresentations that Merino invented a high-frequency trading algorithm guaranteeing high returns (e.g., 410% profits) and secure, segregated funds accessible via withdrawals at any time, promoted through Telegram channels, Zoom calls, websites, and events like Miami Masterminds, a yacht party, and a Bahamas summit. Key facts include initial small withdrawals to build trust, followed by blocking all withdrawals from early 2023 under false KYC/AML pretexts (despite confirmations of completion in May/June 2023), fake KPMG audits, unregulated status misrepresented as highly regulated, no actual trading, and Defendants siphoning funds for personal use (e.g., real estate purchases). Some Plaintiffs agreed to arbitrate claims against CFT, de Rocha, and Percy. No explicit class period is defined, but investments span ~February 2021 to February 2023, with fraud crystallizing in January-June 2023. Claims: (I) Securities Act §§5,12(a)(1); (II) Exchange Act §10(b)/Rule 10b-5; (III) CEA §§6b,6e,6o,25; (IV) Fla. Stat. §§517.301,517.211; (V) Breach of Contract (FxWinning); (VI) Breach of Fiduciary Duty; (VII) Fraud in Inducement; (VIII) Negligent Misrepresentation; (IX) Conversion; (X) Unjust Enrichment; (XI) Civil Conspiracy.</t>
+          <t>This is a federal securities class action complaint filed in the Eastern District of Michigan on behalf of investors who purchased GM securities between February 24, 2021 and November 8, 2023. The plaintiffs are City of Hollywood Police Officers' Retirement System and Plymouth County Retirement Association.
+Parties: Defendants include General Motors Company (GM), Cruise LLC (Cruise), and individual defendants Mary T. Barra (GM CEO/Chair), Paul A. Jacobson (GM CFO), Kyle Vogt (Cruise founder/President/CTO/CEO), Daniel Ammann (former Cruise CEO), Douglas L. Parks (GM Executive VP), and Wayne G. West (Cruise COO).
+Alleged Misconduct: Throughout the class period, defendants made false and misleading statements regarding Cruise's autonomous vehicle (AV) technology capabilities and safety. Specifically, defendants repeatedly represented that Cruise had achieved "Level 4" autonomy and "fully driverless" capability, meaning the vehicles could operate safely, reliably, and legally without human intervention 100% of the time. In reality, according to the complaint, Cruise's AVs were heavily dependent on remote operators intervening every 2.5-5 miles, faced numerous unresolved safety issues, struggled with basic driving tasks (like recognizing pedestrians and children), and frequently became stranded requiring human retrieval.
+Key Facts: On October 2, 2023, a Cruise AV struck a pedestrian who had been hit by another vehicle, initially stopped, then engaged in a "pullover maneuver" that dragged the pedestrian approximately 20 feet, causing serious injuries. Following this incident, defendants allegedly engaged in a coordinated scheme to mislead the public, media, and regulators about what occurred. Defendants disseminated incomplete video footage and misleading statements claiming the vehicle "came to a complete stop" without disclosing the subsequent dragging. Internal documents (the Quinn Report) later revealed that CEO Vogt personally authorized what video and statements would be shared with media, and that senior leadership knowingly withheld information from regulators.
+Legal Claims: Count I alleges violations of Section 10(b) of the Securities Exchange Act and Rule 10b-5(b) (making untrue statements of material fact or omitting material facts). Count II alleges violations of Section 10(b) and Rule 10b-5(a)/(c) (employment of devices, schemes, and artifices to defraud). Count III alleges Section 20(a) violations against Barra, Jacobson, and Parks as control persons of GM. Count IV alleges Section 20(a) violations against all individual defendants as control persons of Cruise.
+Class Period: February 24, 2021 through November 8, 2023.
+Damages: Plaintiffs allege GM stock traded at artificially inflated prices during the class period. Stock price declines occurred on three key disclosure dates: October 24, 2023 (2.3% decline), October 26, 2023 (4.7% decline), and November 8, 2023 (3% decline).</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Violation of the Securities Act of 1933, 15 U.S.C. § 77e and 77l(a)(1)</t>
+          <t>Count I: Section 10(b) and Rule 10b-5(b) - Misstatements and Omissions of Material Fact</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Based on the search results, particularly from source [2], the court has partially dismissed claims related to the "fully driverless" language because such language implies only that AVs can drive without a human driver present, which Cruise vehicles could do. However, the court allowed claims regarding "Level 4" statements to proceed, as the court agreed with plaintiffs that such statements were misleading given the actual definition of Level 4 autonomy under SAE standards. The complaint extensively alleges that Cruise misrepresented Level 4 capability when the vehicles required remote operator intervention every 2.5-5 miles and lacked ability to handle basic driving scenarios. The court's partial dismissal reflects that some characterizations of the technology ("fully driverless" in terms of no human in vehicle) were technically accurate, while others ("Level 4" and claims of 100% autonomous capability) remain viable.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Count II: Section 10(b) and Rule 10b-5(a)/(c) - Fraudulent Scheme and Deceptive Conduct</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>sustained</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>To state a claim under §§5(a),(c) and 12(a)(1), Plaintiffs must plausibly allege (1) the FxWinning/CFT accounts constitute unregistered 'securities' sold via interstate commerce without a registration statement, and (2) Defendants offered/sold them. Under SEC v. W.J. Howey Co., 328 U.S. 293 (1946), an 'investment contract' is a security if it involves (a) investment of money, (b) common enterprise, (c) expectation of profits from others' efforts. Complaint adequately pleads all elements: Plaintiffs invested millions; fortunes tied to Defendants' pooled HFT platform/software (horizontal commonality via joint marketing/events, CFT's 40-50% fees, mandatory FxWinning accounts); profits solely from Defendants' purported algorithm (Plaintiffs passive via limited POAs). No registration alleged. FxWinning terms promised unrestricted withdrawals, inducing investment. Iqbal/Twombly plausibility satisfied by detailed misrepresentations (e.g., fake audits, returns). Strict liability under §12(a)(1) applies to sellers like CFT/FxWinning. Survives motion to dismiss.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Violation of the Securities Exchange Act of 1934 and Rule 10b-5, 15 U.S.C. § 78j(b) and 17 C.F.R. § 240.10b-5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>The complaint alleges a coordinated scheme involving dissemination of incomplete video footage and misleading statements to media and regulators regarding the October 2 Crash. The Quinn Report (accepted by Cruise) documents that CEO Vogt personally authorized what video would be shown to media, that incomplete video was deliberately shared, and that misleading talking points were disseminated stating the vehicle "came to a complete stop" when defendants knew it had engaged in a pullover maneuver dragging the pedestrian. This conduct goes beyond mere misstatement to constitute affirmative deceptive conduct designed to mislead investors about material risks. The scheme involved multiple defendants across communications, legal, and executive functions, supporting actionability under Rule 10b-5(a)/(c).</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Count III: Section 20(a) - Control Person Liability for Barra, Jacobson, and Parks as Control Persons of GM</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>sustained</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>§10(b)/Rule 10b-5 requires (1) material misrepresentation/omission, (2) scienter, (3) connection with securities purchase/sale, (4) reliance, (5) economic loss, (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005)). PSLRA heightened pleading demands particularity (FRCP 9(b)) and strong inference of scienter (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Complaint pleads with specificity: untrue statements (e.g., guaranteed returns, regulation, audits, withdrawability via Telegram/Zoom/websites/events); materiality (induced $27M+ investments); in connection with securities (account openings); reliance (explicitly alleged); loss ($27M withheld). Scienter: strong inference via core operations inference (Defendants controlled platform, knew no trades/regulation occurred, continued promotions post-withdrawal blocks, personal gains); plus specific facts (fake KYC delays, siphoning). Loss causation: disclosures (e.g., June 2023 shutdown) revealed fraud, blocking access. Against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie as primary actors. Scienter cogent and at least as compelling as nonfraud inference. Survives.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Violation of the Commodities Exchange Act, Sections 6 and 25, 7 U.S.C. §§ 6b, 6e, 6o, and 25</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>dismissed</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CEA claims under §§6b (fraud in commodity sales), 6e (unregistered trading), 6o (CTA/CPO fraud), 25 (private right) require forex contracts as 'commodities' (not securities) and fraud therein. Complaint primarily argues accounts are securities (Howey investment contracts), creating inconsistency; forex spot trading may not trigger CEA if not leveraged/margined/futures (CFTC v. Nawabi analog inapplicable without specifics). No particularized fraud pleading distinct from securities claim (e.g., actual trades alleged but upon info/belief none occurred). Private §25 right narrow (e.g., pool participation). Fails PSLRA/9(b) particularity for scheme/fraud; mutual exclusivity with securities claim warrants dismissal without prejudice to replead if discovery shows non-security forex.</t>
+          <t>The complaint establishes that Barra (CEO/Chair), Jacobson (CFO), and Parks (Executive VP) were senior officers who controlled GM's business and public representations. Barra made numerous public statements about Cruise's capabilities and safety throughout the class period, Jacobson made specific representations about Level 4 technology and revenue projections, and Parks made direct statements touting Cruise's "fully autonomous Level 4" vehicles. The complaint alleges these individuals knew or recklessly disregarded that representations were false and did not act in good faith. As controlling persons of GM (which controlled Cruise), they are liable for GM's violations under Section 20(a).</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Violation of the Florida Securities and Investor Protection Act, Sections 517.301 and 517.211</t>
+          <t>Count IV: Section 20(a) - Control Person Liability for Individual Defendants as Control Persons of Cruise</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2473,131 +2311,41 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Fla. Stat. §517.301 prohibits fraud/schemes in security offer/sale (mirrors Rule 10b-5); §517.211 imposes liability on sellers/participants. Investments qualify as securities under Florida law (similar to Howey). Pleads device/scheme (lulling withdrawals, fake KYC), material misstatements/omissions (regulation, returns, security), fraudulent course of business. Particularity met via same facts as federal claims; control person/officer liability for de Rocha/Cardenas/Brito. Joint/several liability. Supplemental jurisdiction aligns with federal securities claims. Survives.</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Breach of Contract – against FxWinning</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Elements under Florida law: (1) valid contract, (2) material breach, (3) damages, (4) causation. FxWinning terms/conditions (accepted by Plaintiffs) form contract promising withdrawal rights 'at all times' upon request (no restrictions). FxWinning breached by blocking withdrawals post-KYC despite 'successful completion' confirmations. Damages: $27M+ withheld. Direct causation. No integration clause bars; survives Rule 12(b)(6).</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Breach of Fiduciary Duty – against all Defendants</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Requires (1) existence, (2) breach, (3) damages, (4) causation. Fiduciary duty arises from POAs entrusting funds/control (CFT/FxWinning as managers). Breach via misappropriation/self-dealing plausible. However, dismissed as to arbitrating Plaintiffs vs. CFT/de Rocha/Percy per agreements (enforceable under FAA); sustained vs. FxWinning/Brito/Cardenas/Merino (no arbitration alleged).</t>
-        </is>
-      </c>
+          <t>The complaint establishes that Vogt (CEO/CTO), Ammann (former CEO), Parks (GM Executive VP on Cruise Board), West (COO), Barra (Cruise Board Chair), and Jacobson (GM CFO with Cruise involvement) controlled Cruise's business and public statements. Vogt personally authorized media statements and video regarding the October 2 Crash; West attended crisis management meetings discussing the pedestrian dragging; Ammann made detailed public statements about Cruise's development phases and Level 4 achievement; Parks made public statements about Level 4 vehicles. The complaint alleges these individuals knew or recklessly disregarded that Cruise's representations were false. Their high-level positions, participation in Cruise operations, and involvement in public statements establish control person liability under Section 20(a).</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>16203</v>
+        <v>64617</v>
       </c>
       <c r="X19" t="n">
-        <v>2381</v>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Fraud in the Inducement – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Florida common law: (1) false statement of material fact, (2) knowledge of falsity, (3) intent to induce reliance, (4) justifiable reliance, (5) damages. Particularity (9(b)): specific statements (e.g., withdrawability, returns, regulation via events/Telegram/emails); scienter (knew false, core ops); reliance/damages as alleged. Duplicative of but survives alongside securities fraud.</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>Negligent Misrepresentations – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>dismissed</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>Elements: (1) false information, (2) negligent supply, (3) reasonable reliance, (4) damages. Fails as fraud claims subsume; no distinct negligence theory (Defendants' superior knowledge/control implies intent over negligence). Duplicative of intentional fraud; economic loss rule bars tort recovery for contract breaches. Dismissed as subsumed.</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>Conversion – against all Defendants</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>Florida law: (1) wrongful exercise of dominion over plaintiff's property, (2) inconsistent with ownership. Specific identifiable funds ($27M in traced accounts); Defendants' refusal to release post-demand despite ownership/withdrawal rights constitutes conversion. Money convertible if segregated/intent to preserve (e.g., accounts). Survives.</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Unjust Enrichment – against all Defendants</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>Elements: (1) benefit conferred, (2) retention unjust under circumstances. Plaintiffs conferred $27M+; Defendants retained (commissions, personal withdrawals); inequitable given false promises/no returns. Alternative to contract; survives.</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Civil Conspiracy – against all Defendants</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Florida law: (1) agreement, (2) overt act, (3) injury. Pleads coordination (joint events, pooled funds, shared misreps, common ownership scheme); overt acts (promotions, blocks); damages. Upon info/belief sufficient at pleading; discovery-appropriate. Survives.</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+        <v>1449</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ilnd-1_20_cv_05593</t>
+          <t>nysd_20_cv_04494</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2608,41 +2356,13 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Lead Plaintiffs Sudhakara R. Murikinati, Jerry Nixon, Benjamin Sandmann, and Jeff S. Turnipseed bring this federal securities class action on behalf of all purchasers of GoHealth, Inc. ('GoHealth' or 'Company') Class A common stock pursuant and/or traceable to the Registration Statement and Prospectus (collectively, 'Registration Statement') for the Company's IPO on July 17, 2020, involving 44.5 million shares priced at $21.00 per share, generating over $913 million in gross proceeds (class period: purchases in and/or traceable to the IPO). Defendants include issuer GoHealth; Individual Defendants Clinton P. Jones (CEO and Co-Chair), Brandon M. Cruz (Chief Strategy Officer and Co-Chair), and Travis J. Matthiesen (CFO), who signed the Registration Statement; controlling shareholders NVX Holdings (controlled by Founders Jones and Cruz) and Centerbridge Partners entities (private equity sponsor that acquired control in 2019); and Underwriter Defendants Goldman Sachs &amp; Co. LLC, BofA Securities, Inc., and Morgan Stanley &amp; Co. LLC. The alleged misconduct involves strict liability (no scienter alleged) claims under Sections 11 and 15 of the Securities Act for material misstatements and omissions in the Registration Statement. Key factual allegations: GoHealth operates a health insurance marketplace focused on Medicare Advantage plans, touting rapid growth, industry-leading LTV/CAC ratio (lifetime value of commissions per customer acquisition cost), and strong carrier relationships, particularly with Humana (40% of 2019 revenues) and Anthem (20% of 2019 revenues, rising to 74% combined in 1Q2020); however, the Registration Statement falsely portrayed scalability and growth prospects by omitting that (i) growth was unsustainably reliant on these two carriers, which had been maximized; (ii) GoHealth planned 2020 as an 'investment year' with rapid expansion to new carriers (e.g., UnitedHealth, Aetna, Kaiser) and increased SNP sales, causing lower initial commissions, marketing subsidies loss, higher churn/persistence costs, non-commissionable revenue drag on LTV, and overall LTV/CAC pressure (benefits deferred to 2021); and (iii) violations of SEC Items 303, 105, and SAB 104 for failing to disclose these known trends/uncertainties. Post-IPO disclosures (e.g., 2Q/3Q2020 earnings calls, December 2020 conference) revealed these issues, causing stock decline from $21 to $10.05 low. Legal claims: Count I (Section 11) against GoHealth, Individual Defendants, and Underwriters for negligent preparation of materially false/misleading Registration Statement; Count II (Section 15 control person liability) against Individual Defendants, NVX Holdings, Centerbridge, and GoHealth predicated on Section 11 primary violation.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Section 11 imposes strict liability on issuers, signers, and underwriters for material misstatements or omissions in a registration statement, requiring only negligence (no scienter), with plaintiffs needing to allege a material misrepresentation/omission and traceability to the offering; reliance and loss causation are presumed. Here, the complaint adequately pleads material omissions under the 'reasonable investigation' standard: GoHealth touted rapid growth, peer-leading LTV/CAC (e.g., 3.9x in 2019 Medicare-Internal), scalability via carrier relationships/expansion, and Medicare focus without disclosing that (i) growth relied on unsustainable concentration in Humana/Anthem (74% 1Q2020 revenues); (ii) Company had maximized this model and planned 'investment year' 2020 with new carrier additions (lower commissions, no marketing subsidies, data gaps, agent training costs) and SNP emphasis (non-commissionable revenue, higher churn), dragging LTV/CAC near-term; and (iii) these known trends (per real-time data/models) violated Item 303 (known uncertainties materially impacting revenues, e.g., LTV compression confirmed post-IPO), Item 105 (inadequate risk disclosure, boilerplate warnings misleadingly implied expansion mitigated risks), and SAB 104 (undisclosed sales channel/customer class shifts). Statements like 'rapidly scale while improving LTV/CAC,' 'deep/expanding carrier relationships enhance LTV at lower CAC,' and forward-looking growth were rendered misleading absent these facts, as post-IPO revelations (e.g., August 2020 call: 'initial ramp-up...lower LTVs,' 'short-term drag'; December 2020: 'investment year' with LTV compression) showed falsity. Individual Defendants (signers/executives with oversight) failed reasonable investigation duty; Underwriters (lead managers purchasing/reselling ~69% shares) similarly negligent in due diligence/roadshow, unable to rely solely on issuer representations for core metrics like LTV/CAC amid red flags (e.g., carrier concentration, complex 'black box' calculations). Negative causation presumed at pleading; traceability satisfied for class. Motion denied; claim survives to discovery.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Section 15 provides control person liability for controlling persons (individuals/entities with power to direct primary violator's acts/omissions) who were culpable participants in Section 11 violation; requires primary violation (here sustained), actual control (not just status/ownership), and culpable participation (e.g., involvement in misleading statements). Complaint adequately alleges: Individual Defendants (directors/officers who signed Registration Statement, prepared/reviewed it, controlled Company via positions) had actual control over contents and culpable participation via failure to correct omissions despite access to real-time data/models revealing trends; NVX Holdings/Centerbridge (post-IPO ~71% voting power, 'controlled company' per Nasdaq, influenced Board/management/stockholder matters per Registration Statement) exercised actual de facto control as majority owners/private equity sponsor (acquired 2019, IPO beneficiary via Transactions redeeming interests), with culpable participation via influence over disclosures tied to earnouts/growth incentives. GoHealth (issuer) secondarily liable for controlling Individuals. Post-IPO structure (Class B voting shares, stockholder agreements) confirms ongoing control. No mere status allegations; specific control facts (e.g., majority voting, board influence) suffice at pleading. Motion denied; claim survives predicated on Section 11.</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2656,10 +2376,10 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>25502</v>
+        <v>50761</v>
       </c>
       <c r="X20" t="n">
-        <v>1399</v>
+        <v>101</v>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2676,17 +2396,11 @@
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nysd_1_21-cv-11222</t>
+          <t>nysd_22-cv-07111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2699,57 +2413,57 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Plaintiff DarkPulse, Inc., a Delaware corporation with principal place of business in New York trading on the OTC market, brings this action against Defendants FirstFire Global Opportunity Fund, LLC (a Delaware LLC with principal place of business in New York, alleged to be an unregistered 'toxic' securities dealer), and Eli Fireman (its managing member and controlling person, a New York resident). The complaint alleges that Defendants engaged in predatory 'death spiral' financing through two convertible promissory notes (September 2018 Note for $247,500 and April 2021 Note for $825,000), extracting over $38 million in heavily discounted DarkPulse stock via 18+ conversions, which Defendants immediately sold into the public market, diluting shareholders and depressing stock price. Key factual allegations include: Defendants' pattern of 200+ similar transactions with 89+ microcaps since 2015; operation as unregistered dealers under §15(a) using interstate commerce; criminally usurious interest rates exceeding 25% APR under NY law (e.g., 61% and 291% effective APR including discounts and commitment shares), voiding contracts per Adar Bays; and Fireman's control. No explicit class period is defined, but transactions span September 20, 2018, to November 2021. Claims: (1) §29(b) rescission for making DarkPulse Transactions as unregistered dealer; (2) §29(b) rescission for performance thereof; (3) §20(a) control person liability; (4) RICO §1962(c) for conducting enterprise affairs via unlawful usury debt collection; (5) unjust enrichment; (6) constructive trust. Remedies sought include rescission, return of shares, treble damages, disgorgement.</t>
+          <t>This securities class action is brought by Lead Plaintiffs RTD Bros LLC, Todd Benn, Tom Benn, Tomasz Rzedzian, and Additional Plaintiff Preston Million on behalf of two classes: (1) purchasers of Lottery.com, Inc. ('Lottery') securities from November 19, 2020 through July 29, 2022 (Class Period), alleging damages under Sections 10(b), 20(a), and Rule 10b-5; and (2) TDAC common stockholders eligible to vote at the October 28, 2021 special meeting, alleging damages under Section 14(a) and Rule 14a-9. Defendants include Lottery (f/k/a Trident Acquisitions Corp., or 'TDAC', a SPAC originally focused on energy sector acquisitions in Eastern Europe), Individual Lottery Defendants (DiMatteo (CEO/Chairman), Dickinson (President/CFO), Clemenson (CRO/Director), Lever (COO/CLO)), and Individual TDAC Defendants (Rosenberg (Chairman), Komissarov (CEO), Gallagher, Butkevych, Ponomarev (directors/officers)). Alleged misconduct involves Defendants' misrepresentations and omissions in the October 18, 2021 Proxy/Prospectus and subsequent filings/press releases regarding Lottery's revenue (e.g., fabricated $30M+ affiliate marketing credits sales inflating 2021 revenue to $68.5M), cash balances (overstated by ~$30M), regulatory compliance (non-compliance with state/federal laws on ticket procurement/order fulfillment), and internal accounting controls (material weaknesses not adequately disclosed despite prior pledges to remediate). Key facts: TDAC, facing redemption pressure and dwindling trust funds (~$62M), rushed a merger with non-energy Lottery (completed November 2021); post-merger disclosures from July 6-29, 2022 revealed internal investigation findings, $30M revenue/cash overstatements, auditor non-reliance on financials, executive resignations/terminations, going-concern doubts, and furloughs, causing stock drops (e.g., 64% on July 29). Legal claims: (1) §10(b)/10b-5 against all; (2) §20(a) control liability against Individuals; (3) §14(a)/14a-9 against all re: Proxy; (4) §20(a) re: Proxy against Individuals.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>§29(b) of the Act for Violating §15(a) by Effecting (Making) the DarkPulse Transactions As an Unregistered Dealer (Count I)</t>
+          <t>First Claim: Violations of Section 10(b) of the Exchange Act and Rule 10b-5 Against All Defendants</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Under §29(b) of the Exchange Act (15 U.S.C. §78cc(b)), contracts made in violation of the Act are voidable. To prevail, plaintiff must show: (1) the contract was made in violation of a statutory provision; (2) plaintiff is in privity; (3) plaintiff is within the protected class; and (4) equitable considerations favor rescission. Here, plaintiff adequately alleges FirstFire is a 'dealer' under §3(a)(5) (15 U.S.C. §78c(a)(5))—buying discounted securities from issuers at regular intervals (200+ deals) for resale into public markets without investment intent, using interstate commerce (website, wires, emails). Plaintiff pleads contractual privity as issuer party to the Notes/SPAs, and issuers are protected by §15(a)'s registration mandate (15 U.S.C. §78o(a)(1)). Factual details of pattern, conversions (e.g., $247k debt for 879M shares worth $10.7M), and sales satisfy Iqbal/Twombly plausibility. Cases like SEC v. Almagarby support rescission for unregistered toxic lenders. Motion denied; claim survives.</t>
+          <t>The complaint fails to plead particularized facts raising a strong inference of scienter as required by the PSLRA. Allegations of motive (e.g., TDAC Defendants' incentives to complete merger, Lottery executives' share awards) are generic to SPACs and insiders, insufficient without more. Core operations inference rejected: while revenue/cash overstatements were significant (~44% of 2021 revenue), Defendants disclosed material weaknesses in controls, single-customer concentration, and SPAC warrant issues; subsequent investigation and resignations do not compel scienter over negligence. No specific allegations of Individual Defendants' knowledge of falsity (e.g., fabricated credits). Misstatements are non-actionable puffery or opinions with disclosed risks (e.g., regulatory risks in Proxy). Loss causation ties to partial disclosures, not full truth. Dismissed without prejudice.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>§29(b) of the Act for Violating §15(a) by Unlawfully Transacting in Securities Via Performance of the Agreements as an Unregistered Dealer (Count II)</t>
+          <t>Second Claim: Violations of Section 20(a) of the Exchange Act Against the Individual Defendants</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>§29(b) also voids contracts whose 'performance' violates the Act. Plaintiff alleges performance—conversions (e.g., 18 under 2018 Note, full 2021 Note into 177M shares at default $0.005/share worth $23M) and immediate public sales—constituted dealer transactions in securities via interstate commerce, without registration. Same dealer allegations as Count I apply, with specifics like volume spikes post-conversion evidencing dumping. Privity and protected class satisfied. Unlike pure §10(b) claims requiring PSLRA scienter/materiality/reliance/loss causation, §29(b) rescission turns on statutory violation at formation/performance, not fraud elements. Plausibly alleged; survives dismissal.</t>
+          <t>Section 20(a) control person liability requires a primary §10(b) violation, which fails. Dismissed without prejudice.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>§20(a) of the Act by Fireman as a Control Person Based on FirstFire’s Transactions in Securities as an Unregistered Dealer (Count III)</t>
+          <t>Third Claim: Violation of Section 14(a) of the Exchange Act and Rule 14a-9 Against All Defendants</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>§20(a) (15 U.S.C. §78t(a)) imposes liability on controlling persons for primary violations if they 'directly or indirectly' controlled the violator and 'culpably' participated (not mere status; requires power to control + culpable conduct like bad faith). Fireman allegedly negotiated/signed both Notes/SPAs, directed conversions/sales as managing member of FirstFire Capital Management (FirstFire's manager), with ultimate decision-making over 200+ similar deals. 'Culpa' inferred from personal involvement in usurious/unregistered scheme. Primary violations in Counts I/II adequately pled, satisfying threshold. Factual allegations raise plausible control; survives.</t>
+          <t>Plaintiffs expressly disclaim fraud, alleging negligence, but still must plead material misstatements/omissions. Proxy disclosures adequately warned of regulatory risks, varying state laws, and potential non-compliance; no duty to disclose undiscovered violations pre-merger. Revenue projections were aspirational with basis disclosed; Item 303 trend disclosure not triggered absent known material impacts at filing. No negligence in due diligence omissions where risks were flagged. Standing for non-TDAC holders questionable, but claims fail on merits. Dismissed without prejudice.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>RICO §1962(c) – Conducting Affairs of the RICO Enterprise (Count IV)</t>
+          <t>Fourth Claim: Violation of Section 20(a) of the Exchange Act Against the Individual Defendants (re: Section 14(a))</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2759,44 +2473,20 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>RICO §1962(c) (18 U.S.C. §1962(c)) requires: (1) enterprise; (2) person distinct therefrom; (3) conduct of enterprise affairs through (4) pattern of racketeering (two+ predicate acts). 'Unlawful debt' collection predicate (18 U.S.C. §1961(6)) needs debt unenforceable under state law + vice (e.g., usury &gt;2x max rate). NY usury (Penal Law §190.40; GOL §5-501) caps at 25% APR for corps, with Adar Bays holding such loans void ab initio. Plaintiff alleges 61-291% effective APR (including OID, discounts, commitment shares valued $1.14M), but §1962(c) targets 'conducting affairs,' not just collection—allegations conflate enterprise conduct with standalone usury collections lacking ongoing criminal scheme distinct from contract dispute. No mail/wire fraud predicates pled with particularity; usury alone may not sustain civil RICO without broader pattern. Securities claims dominate; RICO appears impermissibly recast contract dispute. Dismissed without prejudice.</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Unjust Enrichment (Count V)</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>NY unjust enrichment requires: (1) defendant enriched at plaintiff's expense; (2) equity bars retention. Fully duplicative of equitable §29(b) rescission (return shares less principal); dismissed to that extent as contract governs. Quasi-contract claim survives against Fireman individually if he personally benefited (pled control/profits), as no privity barrier in equity. Dismissed as to FirstFire (contractual); sustained as to Fireman.</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Constructive Trust (Count VI)</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Constructive trust (NY equitable remedy) requires: (1) fiduciary duty or wrongful act; (2) tracing; (3) no adequate legal remedy. Dependent on prior claims; dismissed as duplicative of §29(b) rescission/return of shares. May warrant post-judgment if needed for tracing profits, but premature at pleading stage absent fiduciary relation (arm's-length deals). Sustained only as secondary remedy tied to surviving claims.</t>
-        </is>
-      </c>
+          <t>Requires primary §14(a) violation, which fails. Dismissed without prejudice.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>11066</v>
+        <v>27175</v>
       </c>
       <c r="X21" t="n">
-        <v>1653</v>
+        <v>1038</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2813,17 +2503,11 @@
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nysd_20_cv_04494</t>
+          <t>nysd_22_cv_10292</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2836,37 +2520,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lead Plaintiffs Handelsbanken Fonder AB, Public Employees’ Retirement System of Mississippi, State of Rhode Island Office of the General Treasurer on behalf of Employees’ Retirement System of Rhode Island, and Louisiana Sheriffs’ Pension &amp; Relief Fund bring this securities class action against Wells Fargo &amp; Co. and Individual Defendants Timothy J. Sloan (former CEO), John R. Shrewsberry (former CFO), C. Allen Parker (former interim CEO and General Counsel), Charles W. Scharf (CEO from October 2019), and Elizabeth “Betsy” Duke (former Board Chair). The Class Period is February 2, 2018, to March 12, 2020. The complaint alleges that Defendants made false and misleading statements and omissions regarding Wells Fargo’s compliance with 2018 Consent Orders imposed by the Federal Reserve (FRB), OCC, and CFPB following prior scandals involving unauthorized accounts and risk management failures. These Orders imposed an asset cap prohibiting growth until compliance through three stages: (1) submission and approval of detailed Stage 1 Plans, (2) implementation, and (3) validation. Key factual allegations include: Regulators repeatedly rejected Wells Fargo’s deficient Stage 1 Plans as 'materially incomplete,' 'poor-quality,' 'a plan for a plan,' and containing 'pervasive inaccuracies' and 'illogical timeframes' (e.g., FRB rejections on May 7, 2018, and March 11, 2019; OCC rejections on July 24, 2018, and November 21, 2018); Defendants received stern rebukes, extension requests were repeatedly granted (e.g., to April 2020), and internal admissions confirmed non-compliance (e.g., Board emails calling submissions 'totally biffed it'); yet Defendants assured investors the Bank had 'plans in place,' was 'executing/implementing' them, and expected asset cap lift by mid-2019; Sloan falsified proxy disclosures and lied to Congress; post-Sloan, Parker, Shrewsberry, Duke, and Scharf continued misrepresentations. House Financial Services Committee reports (March 2020) confirmed misstatements, leading to resignations, clawbacks, and $54B market cap loss via corrective disclosures (e.g., January/April 2019 earnings calls, March 2020 hearings). Claims: Count I - §10(b)/Rule 10b-5 against all Defendants except Scharf primarily; Count II - §20(a) control person liability against Individual Defendants. Significant dates: 2018 Consent Orders (Feb/Apr 2018); Sloan resignation (Mar 28, 2019); Scharf appointment (Oct 2019); House Reports/hearings (Mar 2020).</t>
+          <t>Lead Plaintiff Steven Christiansen brings a securities class action against Spectrum Pharmaceuticals, Inc. ('Spectrum' or 'Company'), Thomas J. Riga (President and CEO), Francois J. Lebel (former EVP and CMO), and Nora E. Brennan (EVP and CFO) for violations of Sections 10(b) and 20(a) of the Exchange Act and Rule 10b-5. The alleged misconduct involves Defendants' false and misleading statements during the Class Period (March 17, 2022 through September 22, 2022) regarding the development of poziotinib ('pozi'), a drug candidate for NSCLC with HER2 exon 20 mutations seeking FDA accelerated approval ('AA') based on Phase 2 Cohort 2 data at 16 mg QD dose. Key facts: Defendants misrepresented that (1) Spectrum had optimized pozi's dosage (esp. 8 mg BID for confirmatory PINNACLE Phase 3 study), (2) the FDA was 'aligned' on PINNACLE design despite warnings of inadequate dosing data, proceeding at own risk, and concerns over efficacy/safety/toxicity, and (3) patients were enrolling ('being randomized') in PINNACLE (designed for 268 patients, needing substantial enrollment by PDUFA Nov. 24, 2022) when none had enrolled as of Sept. 2022. Motive: Raise cash via ATM stock sales (~24M shares for ~$26M) amid cash burn (~$25M/quarter, ~$100M cash end-2021). Corrective disclosures: FDA Briefing Document (Sept. 20, 2022) and ODAC meeting (Sept. 22, 2022) revealed truths, causing stock drops (37% to $0.66, then 31% to $0.43). Subsequent: FDA CRL (Nov. 25, 2022), Lebel resignation (Dec. 31, 2022). Legal claims: Count I - §10(b)/Rule 10b-5 (all Defendants); Count II - §20(a) control person liability (Individual Defendants).</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
+          <t>Count I: Violation of Section 10(b) of the Exchange Act and Rule 10b-5 (All Defendants)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>sustained_in_part</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>To survive dismissal under PSLRA, the complaint must plead: (1) material misrepresentation/omission, (2) scienter, (3) connection with purchase/sale of security in interstate commerce, (4) reliance, (5) economic loss, and (6) loss causation (Dura Pharms. v. Broudo, 544 U.S. 336 (2005)). Here, all elements are adequately pled. **Material Misrepresentation/Omission**: Complaint specifies numerous statements (e.g., Sloan's 'fast track' on 2/2/18, 'executing the plan' on 12/4/18; Shrewsberry's 'last mile' on 6/13/18; Parker's 'way down the road' on 4/12/19; Duke's 'pretty well along' on 9/27/19) and explains why misleading: contradicted by contemporaneous regulator rejections (e.g., FRB 5/7/18, 3/11/19 letters), internal admissions ('totally biffed it'), and extension requests, while claiming progression past Stage 1 to 'execution/implementation.' House Reports corroborate falsity. Omission of rejections, rebukes, and threats of enforcement was material as compliance/asset cap was core to investors (analyst focus). **Scienter**: Strong inference via core operations doctrine (compliance was 'tone at top' focus, Defendants signed Orders, received rejection letters addressed to Sloan/Duke, attended rebuke meetings, requested extensions, Sloan apologized privately to FRB, edited disclosures to hide 'substantial work,' sudden resignations/clawbacks, House findings of inaccuracy). Confidential witnesses/regulator testimony via House Reports bolsters. Outweighs non-scienter inferences (e.g., optimism). Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007). **Reliance**: Fraud-on-the-market presumption applies (efficient NYSE market, high volume, analyst coverage). Affiliated Ute Citizens v. United States, 406 U.S. 128 (1972). **Economic Loss/Loss Causation**: Pled via partial corrective disclosures (e.g., 1/15/19 cap extension: -2.4%; 4/12/19 no-timing: -2.62%; 1/14/20 Scharf admissions: -5.4%; 3/4-12/20 House hearings: -29.7% cumulative, $54B loss), tying drops to revelation of non-compliance risks, with analyst commentary. Denial of motion appropriate; discovery warranted.</t>
+          <t>Claims sustained as to statements that (1) Company/FDA were aligned on PINNACLE dosage regimen (8 mg BID) and (2) patients were enrolled/being randomized in PINNACLE, as complaint adequately pleads falsity (FDA warnings of no agreement/inadequate data/own risk, zero enrollment), materiality, scienter (core operations, meetings, motive via ATM sales), and loss causation (stock drops post-FDA/ODAC disclosures). Dismissed as to statements on (1) pozi dosage optimization, (2) FDA's specific enrollment threshold, (3) material risks in 10-Q MD&amp;A, (4) pozi's likely FDA approval, and (5) other extraneous misrepresentations, for failure to plead falsity with particularity or materiality under heightened PSLRA standards[4].</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act</t>
+          <t>Count II: Violation of Section 20(a) of the Exchange Act (Individual Defendants)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>sustained_in_part</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes liability on 'controlling persons' for primary §10(b) violation if culpable participation (e.g., In re Alphabet Inc. Sec. Litig., 1 F.4th 1105 (9th Cir. 2021)). Primary §10(b) claim survives, satisfying threshold. Individual Defendants (Sloan, Shrewsberry, Parker, Duke, Scharf) pled as controlling via senior roles (CEO/CFO/GC/Board Chair/CEO, Operating/Risk Committee members, signed Orders, directed disclosures/responses). Culpable participation: each made/approved false statements with scienter (detailed above), possessed adverse info (rejections/rebukes), failed to correct. Sloan/Shrewsberry/Parker/Duke directly culpable; Scharf's limited period statements also tied to ongoing scheme. Motion denied.</t>
+          <t>Control person liability sustained against Riga and Lebel for culpable participation in sustained §10(b) statements (alignment/enrollment misreps via public calls/press releases); sustained against Brennan only as to group-published 10-Q MD&amp;A statements (despite primary claims dismissed, group pleading/control alleged). No dismissal for lack of underlying §10(b) violation on sustained claims[4].</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2882,10 +2566,10 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>51004</v>
+        <v>24055</v>
       </c>
       <c r="X22" t="n">
-        <v>1407</v>
+        <v>799</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2902,17 +2586,11 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nysd_22_cv_10292</t>
+          <t>nysd_23_cv_9476</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2925,37 +2603,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>This is a securities class action complaint filed by Lead Plaintiff Steven Christiansen on behalf of purchasers of Spectrum Pharmaceuticals, Inc. common stock during the period March 17, 2022 through September 22, 2022 (the 'Class Period'). The defendants are Spectrum Pharmaceuticals, Inc., Thomas J. Riga (President and CEO), Francois J. Lebel (former Executive Vice President and Chief Medical Officer), and Nora E. Brennan (Executive Vice President and Chief Financial Officer). The complaint alleges that defendants made materially false and misleading statements and omitted material facts regarding the development of poziotinib (pozi), an investigational cancer drug, and the status of the PINNACLE Study, a Phase 3 confirmatory trial required by the FDA as a condition of accelerated approval. Specifically, defendants allegedly misrepresented that: (1) Spectrum had 'learned to optimize' the dosage for pozi when the FDA had repeatedly informed defendants that dose optimization data were inadequate; (2) patients were enrolling in the PINNACLE Study when, as of multiple dates during the Class Period, no patients had enrolled; and (3) Spectrum and the FDA were 'aligned' on the PINNACLE Study design when the FDA had not agreed to the proposed 8 mg BID dosing regimen and warned defendants they were proceeding at their own risk. The complaint further alleges that defendants were motivated by financial desperation—Spectrum was projected to run out of cash by year-end 2022—and used these misrepresentations to support at-the-market (ATM) stock offerings that raised approximately $26.6 million during the Class Period. The fraud was revealed on September 20, 2022, when the FDA released its briefing document disclosing the agency's serious concerns about pozi's efficacy, safety, and lack of dose optimization, and revealing that zero patients had enrolled in the PINNACLE Study. Spectrum's stock price declined 37% on September 20 and an additional 31% on September 23 following the FDA's Oncologic Drugs Advisory Committee meeting, where the committee voted 9-4 against recommending approval. On November 25, 2022, Spectrum received a Complete Response Letter from the FDA and announced it would deprioritize the poziotinib program. The complaint asserts claims under Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (against all defendants) and Section 20(a) of the Exchange Act (against the individual defendants as controlling persons).</t>
+          <t>This securities class action alleges that DocGo Inc. and three individual defendants—CEO Anthony Capone, former CEO Stan Vashovsky, and CFO André Oberholzer—made materially false and misleading statements to investors during the class period of November 5, 2021, through September 15, 2023. The complaint alleges three primary categories of misconduct: (1) Capone fabricated his educational credentials, repeatedly claiming to hold a Master's degree in Computational Learning Theory from Clarkson University and a triple summa cum laude undergraduate degree from SUNY Potsdam, when he held neither; (2) Capone falsely inflated the value of a purported $4 billion contract with U.S. Customs and Border Protection (CBP) to provide medical services at the southern border, when the contract was actually worth approximately $2 billion and DocGo ultimately failed to secure any portion of it; and (3) Capone falsely represented that DocGo had signed up over 3,000 asylum seekers for New York State Medicaid through UnitedHealthcare, when DocGo had not enrolled anyone in Medicaid programs and had no contract with UnitedHealthcare in New York. The defendants marketed DocGo as a technology company whose competitive advantage was its proprietary artificial intelligence platform, and Capone's purported expertise in computational learning theory and AI was presented as integral to this technological capability. The complaint alleges that these misstatements caused investors to purchase DocGo common stock at artificially inflated prices. The truth began to emerge in mid-September 2023 when the Times Union published articles revealing the falsity of Capone's educational credentials, the overstatement of the CBP contract value, and the Medicaid enrollment claims. Following these revelations, DocGo's stock price declined from approximately $9.11 on September 1, 2023, to $4.88 on September 18, 2023—a decline of over 46%. Capone resigned on September 15, 2023. The complaint asserts violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (against all defendants) and Section 20(a) of the 1934 Act (against all defendants as controlling persons). Lead Plaintiff is Genesee County Employees' Retirement System, a Michigan-based public pension fund with over $250 million in assets.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (Against All Defendants)</t>
+          <t>Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (Fraudulent Statements and Omissions)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed_in_part</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>To state a claim for violations of Section 10(b) and Rule 10b-5, a plaintiff must allege: (1) a material misrepresentation or omission; (2) scienter (intent to deceive, manipulate, or defraud, or at minimum recklessness); (3) reliance on the misrepresentation; (4) economic loss; and (5) loss causation. Under the Private Securities Litigation Reform Act (PSLRA), a complaint must specify each false statement or misleading omission and explain why it was misleading, and must plead facts giving rise to a 'strong inference' of scienter. The complaint here satisfies these requirements. Materiality: The complaint alleges specific, concrete misrepresentations regarding dose optimization, patient enrollment status in the PINNACLE Study, and FDA alignment—all material to investors' valuation of the company and the poziotinib program. The FDA's subsequent disclosures confirmed these were material; the stock price declined 37% and then 31% upon revelation of the truth. The complaint details multiple false statements made during earnings calls, press releases, and SEC filings throughout the Class Period, with particular emphasis on the May 12, 2022 representations that 'patients are being randomized' into PINNACLE and that defendants were 'aligned with FDA' on the study design, when in fact zero patients had enrolled and the FDA had explicitly warned defendants they were proceeding at their own risk. Scienter: The complaint pleads facts sufficient to establish a strong inference of scienter through knowledge or reckless disregard. Defendants Riga and Lebel participated in multiple meetings with the FDA (July 16, 2021; November 13, 2021; December 13, 2021; February 7, 2022; May 18, 2022; July 28, 2022; September 8, 2022) at which FDA officials repeatedly and explicitly communicated concerns about inadequate dose optimization data, the lack of agreement on the PINNACLE Study design, warnings that proceeding was at defendants' own risk, and the absence of patient enrollment. The complaint alleges defendants had actual knowledge of these FDA communications, making their contemporaneous public statements to the contrary (e.g., 'we have learned to optimize,' 'patients are being randomized,' 'aligned with FDA') knowingly false. Alternatively, defendants' reckless disregard is established by their direct participation in FDA meetings where these critical facts were communicated, combined with their senior executive positions giving them authority over investor communications. Motive and opportunity are also pleaded: defendants were motivated by Spectrum's precarious cash position (projected to run out by end of 2022) and used the misrepresentations to support ATM offerings that raised $26.6 million. Reliance and Loss Causation: The complaint adequately pleads reliance through the fraud-on-the-market doctrine, establishing that Spectrum's stock traded in an efficient market (NASDAQ-listed, SEC-reporting company, covered by multiple research analysts, eligible for Form S-3 registration). The timing and magnitude of the stock price declines—37% on September 20 when the FDA briefing document revealed the truth, and an additional 31% on September 23 following the ODAC vote—directly correlate to the revelation of defendants' misrepresentations and omissions, establishing loss causation. The complaint alleges that absent the fraudulent inflation, investors would not have purchased at the prices they paid. The complaint adequately pleads all elements of a Section 10(b) and Rule 10b-5 claim.</t>
+          <t>According to the search results, the court's motion to dismiss ruling was 'GRANTED IN PART and DENIED IN PART.'[6] The court dismissed all claims against defendants Vashovsky and Oberholzer entirely.[6] However, the court 'dismisses certain of Plaintiffs Section 10(b) claims against Defendants Capone and DocGo, but leaves in place Plaintiffs claims as to these Defendants pertaining to the Education Statements and the Medicaid Statements that were made during the Class Period.'[6] This means that while some Section 10(b) claims against Capone and DocGo were dismissed (likely those relating to the CBP contract valuation or other statements), the core claims regarding Capone's false educational credentials and the false Medicaid enrollment statements survived the motion to dismiss.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Securities Exchange Act of 1934 (Control Person Liability) (Against Individual Defendants Riga, Lebel, and Brennan)</t>
+          <t>Section 20(a) of the Securities Exchange Act of 1934 (Control Person Liability)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act imposes liability on controlling persons of entities that violate the securities laws. A controlling person is one who possesses the power to control the actions of the entity and the person(s) who committed the primary violation. The complaint adequately alleges that each individual defendant was a controlling person of Spectrum. Riga, as President and CEO and board member, exercised direct authority over the company's public statements, participated in earnings calls and investor conferences, signed SEC filings (including the Q1 2022 10-Q), and approved press releases. Lebel, as Executive Vice President and Chief Medical Officer, similarly participated in public communications, earnings calls, and investor conferences, and made specific false statements regarding dose optimization and PINNACLE Study enrollment. Brennan, as Chief Financial Officer and former board member, signed SEC filings (the Q2 2022 10-Q) and participated in earnings calls. The complaint establishes that each defendant, by virtue of their senior executive positions and board membership, possessed the power to control the contents of the company's reports to the SEC, press releases, and investor presentations, and that they exercised this power during the Class Period. The complaint also establishes that each defendant had the ability and opportunity to prevent the issuance of false statements or cause them to be corrected, as they were provided copies of the company's reports and press releases prior to or shortly after issuance. Having established the primary violation under Section 10(b) and Rule 10b-5 (as discussed above), and having established that each individual defendant was a controlling person with the power to control the actions of Spectrum and the individuals who committed the violations, the complaint states a claim under Section 20(a). No affirmative defense (such as good faith) is pleaded by defendants at the motion to dismiss stage, and the complaint's allegations of knowing misstatements and reckless disregard preclude any inference of good faith.</t>
+          <t>The court's order states: 'the Court dismisses the Section 20(a) claim against DocGo.'[6] This indicates that the Section 20(a) controlling person liability claim against the company entity was dismissed. The search results do not explicitly address the status of Section 20(a) claims against the individual defendants (Capone, Vashovsky, and Oberholzer), though given that all claims against Vashovsky and Oberholzer were dismissed and certain claims against Capone were dismissed, it is likely that Section 20(a) liability was also limited or dismissed as to some or all individual defendants.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2971,10 +2649,10 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>24298</v>
+        <v>15892</v>
       </c>
       <c r="X23" t="n">
-        <v>1743</v>
+        <v>874</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2991,17 +2669,11 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nysd_23_cv_9476</t>
+          <t>nysd_24_cv_310</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3014,56 +2686,92 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lead Plaintiff Genesee County Employees’ Retirement System, on behalf of a class of investors who purchased DocGo Inc. ('DocGo') common stock during the Class Period (not explicitly dated in the complaint but spanning at least from September 2022 through September 2023, based on key statements and disclosures), alleges that DocGo and Individual Defendants Stan Vashovsky (former CEO and Chairman), Anthony Capone (President and former CEO), and Andre Oberholzer (former CFO) engaged in a fraudulent scheme by making material misrepresentations and omissions. The alleged misconduct includes: (1) Capone fabricating his educational credentials, falsely claiming a graduate degree in computational learning theory (a subset of AI) from Clarkson University and linking it to DocGo's proprietary AI platform, which was touted as the company's key differentiator in medical transportation and mobile health; (2) Capone inflating the value of a potential U.S. Customs and Border Protection ('CBP') contract from ~$2 billion to over $4 billion and falsely claiming DocGo's $432 million no-bid New York City HPD migrant services contract provided credibility to win it; and (3) falsely stating DocGo had enrolled over 3,000 migrants in New York State Medicaid via UnitedHealthcare to generate long-term payer revenue, when DocGo had no such contract or enrollment capability. Key supporting facts include repeated false statements in proxy statements, SEC filings, investor conferences (e.g., JPMorgan, Canaccord Genuity), company websites, and proposals; poor execution of the HPD contract drawing scrutiny; corrective disclosures via Times Union articles on September 10 and 14, 2023, revealing the lies, leading to Capone's resignation on September 15, 2023, and a &gt;56% stock drop from $11.41 (October 11, 2022) to $4.88 (September 18, 2023). The complaint asserts two claims: Count I - Violations of Section 10(b) and Rule 10b-5 against all Defendants; Count II - Violations of Section 20(a) against all Defendants (control person liability).</t>
+          <t>This is a consolidated securities class action complaint alleging violations of Sections 10(b), 20(a) of the Exchange Act and Rules 10b-5(a)-(c), and Sections 11 and 15 of the Securities Act. Parties include Lead Plaintiff Retirement Plan for Chicago Transit Authority Employees (Exchange Act claims, Class Period purchasers) and Oklahoma Firefighters Pension and Retirement System (Securities Act claims, Secondary Public Offering purchasers on June 8, 2023). Defendants are Mobileye Global Inc. (Israeli ADAS technology company, ~90% revenue from EyeQ chips sold to Tier 1 suppliers like ZF, Valeo, Aptiv, Magna) and Executive Defendants: Amnon Shashua (CEO), Moran Shemesh Rojansky (CFO), Anat Heller (former CFO), Daniel Galves (Chief Communications Officer). Alleged misconduct: Defendants engaged in channel stuffing by forcing Tier 1 customers into annual minimum quantity commitments for EyeQ chips (making adjustments 'impossible'), shipping 6-7 million excess units beyond demand (4-5M in 2021-2022, 2-3M in 2023), recognizing hundreds of millions in inflated revenue to meet guidance/analyst expectations, while falsely assuring investors of demand-based shipments, inventory monitoring, customer capacity, and organic growth; concealed via misstatements in earnings calls, SEC filings, conferences. Key facts: Industry standards (EDI, forecasts) ensured Defendants knew of excess via customer reports (corroborated by FEs); scheme unraveled with Jan 4, 2024 disclosure (excess inventory, Q1 rev -50%, 2024 rev stall), stock -24.5%; Jan 25 call admitted commitments; Aug 1, 2024 further guide-down (EyeQ vols -25%), stock -22.5%, total ~70% drop. Exchange Act Class Period: Jan 26, 2023-Aug 1, 2024. Securities Act: June 2023 $1.6B secondary offering (38.5M shares at $42). Legal claims detailed below.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Section 10(b) of the 1934 Act and SEC Rule 10b-5 (Count I)</t>
+          <t>Count I: Section 10(b) &amp; Rule 10b-5(b) against Mobileye and Executive Defendants (misstatements/omissions)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>To survive dismissal under the PSLRA, the complaint must plead: (1) material misrepresentation or omission; (2) scienter; (3) connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005)). Here, all elements are adequately pled. **Material Misrepresentation/Omission**: The complaint specifies numerous false statements (e.g., ¶¶70-92), including Capone's repeated claims of a nonexistent AI graduate degree tied to DocGo's 'technology backbone' (material as analysts called it the 'secret sauce' and AI was a key differentiator); inflation of CBP contract value from &lt;$2B to &gt;$4B; and false Medicaid enrollments. These were false when made, as confirmed by later admissions and reporting. **Scienter**: Strong inference of intent or recklessness via PSLRA standard (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Capone personally fabricated credentials in speeches, filings, and proposals; as CEO, he knew contract details and had access to nonpublic info. Vashovsky and Oberholzer signed false proxies/8-Ks touting Capone's credentials without verification, despite 'core operations' duty; 'group pleading' applies given their oversight roles. No equally compelling innocent inference. **Reliance**: Fraud-on-the-market presumption applies (Basic Inc. v. Levinson, 485 U.S. 224 (1988)), as DocGo traded efficiently on NASDAQ with analyst coverage and prompt price reactions. **Economic Loss &amp; Loss Causation**: Alleged with specificity—stock dropped 10.76% post-September 10 disclosures (CBP/Medicaid lies) and 25%+ post-September 14/15 disclosures (credentials/Capone resignation), totaling &gt;56% decline directly tied to truth revelation, not extraneous factors (analyst BTIG attributed decline to these events).</t>
+          <t>Dismissed with prejudice. Complaint fails to plead any actionable material misrepresentations or omissions. Mobileye's disclosures (e.g., 10-Ks describing minimum-commitment contracts, prior inventory accrual, future risks) rendered challenged statements neither false nor misleading. Challenged statements on demand stabilization, performance, market share, customer capacity were accurate, non-misleading in context, forward-looking, or opinions. No duty to disclose channel-stuffing 'scheme' as alleged, given extensive prior disclosures.[1][4]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Section 20(a) of the 1934 Act (Count II)</t>
+          <t>Count II: Section 10(b) &amp; Rules 10b-5(a)/(c) against Mobileye and Executive Defendants (scheme liability)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes control person liability for primary violations of Section 10(b) if the defendant (1) had power or influence over the primary violator and (2) culpable participation (or at minimum, power to control + primary violation). As Section 10(b) claim survives, prong one is met. Individual Defendants' high-level positions (CEO, Chairman, CFO) gave them power to control DocGo's statements (signed false proxies/8-Ks, oversaw operations/releases). Culpable participation is pled: Vashovsky signed false proxies touting Capone; Oberholzer signed 8-K announcing Capone as CEO with false bio; both allowed misstatements despite access to contrary info. Capone directly culpable as primary actor. Complaint alleges they 'had the power and influence to cause the Company to engage in the unlawful conduct' with opportunity to correct, satisfying heightened PSLRA pleading.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+          <t>Dismissed with prejudice. Fails to plead deceptive scheme, as no material misstatements/omissions or undisclosed acts; minimum commitments, shipments, and inventory risks adequately disclosed. Annual contracts and industry practices not inherently fraudulent; no scienter for scheme.[1][4]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Count III: Section 20(a) against Executive Defendants (control person liability)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Dismissed with prejudice. Requires primary violation under Section 10(b); none pled. Executives not liable as controlling persons absent underlying violation.[1][4]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Count IV: Section 11 against Securities Act Defendants (Mobileye, Shashua, Heller; Offering Documents misstatements/omissions, Item 303/105 violations)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Dismissed with prejudice. Offering Documents (Registration Statement, Prospectus, incorporated 10-K/10-Q) contained no material misstatements/omissions re: contracts, demand, trends. Minimum commitments, shipments 'per market conditions,' prior inventory buildup, and risks adequately disclosed; no Item 303 trend (excess known but not 'reasonably likely' to materially impact future ops per warnings) or Item 105 risk omission. No reasonable investigation failure.[1][4]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Count V: Section 15 against Shashua and Heller (control person liability)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Dismissed with prejudice. Requires primary Section 11 violation; none pled.[1][4]</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>16135</v>
+        <v>43411</v>
       </c>
       <c r="X24" t="n">
-        <v>1174</v>
+        <v>969</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -3080,17 +2788,11 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nysd_24_cv_310</t>
+          <t>txnd-4_24-cv-00673</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3103,92 +2805,56 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The complaint is a securities class action against Mobileye Global Inc. and its Executive Defendants—Amnon Shashua (CEO), Moran Shemesh Rojansky (CFO), Anat Heller (former CFO), and Daniel Galves (Chief Communications Officer)—brought by Lead Plaintiff The Retirement Plan for Chicago Transit Authority Employees (for Exchange Act claims) and additional Named Plaintiff Oklahoma Firefighters Pension and Retirement System (for Securities Act claims). It alleges a channel stuffing scheme where Defendants forced Tier 1 customers (e.g., ZF Group, Valeo, Aptiv, Magna, generating ~70% of revenue) into annual minimum quantity commitments for EyeQ chips (90% of revenue), shipping 6-7 million excess units (4-5 million in 2021-2022, 2-3 million in 2023) beyond true market demand despite customer objections and industry-standard EDI communications revealing declining OEM demand, enabling Mobileye to meet guidance/analyst expectations while concealing revenue cannibalization. Key facts include corroborated former employee accounts (FE1 from Aptiv, FE2 from Mobileye), year-end shipment spikes, Defendants' false assurances of demand visibility/inventory monitoring/shipments tied to 'market conditions'/customer 'capacity,' and inflated ADAS market share claims. Corrective disclosures on January 4, 2024 (excess inventory revelation, 50% Q1 2024 revenue drop guidance) caused 24.5% stock drop; August 1, 2024 (further guidance cut tied to EyeQ volumes/China residuals) caused 22.5% drop (total ~70% decline). Exchange Act claims (Class Period: January 26, 2023–August 1, 2024) assert §10(b)/Rule 10b-5 violations via misstatements/omissions/scheme and §20(a) control liability. Securities Act claims target June 2023 Secondary Public Offering ($1.6B, 38.5M shares at $42/share), alleging §11/§15 violations in Registration Statement/Prospectus (incorporating 2022 10-K/Q1 2023 10-Q) for similar misstatements/omissions and Item 303/105 failures.</t>
+          <t>This is a federal securities class action lawsuit filed in the U.S. District Court for the Northern District of Texas against American Airlines Group Inc. (NASDAQ: AAL) and three individual defendants: Robert D. Isom Jr. (CEO), Devon E. May (CFO), and Vasu S. Raja (Chief Commercial Officer). The class period spans July 20, 2023 to May 28, 2024. Plaintiffs allege that defendants made materially false and misleading statements regarding American's 'Modern Retailing' distribution strategy, which aimed to shift customers from traditional EDIFACT channels (used by travel agencies and corporate travel managers) to American's proprietary NDC (New Distribution Capability) channels and direct booking platforms. The complaint alleges that defendants publicly touted the success of this strategy while concealing that it was actually driving away travel agencies, corporate customers, and small-to-medium-sized businesses (SMBs) to competitors, causing significant revenue losses. According to the complaint, defendants knew from internal data (SalesLink Insights, PRISM reports, IATA data) that agency bookings declined 15% year-over-year after new contracts took effect in July 2023, corporate bookings fell 'much lower' than that, and American was losing market share. Despite this knowledge, defendants issued false earnings guidance for Q2 and full-year 2024 claiming strong demand and successful NDC adoption. On May 28-29, 2024, defendants disclosed the truth: the distribution strategy had cost $750 million in revenue in the first half of 2024 alone, was expected to cost another $750 million in the second half, and defendants were reversing course. The stock dropped 13.54% on May 29, 2024—the largest single-day decline since June 2020. The complaint asserts violations of Securities Exchange Act Sections 10(b), 20(a), and Rule 10b-5, alleging defendants acted with scienter (knowledge or reckless disregard) based on their access to detailed performance metrics, the engagement of Bain &amp; Company to review the distribution strategy, and post-disclosure admissions that problems existed as early as Q1 2024.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5(b)</t>
+          <t>Violation of Section 10(b) of the Securities Exchange Act and Rule 10b-5 (Securities Fraud)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>To survive dismissal under §10(b)/Rule 10b-5(b), the complaint must plead: (1) material misrepresentation/omission, (2) scienter, (3) connection with purchase/sale of security, (4) reliance, (5) economic loss, and (6) loss causation (Dura Pharms., Inc. v. Broudo, 544 U.S. 336 (2005); Matrixx Initiatives, Inc. v. Siracusano, 563 U.S. 27 (2011)). PSLRA requires particularity in alleging falsity (who/what/when/where/how) and strong inference of scienter (Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007)). Here, complaint pleads numerous specific statements (e.g., 2022 10-K claims of no general minimum commitments/shipments 'depend[ing] upon market conditions'; earnings calls touting demand visibility/'continuous contact'/stable inventory; market share claims) as false/misleading because Defendants forced atypical annual minimums on top customers (70% revenue), shipped millions excess EyeQ units (corroborated by FE1/FE2, EDI data, shipment spikes), knew via industry practices/customer reports of declining demand/excess buildup, yet assured organic growth/demand-matching, enabling guidance beats but cannibalizing future revenue—material as EyeQ drove 90% revenue/valuation post-IPO spin. Scienter strongly inferred collectively via core operations inference (EyeQ central, few customers, Defendants' direct involvement per FE2/Shashua oversight/Heller meetings), specific falsity despite access, scheme to meet guidance, shifting excuses—cogent/at least as compelling as nonfraud inference. Reliance/economic loss/loss causation presumed via efficient market (fraud-on-market, Basic Inc. v. Levinson, 485 U.S. 224 (1988)) with specific disclosures causing sharp drops on heavy volume/analyst shock. Survives Iqbal/Twombly plausibility.</t>
+          <t>On November 15, 2025, the Court granted Defendants' Motion to Dismiss with prejudice. The case was dismissed with final judgment entered on November 18, 2025. The complaint alleged that defendants made materially false and misleading statements regarding American's Modern Retailing/NDC distribution strategy and omitted material facts about the strategy's negative impact on revenues and market share. However, the motion to dismiss was granted, indicating the Court found the complaint failed to state a claim upon which relief could be granted under the applicable pleading standards, likely under Federal Rule of Civil Procedure 12(b)(6). The dismissal was with prejudice, meaning plaintiffs cannot refile substantially similar claims.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rules 10b-5(a) and (c)</t>
+          <t>Violation of Section 20(a) of the Securities Exchange Act (Control Person Liability)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Rule 10b-5(a)/(c) prohibits deceptive schemes/practices separate from misstatements (Stoneridge Inv. Partners, LLC v. Sci.-Atlanta, 552 U.S. 148 (2008); Lorenzo v. SEC, 139 S. Ct. 1094 (2019)). Complaint adequately pleads scheme liability via particularized allegations of multi-year channel stuffing: forcing minimum commitments/impossible adjustments despite known excess (FE1/FE2), shipping excess units to meet targets (quantified impacts on guidance/analyst beats), coordinated concealment via false statements—deceptive acts/practices operating as fraud, tied to purchases via artificial inflation. Scienter as above. Loss causation via partial disclosures revealing scheme. Independent of 10b-5(b), survives dismissal.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Section 20(a) of the Exchange Act</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>§20(a) imposes control person liability upon primary §10(b) violation plus culpable participation (direct/indirect control + 'culpable conduct' element satisfied by underlying scienter) (Par+f. Indus., Inc. v. Interstate Bakeries Corp., 629 F.3d 133 (2d Cir. 2011); see also §15 control for Securities Act analogy). Executive Defendants (Shashua, Rojansky, Heller, Galves) pled as controlling via senior roles (CEO/CFOs/Chief Comms), signing filings, making statements, supervisory involvement (FE2 re: Shashua/Heller). Primary violation pled above. Survives.</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>§11 imposes strict liability/neg negligence on issuers/signers for material misstatements/omissions in registration statements/prospectuses (including incorporated filings) making statements misleading (OmniCare, Inc. v. Laborers Dist. Council Constr. Indus. Pension Fund, 575 U.S. 175 (2015)). No scienter/reliance/loss causation needed (negative causation defense available post-trial). Offering Documents (S-1/Prospectus inc. 2022 10-K/Q1 10-Q) contained same misstatements as Exchange Act (e.g., 'generally no' minimums/shipments per 'market conditions'/growth from demand not stuffing), omitting Item 303 trends (known excess buildup/revenue risk from unadjustable commitments, reasonably likely material unfavorable impact on future sales per management knowledge via FE2/EDI) and Item 105 risks (speculative investment from channel stuffing). Offering purchaser (Oklahoma Firefighters at $42/share &gt; market) damaged by later declines. Reasonable investigation lacking (signers Shashua/Heller had access). Survives.</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>§15 control person liability requires primary §11 violation + control (ability to influence/control primary violator) + culpable participation (minimal, e.g., signing/oversight) (Crescent Farm Dev. Grp. LLC v. HCA Holdings, Inc., 2022 WL 2531735 (S.D.N.Y. July 7, 2022)). Primary pled above. Shashua/Heller as CEO/CFO signed S-1, controlled contents. Survives.</t>
-        </is>
-      </c>
+          <t>As a derivative claim dependent upon the Section 10(b)/Rule 10b-5 violation, the Section 20(a) control person liability claim against the individual defendants (Isom, May, and Raja) was also dismissed with prejudice when the primary fraud claim was dismissed on November 15, 2025. Section 20(a) imposes liability on controlling persons only when there is an underlying primary violation. Since the Court found no viable Section 10(b) claim, the Section 20(a) claim necessarily failed.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>43654</v>
+        <v>55215</v>
       </c>
       <c r="X25" t="n">
-        <v>1749</v>
+        <v>791</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -3205,17 +2871,11 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>txnd-4_24-cv-00673</t>
+          <t>txsd-4-21-cv-02473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3228,12 +2888,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>This is a securities class action complaint filed against American Airlines Group Inc. and three individual defendants (Robert D. Isom Jr., CEO; Devon E. May, CFO; and Vasu S. Raja, former Chief Commercial Officer) alleging violations of Sections 10(b) and 20(a) of the Securities Exchange Act of 1934. The complaint alleges that from July 20, 2023 through May 28, 2024 (the 'Class Period'), defendants made materially false and misleading statements regarding the success of American's 'Modern Retailing' distribution strategy, which involved transitioning from traditional EDIFACT channels (used by travel agencies and corporate customers) to NDC (New Distribution Capability) technology and direct booking channels. According to the complaint, defendants knew or recklessly disregarded that this aggressive shift was actually driving away travel agencies, corporate customers, and small-to-medium businesses to competitors, resulting in significant market share losses and revenue declines. The complaint alleges defendants made false statements about strong business travel demand, successful NDC adoption, and positive corporate customer responses, while concealing that bookings from agencies declined 15% year-over-year, corporate bookings fell even more dramatically, and American was losing market share to Delta and United. The complaint further alleges that on May 28-29, 2024, defendants revealed the truth by announcing Raja's departure, slashing Q2 2024 guidance, and admitting the distribution strategy changes had driven customers away and caused approximately $750 million in revenue losses in the first half of 2024. Upon these disclosures, American's stock fell 13.54% in a single day (from $13.44 to $11.62 per share) while competitors' stocks remained relatively stable. The class period encompasses all purchasers of American securities between July 20, 2023 and May 28, 2024. Plaintiffs seek damages for securities purchased at artificially inflated prices, alleging loss causation based on the dramatic stock price decline following corrective disclosures and the divergence from competitor performance.</t>
+          <t>This securities class action complaint, filed by Lead Plaintiffs Utah Retirement Systems and Construction Laborers Pension Trust for Southern California against Concho Resources Inc. (acquired by ConocoPhillips as successor-in-interest) and Individual Defendants (CEO Timothy A. Leach, President Jack F. Harper, EVP/COO C. William Giraud, former COO E. Joseph Wright, and SVP/CFO Brenda R. Schroer), alleges violations of Sections 10(b)/Rule 10b-5 and 20(a) of the Exchange Act. The Class Period is February 21, 2018, through July 31, 2019, covering all who acquired Concho common stock (NYSE: CXO) during this time and were damaged. Key facts: Defendants touted Concho's transition to 'large-scale development' or 'manufacturing mode' involving simultaneous completion of tightly spaced wells (e.g., flagship 23-well Dominator project in Northern Delaware Basin), claiming validated spacing, risk mitigation, unchanged risk profile, and high production growth (20%+ annually). Misconduct: These projects were unverified high-risk experiments with aggressive tight spacing lacking proper modeling or risking; ~90% of 2018 budget was high-risk without balancing low-risk projects; Individual Defendants ignored internal warnings from former employees (FEs), used historical low-risk profiles, and issued inflated forecasts. Post-Class Period (Aug 1, 2019), Defendants admitted wells (including Dominator) were 'too tight,' slashed rig count (33 to 18), cut production guidance without reducing capex, causing 22% stock drop from $97.68 to $75.97; later 16% proved reserves cut. Scienter shown via FEs' accounts of Defendants' direct involvement, weekly meetings, real-time data access, and disregard of risks.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Securities Exchange Act and Rule 10b-5 - Securities Fraud</t>
+          <t>Count I: Violation of Section 10(b) of the Exchange Act and Rule 10b-5 (against all Defendants)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3243,12 +2903,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b)/Rule 10b-5 claim under the heightened pleading standards of the Private Securities Litigation Reform Act (PSLRA). First, materiality is satisfied: the complaint alleges defendants made specific false statements regarding (1) the success of NDC adoption by travel agencies and corporate customers; (2) strong and durable business travel demand; (3) positive corporate customer responses; and (4) American's ability to meet full-year 2024 financial guidance. These statements directly concerned American's core revenue-generating distribution channels (approximately $14 billion annually through traditional channels, roughly 29% of passenger revenue). The complaint provides detailed factual support through confidential witnesses (CW1 and CW2) employed in American's sales divisions who had direct knowledge of booking metrics, market share data, and customer reactions. The complaint alleges defendants possessed access to SalesLink Insights, PRISM reports, and IATA data showing declining bookings and market share losses beginning as early as April 2023 and continuing through the Class Period. Second, scienter is adequately pleaded with a 'strong inference' under Tellabs standards. The complaint alleges: (a) defendants received detailed internal reports showing 15% declines in agency bookings and even steeper corporate booking declines following the July 2023 contract changes; (b) defendants hired Bain &amp; Company weeks before May 28, 2024 to conduct a 'critical review' of the distribution strategy, suggesting awareness of problems; (c) defendants knew by Q1 2024 that American was underperforming peers on revenue but hoped the situation would 'reverse itself' rather than disclose the issues; (d) defendants made granular statements about NDC adoption rates and corporate recovery percentages, indicating close monitoring of metrics that contradicted their public statements; (e) defendants' own post-Class Period admissions (May 29, 2024 Bernstein Conference and July 25, 2024 earnings call) that the strategy had been 'driving customers away' and caused $750 million in revenue losses over six months, with Isom stating 'we move[d] faster than we should have and we didn't execute well'; and (f) the magnitude of the revenue impact ($750 million) strains credulity that defendants were unaware during the Class Period. While defendants could theoretically argue they recklessly disregarded rather than knowingly made false statements, the complaint adequately alleges facts supporting knowledge or at minimum recklessness. Third, the complaint adequately alleges loss causation. It identifies specific corrective disclosures on May 28-29, 2024 (Raja's departure announcement, guidance reductions, and Isom's admissions that the distribution strategy was 'driving customers away'). The stock price fell 13.54% in one day while competitors' stocks remained stable, and analyst reports attributed the decline specifically to American's distribution strategy issues rather than market-wide factors. The complaint distinguishes this from general market conditions by showing United reaffirmed guidance the same day. Fourth, reliance is adequately pleaded under the fraud-on-the-market doctrine given American's actively traded Nasdaq status, analyst following, high trading volume, and SEC reporting obligations. The motion to dismiss should be DENIED as to this claim. Defendants' arguments that statements were aspirational or forward-looking are undermined by the specific factual allegations and the PSLRA safe harbor analysis in the complaint (Section XII), which notes statements related to then-existing facts and conditions and lacked meaningful cautionary language.</t>
+          <t>Plaintiffs plead particularity under PSLRA: (1) numerous specific misleading statements (e.g., ¶¶167-297 touting manufacturing mode success, validated spacing, production growth, Dominator returns); (2) falsity via contradictory post-Class admissions (¶¶162-166,300,309-316), poor Dominator/peers data (¶¶155-161), 16% reserves cut due to tight spacing (¶315); (3) scienter via core operations inference (high-level executives oversaw risky projects), direct FE accounts of warnings ignored by Giraud/Leach/Harper (¶¶74-154, detailed roles/bases of knowledge), access to real-time data/Aries database (¶¶101,391-394), motive (avoid acquisition in consolidating industry ¶3), post-event gains (¶320); (4) materiality (20%+ growth guidance unmet, stock drop on truth); (5) reliance (fraud-on-market); (6) loss causation (22% drop Aug 1, 2019 on spacing revelation ¶408). No safe harbor (mixed present/puffery statements). Scienter strong for Concho/ConocoPhillips/Individual Defendants except potentially Schroer/Wright (less direct involvement); survives 12(b)(6).</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Securities Exchange Act - Control Person Liability</t>
+          <t>Count II: Violation of Section 20(a) of the Exchange Act (against Individual Defendants)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3258,7 +2918,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads control person liability under Section 20(a) against the Individual Defendants. Section 20(a) imposes liability on controlling persons for primary violations of Section 10(b) by controlled entities, provided the controlling person did not act in good faith. The complaint establishes that each Individual Defendant—Isom (CEO and Board member), May (CFO), and Raja (Chief Commercial Officer)—held positions of control over American's business and had authority over the content of SEC filings, press releases, and investor communications. The complaint alleges: (1) each defendant directly participated in management and day-to-day operations at the highest levels; (2) each had access to confidential, proprietary information about the Company's distribution strategy performance; (3) each made or authorized the false statements alleged in the complaint (earnings calls, press releases, investor conferences); (4) each had the ability to correct or prevent the release of false statements; and (5) each knew or recklessly disregarded that the statements were materially false and misleading. The complaint specifically alleges Isom and Raja controlled the distribution strategy and its communications to investors, with Isom admitting post-Class Period that 'our strategy is the company strategy. Those are my strategies, okay?' The complaint further alleges they did not act in good faith by concealing known adverse information about the strategy's impact on revenues and market share. The control person liability claim is adequately pleaded and should survive a motion to dismiss. The motion to dismiss should be DENIED as to this claim.</t>
+          <t>Requires primary violation (Count I sustained) and 'control' (high executive positions: CEO, President/CFO, EVP/COO, former COO, SVP/CFO; signed 10-Ks ¶¶180,270; approved forecasts/statements ¶¶342-349; culpable participation via scienter allegations). Defendants had power to control/influence misleading disclosures and did so; joint/several liability appropriate. Survives dismissal.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -3274,10 +2934,10 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>55458</v>
+        <v>66796</v>
       </c>
       <c r="X26" t="n">
-        <v>1530</v>
+        <v>999</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -3294,12 +2954,6 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
